--- a/code/results/signal_reconstruction/counters_means.xlsx
+++ b/code/results/signal_reconstruction/counters_means.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>BR_INST_RETIRED</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>uops_dispatched:core</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
 </sst>
 </file>
@@ -432,6 +435,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,58 +498,58 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42688808.39393939</v>
+        <v>47813523.75862069</v>
       </c>
       <c r="C2">
-        <v>63701.15151515151</v>
+        <v>72031.93103448275</v>
       </c>
       <c r="D2">
-        <v>118303617.5757576</v>
+        <v>118338939.2758621</v>
       </c>
       <c r="E2">
-        <v>267082427.1212121</v>
+        <v>294408649.2413793</v>
       </c>
       <c r="F2">
-        <v>361640.8484848485</v>
+        <v>436425.3103448276</v>
       </c>
       <c r="G2">
-        <v>3766035.636363636</v>
+        <v>4222354.896551725</v>
       </c>
       <c r="H2">
-        <v>2869.606060606061</v>
+        <v>2622.241379310345</v>
       </c>
       <c r="I2">
-        <v>7912422.242424242</v>
+        <v>8578362.448275862</v>
       </c>
       <c r="J2">
-        <v>3847995.939393939</v>
+        <v>4154951.310344827</v>
       </c>
       <c r="K2">
-        <v>6746650.242424242</v>
+        <v>7329444.206896552</v>
       </c>
       <c r="L2">
-        <v>28685.24242424242</v>
+        <v>22236.03448275862</v>
       </c>
       <c r="M2">
-        <v>12437.9696969697</v>
+        <v>19231.27586206896</v>
       </c>
       <c r="N2">
-        <v>34576690.18181818</v>
+        <v>33804099.27586207</v>
       </c>
       <c r="O2">
-        <v>38055711.72727273</v>
+        <v>30668082.31034483</v>
       </c>
       <c r="P2">
-        <v>12.51515151515152</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="Q2">
-        <v>0.5454545454545454</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15370996.93939394</v>
+        <v>11961100.31034483</v>
       </c>
       <c r="S2">
-        <v>353469369.4242424</v>
+        <v>337724498.9310345</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -551,58 +557,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36120326.82051282</v>
+        <v>47493535.06666667</v>
       </c>
       <c r="C3">
-        <v>54282.5641025641</v>
+        <v>71735.56666666667</v>
       </c>
       <c r="D3">
-        <v>118716686.7948718</v>
+        <v>117723824.8666667</v>
       </c>
       <c r="E3">
-        <v>227010781.1025641</v>
+        <v>293220240.9666666</v>
       </c>
       <c r="F3">
-        <v>255892.5384615385</v>
+        <v>444926.6333333334</v>
       </c>
       <c r="G3">
-        <v>3089167.333333333</v>
+        <v>4214318.3</v>
       </c>
       <c r="H3">
-        <v>2259.410256410256</v>
+        <v>2619.533333333333</v>
       </c>
       <c r="I3">
-        <v>5978689.076923077</v>
+        <v>8607884</v>
       </c>
       <c r="J3">
-        <v>3386390.846153846</v>
+        <v>4182153.633333333</v>
       </c>
       <c r="K3">
-        <v>5963402.871794872</v>
+        <v>7348902.233333333</v>
       </c>
       <c r="L3">
-        <v>20560.20512820513</v>
+        <v>22606.16666666667</v>
       </c>
       <c r="M3">
-        <v>11015.94871794872</v>
+        <v>23952.73333333333</v>
       </c>
       <c r="N3">
-        <v>25890040.74358974</v>
+        <v>33724125.43333333</v>
       </c>
       <c r="O3">
-        <v>29873080.69230769</v>
+        <v>34501612.96666667</v>
       </c>
       <c r="P3">
-        <v>2.615384615384615</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="Q3">
-        <v>0.4358974358974359</v>
+        <v>1.5</v>
       </c>
       <c r="R3">
-        <v>20742890.28205128</v>
+        <v>11973721.7</v>
       </c>
       <c r="S3">
-        <v>370402386.4871795</v>
+        <v>335698592.2666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -610,58 +616,58 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6560648.747368421</v>
+        <v>11514819.9575</v>
       </c>
       <c r="C4">
-        <v>16819.69473684211</v>
+        <v>27154.0625</v>
       </c>
       <c r="D4">
-        <v>116664496.1894737</v>
+        <v>118075866.27</v>
       </c>
       <c r="E4">
-        <v>165321919.0736842</v>
+        <v>281895615.41</v>
       </c>
       <c r="F4">
-        <v>145540.9368421053</v>
+        <v>107768.01</v>
       </c>
       <c r="G4">
-        <v>798038.8421052631</v>
+        <v>1168080.97</v>
       </c>
       <c r="H4">
-        <v>721130.7368421053</v>
+        <v>1221751.68</v>
       </c>
       <c r="I4">
-        <v>3733126.884210526</v>
+        <v>5501275.015</v>
       </c>
       <c r="J4">
-        <v>2792863.484210526</v>
+        <v>4063163.9675</v>
       </c>
       <c r="K4">
-        <v>3452840.042105263</v>
+        <v>4957122.65</v>
       </c>
       <c r="L4">
-        <v>96369.96842105263</v>
+        <v>137673.89</v>
       </c>
       <c r="M4">
-        <v>12840.28421052632</v>
+        <v>17605.8</v>
       </c>
       <c r="N4">
-        <v>8985162.842105264</v>
+        <v>14153410.1375</v>
       </c>
       <c r="O4">
-        <v>10048406.38947368</v>
+        <v>14223883.47</v>
       </c>
       <c r="P4">
-        <v>4.631578947368421</v>
+        <v>0.9</v>
       </c>
       <c r="Q4">
-        <v>12.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>29760886.54736842</v>
+        <v>33404318.135</v>
       </c>
       <c r="S4">
-        <v>355697497.1578947</v>
+        <v>349952572.0675</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -669,58 +675,58 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6449087.610526316</v>
+        <v>11501709.805</v>
       </c>
       <c r="C5">
-        <v>16173.61052631579</v>
+        <v>27078.52</v>
       </c>
       <c r="D5">
-        <v>118990730.2315789</v>
+        <v>118091567.1275</v>
       </c>
       <c r="E5">
-        <v>163322122.1052631</v>
+        <v>281205886.185</v>
       </c>
       <c r="F5">
-        <v>178214.9578947368</v>
+        <v>105813.4075</v>
       </c>
       <c r="G5">
-        <v>858519.2526315789</v>
+        <v>1157808.07</v>
       </c>
       <c r="H5">
-        <v>657868.652631579</v>
+        <v>1225466.2075</v>
       </c>
       <c r="I5">
-        <v>3382885.136842105</v>
+        <v>5487156.13</v>
       </c>
       <c r="J5">
-        <v>2618236.431578947</v>
+        <v>4059552.8875</v>
       </c>
       <c r="K5">
-        <v>3389214.010526316</v>
+        <v>4948339.98</v>
       </c>
       <c r="L5">
-        <v>88528.57894736843</v>
+        <v>137559.22</v>
       </c>
       <c r="M5">
-        <v>12095.50526315789</v>
+        <v>17010.8</v>
       </c>
       <c r="N5">
-        <v>8483048.768421052</v>
+        <v>14116170.92</v>
       </c>
       <c r="O5">
-        <v>9193398.168421052</v>
+        <v>14186769.655</v>
       </c>
       <c r="P5">
-        <v>2.347368421052632</v>
+        <v>0.295</v>
       </c>
       <c r="Q5">
-        <v>12.33684210526316</v>
+        <v>0.135</v>
       </c>
       <c r="R5">
-        <v>31258316.75789474</v>
+        <v>33528742.66</v>
       </c>
       <c r="S5">
-        <v>355772289.4210526</v>
+        <v>349205785.8375</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -728,58 +734,58 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9267750.263157895</v>
+        <v>9289535.1075</v>
       </c>
       <c r="C6">
-        <v>7280.2</v>
+        <v>8719.077499999999</v>
       </c>
       <c r="D6">
-        <v>124859754.4421053</v>
+        <v>118112314.0925</v>
       </c>
       <c r="E6">
-        <v>250952907.7263158</v>
+        <v>245403858.865</v>
       </c>
       <c r="F6">
-        <v>78439.68421052632</v>
+        <v>77893.16499999999</v>
       </c>
       <c r="G6">
-        <v>172101.7894736842</v>
+        <v>161669.27</v>
       </c>
       <c r="H6">
-        <v>1461030.2</v>
+        <v>1455328.7875</v>
       </c>
       <c r="I6">
-        <v>7568462.505263158</v>
+        <v>7620081.25</v>
       </c>
       <c r="J6">
-        <v>3244124.442105263</v>
+        <v>3273565.3925</v>
       </c>
       <c r="K6">
-        <v>3356286.347368421</v>
+        <v>3388278.2625</v>
       </c>
       <c r="L6">
-        <v>33799.0947368421</v>
+        <v>19756.685</v>
       </c>
       <c r="M6">
-        <v>12303.95789473684</v>
+        <v>15661.6825</v>
       </c>
       <c r="N6">
-        <v>39969814.36842106</v>
+        <v>40746702.71</v>
       </c>
       <c r="O6">
-        <v>45659767.11578947</v>
+        <v>40906648.835</v>
       </c>
       <c r="P6">
-        <v>0.4947368421052631</v>
+        <v>1.0575</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="R6">
-        <v>28598614.91578947</v>
+        <v>29606698.76</v>
       </c>
       <c r="S6">
-        <v>333996583.968421</v>
+        <v>327551465.3075</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -787,58 +793,58 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7916593.789473685</v>
+        <v>9268455.074999999</v>
       </c>
       <c r="C7">
-        <v>7392.18947368421</v>
+        <v>8580.01</v>
       </c>
       <c r="D7">
-        <v>118737160.3894737</v>
+        <v>118096212.9075</v>
       </c>
       <c r="E7">
-        <v>210420907.6</v>
+        <v>244869860.6025</v>
       </c>
       <c r="F7">
-        <v>58558.75789473685</v>
+        <v>74063.1075</v>
       </c>
       <c r="G7">
-        <v>221278.9894736842</v>
+        <v>162231.9875</v>
       </c>
       <c r="H7">
-        <v>1245751.252631579</v>
+        <v>1452515.79</v>
       </c>
       <c r="I7">
-        <v>6878569.810526316</v>
+        <v>7614514.4875</v>
       </c>
       <c r="J7">
-        <v>2802379.263157895</v>
+        <v>3280486.7525</v>
       </c>
       <c r="K7">
-        <v>2989155.505263158</v>
+        <v>3392888.24</v>
       </c>
       <c r="L7">
-        <v>77061.65263157895</v>
+        <v>22152.4125</v>
       </c>
       <c r="M7">
-        <v>17902.01052631579</v>
+        <v>17532.7225</v>
       </c>
       <c r="N7">
-        <v>36417420.01052631</v>
+        <v>40658370.2425</v>
       </c>
       <c r="O7">
-        <v>37118696.12631579</v>
+        <v>40816750.4825</v>
       </c>
       <c r="P7">
-        <v>0.5684210526315789</v>
+        <v>0.045</v>
       </c>
       <c r="Q7">
-        <v>5.494736842105263</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>26518820.11578947</v>
+        <v>29934915.2975</v>
       </c>
       <c r="S7">
-        <v>342028450.1263158</v>
+        <v>326643413.49</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -846,58 +852,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6943599.231578947</v>
+        <v>9255591.942500001</v>
       </c>
       <c r="C8">
-        <v>8487.673684210526</v>
+        <v>9295.385</v>
       </c>
       <c r="D8">
-        <v>122956091.5157895</v>
+        <v>118129576.265</v>
       </c>
       <c r="E8">
-        <v>180974562.3052632</v>
+        <v>246773077.5675</v>
       </c>
       <c r="F8">
-        <v>94730.2947368421</v>
+        <v>131055.6725</v>
       </c>
       <c r="G8">
-        <v>984368.6210526315</v>
+        <v>796583.84</v>
       </c>
       <c r="H8">
-        <v>2836.673684210527</v>
+        <v>2616.44</v>
       </c>
       <c r="I8">
-        <v>6908239.578947368</v>
+        <v>9584770.9375</v>
       </c>
       <c r="J8">
-        <v>3089032.715789474</v>
+        <v>4717772.7975</v>
       </c>
       <c r="K8">
-        <v>3876900.968421053</v>
+        <v>5386608.59</v>
       </c>
       <c r="L8">
-        <v>190315.3157894737</v>
+        <v>101570.43</v>
       </c>
       <c r="M8">
-        <v>18465.4</v>
+        <v>21402.0475</v>
       </c>
       <c r="N8">
-        <v>29262929.72631579</v>
+        <v>40580067.88</v>
       </c>
       <c r="O8">
-        <v>34395956.76842105</v>
+        <v>40746575.2175</v>
       </c>
       <c r="P8">
-        <v>12.16842105263158</v>
+        <v>2.6325</v>
       </c>
       <c r="Q8">
-        <v>0.8105263157894737</v>
+        <v>2.0925</v>
       </c>
       <c r="R8">
-        <v>26401791.81052632</v>
+        <v>27490339.06</v>
       </c>
       <c r="S8">
-        <v>350782380.8631579</v>
+        <v>332489077.115</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -905,58 +911,58 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8729587.378947368</v>
+        <v>9253786.68</v>
       </c>
       <c r="C9">
-        <v>7614.978947368421</v>
+        <v>8401.922500000001</v>
       </c>
       <c r="D9">
-        <v>121029302.8736842</v>
+        <v>118190482.91</v>
       </c>
       <c r="E9">
-        <v>228402096.7368421</v>
+        <v>246782029.1525</v>
       </c>
       <c r="F9">
-        <v>117845.6736842105</v>
+        <v>134816.22</v>
       </c>
       <c r="G9">
-        <v>1011296.505263158</v>
+        <v>846384.3175</v>
       </c>
       <c r="H9">
-        <v>2865.431578947369</v>
+        <v>2627.36</v>
       </c>
       <c r="I9">
-        <v>8695947.368421054</v>
+        <v>9591199.244999999</v>
       </c>
       <c r="J9">
-        <v>4125736.47368421</v>
+        <v>4684875.88</v>
       </c>
       <c r="K9">
-        <v>4997532.326315789</v>
+        <v>5391748.6875</v>
       </c>
       <c r="L9">
-        <v>192391.3157894737</v>
+        <v>112444.845</v>
       </c>
       <c r="M9">
-        <v>18469.12631578948</v>
+        <v>19248.4</v>
       </c>
       <c r="N9">
-        <v>36651162.85263158</v>
+        <v>40561000.975</v>
       </c>
       <c r="O9">
-        <v>37253816.90526316</v>
+        <v>40728573.4125</v>
       </c>
       <c r="P9">
-        <v>0.1684210526315789</v>
+        <v>0.1575</v>
       </c>
       <c r="Q9">
-        <v>5.926315789473684</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>28644267.8</v>
+        <v>27744699.135</v>
       </c>
       <c r="S9">
-        <v>335573218.0421053</v>
+        <v>331656562.5425</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -964,58 +970,58 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5631021.242105263</v>
+        <v>9442724.9925</v>
       </c>
       <c r="C10">
-        <v>6482.052631578948</v>
+        <v>9009.5075</v>
       </c>
       <c r="D10">
-        <v>116051640.1578947</v>
+        <v>118040785.8025</v>
       </c>
       <c r="E10">
-        <v>142944938.0421053</v>
+        <v>250033220.325</v>
       </c>
       <c r="F10">
-        <v>73652.78947368421</v>
+        <v>144821.28</v>
       </c>
       <c r="G10">
-        <v>1012368.252631579</v>
+        <v>723013.3075</v>
       </c>
       <c r="H10">
-        <v>676077.7263157895</v>
+        <v>1240467.1775</v>
       </c>
       <c r="I10">
-        <v>5161789.621052631</v>
+        <v>9662250.0875</v>
       </c>
       <c r="J10">
-        <v>2249037.852631579</v>
+        <v>4719576.2475</v>
       </c>
       <c r="K10">
-        <v>3067472.663157895</v>
+        <v>5368809.7</v>
       </c>
       <c r="L10">
-        <v>209624.9157894737</v>
+        <v>49584.325</v>
       </c>
       <c r="M10">
-        <v>16018.18947368421</v>
+        <v>21576.6475</v>
       </c>
       <c r="N10">
-        <v>24163215.21052632</v>
+        <v>41446264.325</v>
       </c>
       <c r="O10">
-        <v>25040309.42105263</v>
+        <v>41625250.85</v>
       </c>
       <c r="P10">
-        <v>7.242105263157895</v>
+        <v>0.2025</v>
       </c>
       <c r="Q10">
-        <v>0.6105263157894737</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>29579896.52631579</v>
+        <v>26272073.3775</v>
       </c>
       <c r="S10">
-        <v>377493866.968421</v>
+        <v>335923722.1025</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1023,58 +1029,58 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6026201.242105263</v>
+        <v>9479049.8225</v>
       </c>
       <c r="C11">
-        <v>7107.821052631579</v>
+        <v>9165.93</v>
       </c>
       <c r="D11">
-        <v>116921638.5578947</v>
+        <v>118049777.875</v>
       </c>
       <c r="E11">
-        <v>156335973.2631579</v>
+        <v>250927424.6575</v>
       </c>
       <c r="F11">
-        <v>82671.98947368421</v>
+        <v>155141.86</v>
       </c>
       <c r="G11">
-        <v>1004958.073684211</v>
+        <v>690535.6</v>
       </c>
       <c r="H11">
-        <v>773359.6105263158</v>
+        <v>1245050.8425</v>
       </c>
       <c r="I11">
-        <v>6083532.978947368</v>
+        <v>9692556.76</v>
       </c>
       <c r="J11">
-        <v>2589140.252631579</v>
+        <v>4753358.63</v>
       </c>
       <c r="K11">
-        <v>3311007.336842105</v>
+        <v>5385137.8175</v>
       </c>
       <c r="L11">
-        <v>173353</v>
+        <v>35673.05</v>
       </c>
       <c r="M11">
-        <v>19341.81052631579</v>
+        <v>22671.6525</v>
       </c>
       <c r="N11">
-        <v>26711738.4631579</v>
+        <v>41581913.9475</v>
       </c>
       <c r="O11">
-        <v>27163020.6631579</v>
+        <v>41764703.7225</v>
       </c>
       <c r="P11">
-        <v>8.863157894736842</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q11">
-        <v>11.36842105263158</v>
+        <v>0.54</v>
       </c>
       <c r="R11">
-        <v>27377965.11578947</v>
+        <v>25954802.6475</v>
       </c>
       <c r="S11">
-        <v>341610284.5368421</v>
+        <v>337053740.0425</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1082,58 +1088,58 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8983716</v>
+        <v>10700982.33333333</v>
       </c>
       <c r="C12">
-        <v>36673.66666666666</v>
+        <v>38930.33333333334</v>
       </c>
       <c r="D12">
-        <v>114127887.3333333</v>
+        <v>114595491.6666667</v>
       </c>
       <c r="E12">
-        <v>242042807</v>
+        <v>247558418</v>
       </c>
       <c r="F12">
-        <v>581659</v>
+        <v>656307.3333333334</v>
       </c>
       <c r="G12">
-        <v>1366556.333333333</v>
+        <v>1304196.666666667</v>
       </c>
       <c r="H12">
-        <v>1207613.333333333</v>
+        <v>1256845.666666667</v>
       </c>
       <c r="I12">
-        <v>4809676.666666667</v>
+        <v>4708554</v>
       </c>
       <c r="J12">
-        <v>3041934.666666667</v>
+        <v>3315340.333333333</v>
       </c>
       <c r="K12">
-        <v>3544596</v>
+        <v>3862461.333333333</v>
       </c>
       <c r="L12">
-        <v>621424</v>
+        <v>527582.3333333334</v>
       </c>
       <c r="M12">
-        <v>23958.33333333333</v>
+        <v>23919.33333333333</v>
       </c>
       <c r="N12">
-        <v>13008871</v>
+        <v>13172007.66666667</v>
       </c>
       <c r="O12">
-        <v>15149604</v>
+        <v>15775042.33333333</v>
       </c>
       <c r="P12">
-        <v>5.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>36912244.66666666</v>
+        <v>36439764.33333334</v>
       </c>
       <c r="S12">
-        <v>346377164.6666667</v>
+        <v>340144186</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1141,58 +1147,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7787798.25</v>
+        <v>10590200.33333333</v>
       </c>
       <c r="C13">
-        <v>30312.5</v>
+        <v>40406</v>
       </c>
       <c r="D13">
-        <v>116332582.75</v>
+        <v>115762663.6666667</v>
       </c>
       <c r="E13">
-        <v>218936069.75</v>
+        <v>247686679.6666667</v>
       </c>
       <c r="F13">
-        <v>440939.25</v>
+        <v>686723.6666666666</v>
       </c>
       <c r="G13">
-        <v>1251183</v>
+        <v>1296446.333333333</v>
       </c>
       <c r="H13">
-        <v>1010452</v>
+        <v>1096938.666666667</v>
       </c>
       <c r="I13">
-        <v>5075085</v>
+        <v>4711709.666666667</v>
       </c>
       <c r="J13">
-        <v>3525346.75</v>
+        <v>3292987.333333333</v>
       </c>
       <c r="K13">
-        <v>4005591.75</v>
+        <v>3819518.333333333</v>
       </c>
       <c r="L13">
-        <v>523978.5</v>
+        <v>528560.3333333334</v>
       </c>
       <c r="M13">
-        <v>16922.25</v>
+        <v>28836.66666666667</v>
       </c>
       <c r="N13">
-        <v>10659321.25</v>
+        <v>13184698</v>
       </c>
       <c r="O13">
-        <v>12540977.75</v>
+        <v>15576739.33333333</v>
       </c>
       <c r="P13">
-        <v>2.25</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="Q13">
-        <v>386.25</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>34878262.5</v>
+        <v>35966287</v>
       </c>
       <c r="S13">
-        <v>354769900.5</v>
+        <v>340186211</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1200,58 +1206,58 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3433201.936842105</v>
+        <v>6098843.28</v>
       </c>
       <c r="C14">
-        <v>5863.81052631579</v>
+        <v>9768.6675</v>
       </c>
       <c r="D14">
-        <v>113260910.2315789</v>
+        <v>118166435.175</v>
       </c>
       <c r="E14">
-        <v>153605234.6526316</v>
+        <v>279513961.385</v>
       </c>
       <c r="F14">
-        <v>10141.43157894737</v>
+        <v>8281.5525</v>
       </c>
       <c r="G14">
-        <v>283594.5789473684</v>
+        <v>84148.34</v>
       </c>
       <c r="H14">
-        <v>2273039.368421053</v>
+        <v>3896057.5125</v>
       </c>
       <c r="I14">
-        <v>3393542.747368421</v>
+        <v>5707761.5375</v>
       </c>
       <c r="J14">
-        <v>1824550.431578947</v>
+        <v>3127792.3275</v>
       </c>
       <c r="K14">
-        <v>2020186.536842105</v>
+        <v>3170413.5475</v>
       </c>
       <c r="L14">
-        <v>120526.0526315789</v>
+        <v>13591.685</v>
       </c>
       <c r="M14">
-        <v>21309.24210526316</v>
+        <v>25752.0175</v>
       </c>
       <c r="N14">
-        <v>29857565.95789474</v>
+        <v>46669831.535</v>
       </c>
       <c r="O14">
-        <v>31193580.34736842</v>
+        <v>46862051.735</v>
       </c>
       <c r="P14">
-        <v>8.821052631578947</v>
+        <v>5.49</v>
       </c>
       <c r="Q14">
-        <v>0.5263157894736842</v>
+        <v>1.35</v>
       </c>
       <c r="R14">
-        <v>21875955.44210526</v>
+        <v>27772195.885</v>
       </c>
       <c r="S14">
-        <v>369107418.0631579</v>
+        <v>362416719.2125</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1259,58 +1265,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3322342.92631579</v>
+        <v>5857024.45</v>
       </c>
       <c r="C15">
-        <v>4854.789473684211</v>
+        <v>7069.4025</v>
       </c>
       <c r="D15">
-        <v>114605887.3368421</v>
+        <v>118066228.4025</v>
       </c>
       <c r="E15">
-        <v>149973333.6526316</v>
+        <v>270847741.4825</v>
       </c>
       <c r="F15">
-        <v>46962.13684210526</v>
+        <v>66112.9575</v>
       </c>
       <c r="G15">
-        <v>956140.8421052631</v>
+        <v>528329.99</v>
       </c>
       <c r="H15">
-        <v>1578505.568421053</v>
+        <v>2801935.37</v>
       </c>
       <c r="I15">
-        <v>3578030.378947368</v>
+        <v>6860279.4925</v>
       </c>
       <c r="J15">
-        <v>1883076.231578947</v>
+        <v>3996851.9925</v>
       </c>
       <c r="K15">
-        <v>2682254.642105263</v>
+        <v>4423687.635</v>
       </c>
       <c r="L15">
-        <v>230177.2210526316</v>
+        <v>67757.4525</v>
       </c>
       <c r="M15">
-        <v>22712.8</v>
+        <v>31532.6325</v>
       </c>
       <c r="N15">
-        <v>26512649.38947368</v>
+        <v>44832674.9425</v>
       </c>
       <c r="O15">
-        <v>26689581.34736842</v>
+        <v>45026490.51</v>
       </c>
       <c r="P15">
-        <v>15.89473684210526</v>
+        <v>2.295</v>
       </c>
       <c r="Q15">
-        <v>12.83157894736842</v>
+        <v>2.025</v>
       </c>
       <c r="R15">
-        <v>27723054.37894737</v>
+        <v>32101155.9975</v>
       </c>
       <c r="S15">
-        <v>357771587.6210526</v>
+        <v>351157872.6825</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1318,58 +1324,58 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4806759.389473684</v>
+        <v>5881679.7625</v>
       </c>
       <c r="C16">
-        <v>6534.536842105264</v>
+        <v>6086.735</v>
       </c>
       <c r="D16">
-        <v>121113435.5473684</v>
+        <v>118033938.22</v>
       </c>
       <c r="E16">
-        <v>221502266.8842105</v>
+        <v>271518644.5075</v>
       </c>
       <c r="F16">
-        <v>76893.42105263157</v>
+        <v>85310.375</v>
       </c>
       <c r="G16">
-        <v>725794.347368421</v>
+        <v>621156.785</v>
       </c>
       <c r="H16">
-        <v>2995691.336842105</v>
+        <v>3552030.825</v>
       </c>
       <c r="I16">
-        <v>5871546.694736842</v>
+        <v>6845907.9875</v>
       </c>
       <c r="J16">
-        <v>2978956.978947368</v>
+        <v>3870409.56</v>
       </c>
       <c r="K16">
-        <v>3682470.715789474</v>
+        <v>4390296.9375</v>
       </c>
       <c r="L16">
-        <v>121748.3157894737</v>
+        <v>72542.99249999999</v>
       </c>
       <c r="M16">
-        <v>21939.54736842105</v>
+        <v>26732.955</v>
       </c>
       <c r="N16">
-        <v>36901777.04210526</v>
+        <v>45558663.3275</v>
       </c>
       <c r="O16">
-        <v>40160387.76842105</v>
+        <v>45750105.255</v>
       </c>
       <c r="P16">
-        <v>1.210526315789474</v>
+        <v>0.7875</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="R16">
-        <v>29392946.45263158</v>
+        <v>31472965.7725</v>
       </c>
       <c r="S16">
-        <v>354510912.6105263</v>
+        <v>352558393.7025</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1377,58 +1383,58 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8476624.221052632</v>
+        <v>9270318.3125</v>
       </c>
       <c r="C17">
-        <v>7033.421052631579</v>
+        <v>6418.725</v>
       </c>
       <c r="D17">
-        <v>117802018.4210526</v>
+        <v>118070018.7425</v>
       </c>
       <c r="E17">
-        <v>223744088.2947368</v>
+        <v>245406593.805</v>
       </c>
       <c r="F17">
-        <v>64454.76842105263</v>
+        <v>70459.9425</v>
       </c>
       <c r="G17">
-        <v>177241.3684210526</v>
+        <v>156227.8475</v>
       </c>
       <c r="H17">
-        <v>1284911.473684211</v>
+        <v>1388652.02</v>
       </c>
       <c r="I17">
-        <v>7006480.621052631</v>
+        <v>7650164.45</v>
       </c>
       <c r="J17">
-        <v>3068133.557894737</v>
+        <v>3317111.5175</v>
       </c>
       <c r="K17">
-        <v>3309892.936842105</v>
+        <v>3421738.4825</v>
       </c>
       <c r="L17">
-        <v>42432.6</v>
+        <v>25456.875</v>
       </c>
       <c r="M17">
-        <v>16323.52631578947</v>
+        <v>19241.995</v>
       </c>
       <c r="N17">
-        <v>38775120.88421053</v>
+        <v>40725359.025</v>
       </c>
       <c r="O17">
-        <v>43633386.04210526</v>
+        <v>40894358.5275</v>
       </c>
       <c r="P17">
-        <v>0.09473684210526316</v>
+        <v>1.53</v>
       </c>
       <c r="Q17">
-        <v>12.46315789473684</v>
+        <v>1.0575</v>
       </c>
       <c r="R17">
-        <v>22857886.76842105</v>
+        <v>24164039.125</v>
       </c>
       <c r="S17">
-        <v>340264321.7157895</v>
+        <v>329900438.3825</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1436,58 +1442,58 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8307300.294736842</v>
+        <v>9351414.6975</v>
       </c>
       <c r="C18">
-        <v>7851</v>
+        <v>8796.004999999999</v>
       </c>
       <c r="D18">
-        <v>121524834.6</v>
+        <v>118075682.8225</v>
       </c>
       <c r="E18">
-        <v>222331726.8631579</v>
+        <v>249965705.885</v>
       </c>
       <c r="F18">
-        <v>117282.6842105263</v>
+        <v>148746.935</v>
       </c>
       <c r="G18">
-        <v>952854.5894736842</v>
+        <v>665483.9175</v>
       </c>
       <c r="H18">
-        <v>45221.61052631579</v>
+        <v>50472.305</v>
       </c>
       <c r="I18">
-        <v>8391085.810526315</v>
+        <v>9718550.797499999</v>
       </c>
       <c r="J18">
-        <v>3926038.673684211</v>
+        <v>4881607.98</v>
       </c>
       <c r="K18">
-        <v>4588036.052631579</v>
+        <v>5473957.665</v>
       </c>
       <c r="L18">
-        <v>150328.0105263158</v>
+        <v>46539.9925</v>
       </c>
       <c r="M18">
-        <v>20485.2947368421</v>
+        <v>25396.99</v>
       </c>
       <c r="N18">
-        <v>35855297.25263158</v>
+        <v>41123677.3875</v>
       </c>
       <c r="O18">
-        <v>41575237.67368421</v>
+        <v>41292794.1825</v>
       </c>
       <c r="P18">
-        <v>4.294736842105263</v>
+        <v>1.035</v>
       </c>
       <c r="Q18">
-        <v>1.052631578947368</v>
+        <v>1.215</v>
       </c>
       <c r="R18">
-        <v>25738819.70526316</v>
+        <v>24540059.435</v>
       </c>
       <c r="S18">
-        <v>332975022.3052632</v>
+        <v>338517311.7925</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1495,58 +1501,58 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5354082.947368421</v>
+        <v>9193402.564999999</v>
       </c>
       <c r="C19">
-        <v>6185.463157894736</v>
+        <v>9000.094999999999</v>
       </c>
       <c r="D19">
-        <v>115348828.0105263</v>
+        <v>117977392.25</v>
       </c>
       <c r="E19">
-        <v>140400668.9894737</v>
+        <v>244003873.7375</v>
       </c>
       <c r="F19">
-        <v>68295.87368421053</v>
+        <v>124642.8375</v>
       </c>
       <c r="G19">
-        <v>1168892.010526316</v>
+        <v>994976.4175</v>
       </c>
       <c r="H19">
-        <v>734469.0315789473</v>
+        <v>1288943.005</v>
       </c>
       <c r="I19">
-        <v>5495754.810526316</v>
+        <v>9460719.145</v>
       </c>
       <c r="J19">
-        <v>2247809.778947368</v>
+        <v>4467824.8025</v>
       </c>
       <c r="K19">
-        <v>3323018.852631579</v>
+        <v>5270824.54</v>
       </c>
       <c r="L19">
-        <v>250316.0947368421</v>
+        <v>160787.7675</v>
       </c>
       <c r="M19">
-        <v>18617.92631578947</v>
+        <v>24656.62</v>
       </c>
       <c r="N19">
-        <v>23297386.8</v>
+        <v>40428242.2525</v>
       </c>
       <c r="O19">
-        <v>24471837.12631579</v>
+        <v>37290034.97</v>
       </c>
       <c r="P19">
-        <v>2.610526315789474</v>
+        <v>0.0475</v>
       </c>
       <c r="Q19">
-        <v>1.08421052631579</v>
+        <v>0.0225</v>
       </c>
       <c r="R19">
-        <v>27648888.06315789</v>
+        <v>27547939.03</v>
       </c>
       <c r="S19">
-        <v>336304854.5789474</v>
+        <v>330596671.81</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1554,58 +1560,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9250548.357894737</v>
+        <v>9305817.6625</v>
       </c>
       <c r="C20">
-        <v>7509.8</v>
+        <v>8445.785</v>
       </c>
       <c r="D20">
-        <v>124931013.4</v>
+        <v>118148119.3325</v>
       </c>
       <c r="E20">
-        <v>244162977.9052632</v>
+        <v>244194923.97</v>
       </c>
       <c r="F20">
-        <v>70820.88421052632</v>
+        <v>75498.63250000001</v>
       </c>
       <c r="G20">
-        <v>190938.6947368421</v>
+        <v>146051.5025</v>
       </c>
       <c r="H20">
-        <v>1240866.473684211</v>
+        <v>1320835.68</v>
       </c>
       <c r="I20">
-        <v>7336352.347368421</v>
+        <v>7633135.4875</v>
       </c>
       <c r="J20">
-        <v>3132889.031578947</v>
+        <v>3275643.2975</v>
       </c>
       <c r="K20">
-        <v>3233174.831578947</v>
+        <v>3380720.8725</v>
       </c>
       <c r="L20">
-        <v>57834.8</v>
+        <v>17313.7875</v>
       </c>
       <c r="M20">
-        <v>13922.6</v>
+        <v>17232.655</v>
       </c>
       <c r="N20">
-        <v>39263603.93684211</v>
+        <v>40779356.5775</v>
       </c>
       <c r="O20">
-        <v>34005366.81052632</v>
+        <v>40967768.57</v>
       </c>
       <c r="P20">
-        <v>0.6210526315789474</v>
+        <v>2.0475</v>
       </c>
       <c r="Q20">
-        <v>16.95789473684211</v>
+        <v>1.215</v>
       </c>
       <c r="R20">
-        <v>27403724.55789474</v>
+        <v>28413763.59</v>
       </c>
       <c r="S20">
-        <v>339617975.968421</v>
+        <v>328371085.0525</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1613,58 +1619,58 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5529337.389473684</v>
+        <v>9358330.055</v>
       </c>
       <c r="C21">
-        <v>6099.18947368421</v>
+        <v>9029.4725</v>
       </c>
       <c r="D21">
-        <v>114458416.0315789</v>
+        <v>118106334.5425</v>
       </c>
       <c r="E21">
-        <v>140892546.7894737</v>
+        <v>247847905.8025</v>
       </c>
       <c r="F21">
-        <v>69568.12631578947</v>
+        <v>140825.2375</v>
       </c>
       <c r="G21">
-        <v>1448919.326315789</v>
+        <v>695299.0825</v>
       </c>
       <c r="H21">
-        <v>2890.642105263158</v>
+        <v>2629.4275</v>
       </c>
       <c r="I21">
-        <v>5659698.368421053</v>
+        <v>9661229.25</v>
       </c>
       <c r="J21">
-        <v>2267433.021052632</v>
+        <v>4783165.845</v>
       </c>
       <c r="K21">
-        <v>3372532.715789474</v>
+        <v>5392798.4325</v>
       </c>
       <c r="L21">
-        <v>405906.1789473684</v>
+        <v>60131.1175</v>
       </c>
       <c r="M21">
-        <v>18196.22105263158</v>
+        <v>22653.3725</v>
       </c>
       <c r="N21">
-        <v>23749747.43157895</v>
+        <v>41047505.3225</v>
       </c>
       <c r="O21">
-        <v>22819104.77894737</v>
+        <v>41216398.4475</v>
       </c>
       <c r="P21">
-        <v>4.536842105263158</v>
+        <v>1.3075</v>
       </c>
       <c r="Q21">
-        <v>2.284210526315789</v>
+        <v>1.26</v>
       </c>
       <c r="R21">
-        <v>29319616.44210526</v>
+        <v>26371341.6375</v>
       </c>
       <c r="S21">
-        <v>363462592.0210527</v>
+        <v>335689344.2125</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1672,58 +1678,58 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6238612.8</v>
+        <v>9459597.135</v>
       </c>
       <c r="C22">
-        <v>7207.094736842106</v>
+        <v>8982.51</v>
       </c>
       <c r="D22">
-        <v>120081929.4315789</v>
+        <v>118076243.5325</v>
       </c>
       <c r="E22">
-        <v>165925455.8736842</v>
+        <v>248577275.4975</v>
       </c>
       <c r="F22">
-        <v>83339.31578947368</v>
+        <v>129302.1375</v>
       </c>
       <c r="G22">
-        <v>1156160.421052632</v>
+        <v>831385.375</v>
       </c>
       <c r="H22">
-        <v>790013.8315789474</v>
+        <v>1255066.915</v>
       </c>
       <c r="I22">
-        <v>6125622.136842106</v>
+        <v>9653971.3675</v>
       </c>
       <c r="J22">
-        <v>2645730.736842105</v>
+        <v>4630882.1525</v>
       </c>
       <c r="K22">
-        <v>3557286.084210526</v>
+        <v>5340493.2375</v>
       </c>
       <c r="L22">
-        <v>247642.3789473684</v>
+        <v>94213.435</v>
       </c>
       <c r="M22">
-        <v>15480.03157894737</v>
+        <v>23198.2925</v>
       </c>
       <c r="N22">
-        <v>29189257.58947368</v>
+        <v>41479319.9125</v>
       </c>
       <c r="O22">
-        <v>33314445.90526316</v>
+        <v>41658272.8725</v>
       </c>
       <c r="P22">
-        <v>1.263157894736842</v>
+        <v>0.7875</v>
       </c>
       <c r="Q22">
-        <v>0.4315789473684211</v>
+        <v>0.7425</v>
       </c>
       <c r="R22">
-        <v>28640253.12631579</v>
+        <v>26799306.04</v>
       </c>
       <c r="S22">
-        <v>346234731.1894737</v>
+        <v>336426336.845</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1731,58 +1737,58 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4887825.095744681</v>
+        <v>7281162.583541147</v>
       </c>
       <c r="C23">
-        <v>8165.872340425532</v>
+        <v>11105.44139650873</v>
       </c>
       <c r="D23">
-        <v>115839355.2659574</v>
+        <v>118072455.6907731</v>
       </c>
       <c r="E23">
-        <v>175394353.712766</v>
+        <v>269146760.2518703</v>
       </c>
       <c r="F23">
-        <v>33558.29787234042</v>
+        <v>54303.34912718205</v>
       </c>
       <c r="G23">
-        <v>245526.9787234043</v>
+        <v>116929.3266832918</v>
       </c>
       <c r="H23">
-        <v>628117.0638297872</v>
+        <v>1064679.14713217</v>
       </c>
       <c r="I23">
-        <v>4693376.20212766</v>
+        <v>7092918.04488778</v>
       </c>
       <c r="J23">
-        <v>2655329.329787234</v>
+        <v>3980233.583541147</v>
       </c>
       <c r="K23">
-        <v>2799500.138297872</v>
+        <v>4060321.431421447</v>
       </c>
       <c r="L23">
-        <v>95100.56382978724</v>
+        <v>11165.23690773067</v>
       </c>
       <c r="M23">
-        <v>18588.89361702128</v>
+        <v>19319.3042394015</v>
       </c>
       <c r="N23">
-        <v>24596280.07446808</v>
+        <v>37441021.43890274</v>
       </c>
       <c r="O23">
-        <v>26156001.69148936</v>
+        <v>37598669.97506234</v>
       </c>
       <c r="P23">
-        <v>7.617021276595745</v>
+        <v>1.144638403990025</v>
       </c>
       <c r="Q23">
-        <v>2.265957446808511</v>
+        <v>1.167082294264339</v>
       </c>
       <c r="R23">
-        <v>22681118.36170213</v>
+        <v>27727808.14214464</v>
       </c>
       <c r="S23">
-        <v>351253479.4893617</v>
+        <v>342692197.5012469</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1790,58 +1796,58 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6359686.884210526</v>
+        <v>7256389.9125</v>
       </c>
       <c r="C24">
-        <v>11506.92631578947</v>
+        <v>11979.8</v>
       </c>
       <c r="D24">
-        <v>119101737.1894737</v>
+        <v>118033307.3875</v>
       </c>
       <c r="E24">
-        <v>228938490.4526316</v>
+        <v>270932145.2775</v>
       </c>
       <c r="F24">
-        <v>87995.51578947369</v>
+        <v>92231.8125</v>
       </c>
       <c r="G24">
-        <v>881554.1789473684</v>
+        <v>559265.3575</v>
       </c>
       <c r="H24">
-        <v>2850.2</v>
+        <v>2485.96</v>
       </c>
       <c r="I24">
-        <v>7215340.768421053</v>
+        <v>8551367.9725</v>
       </c>
       <c r="J24">
-        <v>4002068.726315789</v>
+        <v>5049169.27</v>
       </c>
       <c r="K24">
-        <v>4817233.452631579</v>
+        <v>5521662.575</v>
       </c>
       <c r="L24">
-        <v>187133.5368421053</v>
+        <v>58347.505</v>
       </c>
       <c r="M24">
-        <v>23569.64210526316</v>
+        <v>25244.2175</v>
       </c>
       <c r="N24">
-        <v>32319832.86315789</v>
+        <v>37332700.995</v>
       </c>
       <c r="O24">
-        <v>31183757.12631579</v>
+        <v>37492129.02</v>
       </c>
       <c r="P24">
-        <v>3.168421052631579</v>
+        <v>0.0675</v>
       </c>
       <c r="Q24">
-        <v>0.5684210526315789</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>28744168.77894737</v>
+        <v>28276586.72</v>
       </c>
       <c r="S24">
-        <v>346190477.3368421</v>
+        <v>345170340.635</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1849,58 +1855,58 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5768339.372340426</v>
+        <v>7225995.34</v>
       </c>
       <c r="C25">
-        <v>6811.765957446809</v>
+        <v>8540.4275</v>
       </c>
       <c r="D25">
-        <v>120176257.3617021</v>
+        <v>118125114.985</v>
       </c>
       <c r="E25">
-        <v>213244946.2234043</v>
+        <v>268962076.7375</v>
       </c>
       <c r="F25">
-        <v>71242.03191489361</v>
+        <v>91714.58749999999</v>
       </c>
       <c r="G25">
-        <v>756834.8617021276</v>
+        <v>704021.605</v>
       </c>
       <c r="H25">
-        <v>717673.1382978724</v>
+        <v>905080.465</v>
       </c>
       <c r="I25">
-        <v>6657231.212765957</v>
+        <v>8448662.744999999</v>
       </c>
       <c r="J25">
-        <v>3760828.127659575</v>
+        <v>4867517.4225</v>
       </c>
       <c r="K25">
-        <v>4435038.627659574</v>
+        <v>5432604.37</v>
       </c>
       <c r="L25">
-        <v>131803.9787234043</v>
+        <v>109986.765</v>
       </c>
       <c r="M25">
-        <v>22183.96808510638</v>
+        <v>24207.765</v>
       </c>
       <c r="N25">
-        <v>29961565.45744681</v>
+        <v>37723309.8175</v>
       </c>
       <c r="O25">
-        <v>37474989.25531915</v>
+        <v>37880663.4675</v>
       </c>
       <c r="P25">
-        <v>4.031914893617022</v>
+        <v>1.0125</v>
       </c>
       <c r="Q25">
-        <v>0.5425531914893617</v>
+        <v>0.6525</v>
       </c>
       <c r="R25">
-        <v>26972270.42553192</v>
+        <v>28639895.42</v>
       </c>
       <c r="S25">
-        <v>364340203.393617</v>
+        <v>342433846.3125</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -1908,58 +1914,58 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9078659.126315789</v>
+        <v>9706524.5875</v>
       </c>
       <c r="C26">
-        <v>10839.24210526316</v>
+        <v>10823.78</v>
       </c>
       <c r="D26">
-        <v>117213598.8</v>
+        <v>118090900.7775</v>
       </c>
       <c r="E26">
-        <v>233816085.0631579</v>
+        <v>263027161.6525</v>
       </c>
       <c r="F26">
-        <v>17834.53684210526</v>
+        <v>12785.09</v>
       </c>
       <c r="G26">
-        <v>212569.9052631579</v>
+        <v>112722.0375</v>
       </c>
       <c r="H26">
-        <v>1261575.578947368</v>
+        <v>1523669.4425</v>
       </c>
       <c r="I26">
-        <v>7518608.368421053</v>
+        <v>8460145.805</v>
       </c>
       <c r="J26">
-        <v>3834831.042105263</v>
+        <v>4328124.0225</v>
       </c>
       <c r="K26">
-        <v>3946225.736842105</v>
+        <v>4393626.56</v>
       </c>
       <c r="L26">
-        <v>85044.85263157895</v>
+        <v>20435.7625</v>
       </c>
       <c r="M26">
-        <v>16690.52631578947</v>
+        <v>18372.6475</v>
       </c>
       <c r="N26">
-        <v>36240851.37894737</v>
+        <v>40678762.505</v>
       </c>
       <c r="O26">
-        <v>44464006.30526315</v>
+        <v>40854083.77</v>
       </c>
       <c r="P26">
-        <v>0.5894736842105263</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>6.178947368421053</v>
+        <v>0.0225</v>
       </c>
       <c r="R26">
-        <v>23587331.25263158</v>
+        <v>24249467.88</v>
       </c>
       <c r="S26">
-        <v>358666588.0947368</v>
+        <v>349119230.755</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -1967,58 +1973,58 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5466431.431578947</v>
+        <v>8905409.689999999</v>
       </c>
       <c r="C27">
-        <v>7827.547368421053</v>
+        <v>7952.39</v>
       </c>
       <c r="D27">
-        <v>120578320.2947368</v>
+        <v>118096560.6225</v>
       </c>
       <c r="E27">
-        <v>151281307.7157895</v>
+        <v>245897992.715</v>
       </c>
       <c r="F27">
-        <v>66511.83157894737</v>
+        <v>101261.235</v>
       </c>
       <c r="G27">
-        <v>1072430.568421053</v>
+        <v>933962.6775</v>
       </c>
       <c r="H27">
-        <v>2326.757894736842</v>
+        <v>2490.17</v>
       </c>
       <c r="I27">
-        <v>5379849.52631579</v>
+        <v>9919829.705</v>
       </c>
       <c r="J27">
-        <v>2901924.2</v>
+        <v>5473858.1825</v>
       </c>
       <c r="K27">
-        <v>3766271.484210526</v>
+        <v>6184272.79</v>
       </c>
       <c r="L27">
-        <v>236957.5052631579</v>
+        <v>188627.37</v>
       </c>
       <c r="M27">
-        <v>19265.62105263158</v>
+        <v>21823.36</v>
       </c>
       <c r="N27">
-        <v>22563087.8</v>
+        <v>37304393.0025</v>
       </c>
       <c r="O27">
-        <v>21149947.83157895</v>
+        <v>37460946.5225</v>
       </c>
       <c r="P27">
-        <v>17.45263157894737</v>
+        <v>0.9475</v>
       </c>
       <c r="Q27">
-        <v>0.1684210526315789</v>
+        <v>0.855</v>
       </c>
       <c r="R27">
-        <v>28556949.96842105</v>
+        <v>31534499.92</v>
       </c>
       <c r="S27">
-        <v>358738401.0210527</v>
+        <v>326601946.1225</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2026,58 +2032,58 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8781669.915789474</v>
+        <v>8957777.7875</v>
       </c>
       <c r="C28">
-        <v>11022.12631578947</v>
+        <v>10598.935</v>
       </c>
       <c r="D28">
-        <v>117688537.7473684</v>
+        <v>118096630.625</v>
       </c>
       <c r="E28">
-        <v>238840328.7684211</v>
+        <v>244931130.12</v>
       </c>
       <c r="F28">
-        <v>127320.8210526316</v>
+        <v>128565.8175</v>
       </c>
       <c r="G28">
-        <v>975343.2421052632</v>
+        <v>943630.795</v>
       </c>
       <c r="H28">
-        <v>1106792.768421053</v>
+        <v>1128812.305</v>
       </c>
       <c r="I28">
-        <v>9710689.105263159</v>
+        <v>9906585.602499999</v>
       </c>
       <c r="J28">
-        <v>5310384.705263158</v>
+        <v>5368786.6725</v>
       </c>
       <c r="K28">
-        <v>6366254.789473685</v>
+        <v>6157861.13</v>
       </c>
       <c r="L28">
-        <v>146764.2842105263</v>
+        <v>125949.4875</v>
       </c>
       <c r="M28">
-        <v>19188.96842105263</v>
+        <v>23520.03</v>
       </c>
       <c r="N28">
-        <v>38249666.83157895</v>
+        <v>38244774.9025</v>
       </c>
       <c r="O28">
-        <v>41653357.49473684</v>
+        <v>38406935.48</v>
       </c>
       <c r="P28">
-        <v>0.5052631578947369</v>
+        <v>1.35</v>
       </c>
       <c r="Q28">
-        <v>0.1894736842105263</v>
+        <v>0.9</v>
       </c>
       <c r="R28">
-        <v>31690531.63157895</v>
+        <v>31883532.3525</v>
       </c>
       <c r="S28">
-        <v>328014967.4631579</v>
+        <v>326787535.6875</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2085,58 +2091,58 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9775503.222222222</v>
+        <v>13876595.14285714</v>
       </c>
       <c r="C29">
-        <v>16590.77777777778</v>
+        <v>23047</v>
       </c>
       <c r="D29">
-        <v>117150321.6666667</v>
+        <v>116770672.8571429</v>
       </c>
       <c r="E29">
-        <v>188250221.6666667</v>
+        <v>241281764.4285714</v>
       </c>
       <c r="F29">
-        <v>208708.6666666667</v>
+        <v>311303.4285714286</v>
       </c>
       <c r="G29">
-        <v>336970.8888888889</v>
+        <v>442965.8571428572</v>
       </c>
       <c r="H29">
-        <v>1225340.444444444</v>
+        <v>1562794.428571429</v>
       </c>
       <c r="I29">
-        <v>1822632.888888889</v>
+        <v>1670958.714285714</v>
       </c>
       <c r="J29">
-        <v>1337611</v>
+        <v>1100310.142857143</v>
       </c>
       <c r="K29">
-        <v>1726219.555555556</v>
+        <v>1382791.857142857</v>
       </c>
       <c r="L29">
-        <v>97259.55555555556</v>
+        <v>84179.28571428571</v>
       </c>
       <c r="M29">
-        <v>15419.33333333333</v>
+        <v>14452.71428571429</v>
       </c>
       <c r="N29">
-        <v>11636304.33333333</v>
+        <v>15758444.85714286</v>
       </c>
       <c r="O29">
-        <v>12689828.44444444</v>
+        <v>16610324.42857143</v>
       </c>
       <c r="P29">
+        <v>14.42857142857143</v>
+      </c>
+      <c r="Q29">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>68.77777777777777</v>
-      </c>
       <c r="R29">
-        <v>32567983</v>
+        <v>40539600.85714286</v>
       </c>
       <c r="S29">
-        <v>350496954.2222222</v>
+        <v>332332877.1428571</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2144,58 +2150,58 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5524689.826086956</v>
+        <v>8650699</v>
       </c>
       <c r="C30">
-        <v>5884.304347826087</v>
+        <v>6634.538461538462</v>
       </c>
       <c r="D30">
-        <v>125446141.9565217</v>
+        <v>117265651.5384615</v>
       </c>
       <c r="E30">
-        <v>131402658.826087</v>
+        <v>208486663.8461539</v>
       </c>
       <c r="F30">
-        <v>47891.86956521739</v>
+        <v>41776.53846153846</v>
       </c>
       <c r="G30">
-        <v>114563.2608695652</v>
+        <v>88055.84615384616</v>
       </c>
       <c r="H30">
-        <v>2863.086956521739</v>
+        <v>2596.923076923077</v>
       </c>
       <c r="I30">
-        <v>186471.1304347826</v>
+        <v>289276.2307692308</v>
       </c>
       <c r="J30">
-        <v>8293.130434782608</v>
+        <v>16962.84615384615</v>
       </c>
       <c r="K30">
-        <v>22550.5652173913</v>
+        <v>19531.46153846154</v>
       </c>
       <c r="L30">
-        <v>97485.95652173914</v>
+        <v>141749.0769230769</v>
       </c>
       <c r="M30">
-        <v>11828.91304347826</v>
+        <v>3284.769230769231</v>
       </c>
       <c r="N30">
-        <v>6931100.304347826</v>
+        <v>12449700.92307692</v>
       </c>
       <c r="O30">
-        <v>6864755.130434782</v>
+        <v>12853381</v>
       </c>
       <c r="P30">
-        <v>37.91304347826087</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="Q30">
-        <v>16.39130434782609</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>34217600.17391305</v>
+        <v>49693884.76923077</v>
       </c>
       <c r="S30">
-        <v>350513459.5652174</v>
+        <v>293744132.7692308</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2203,46 +2209,46 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6585379</v>
+        <v>12475495</v>
       </c>
       <c r="C31">
-        <v>47937</v>
+        <v>52059</v>
       </c>
       <c r="D31">
-        <v>107038432</v>
+        <v>117377184</v>
       </c>
       <c r="E31">
-        <v>118540141</v>
+        <v>204739960</v>
       </c>
       <c r="F31">
-        <v>17244</v>
+        <v>6655</v>
       </c>
       <c r="G31">
-        <v>111282</v>
+        <v>91388</v>
       </c>
       <c r="H31">
-        <v>2865</v>
+        <v>2637</v>
       </c>
       <c r="I31">
-        <v>316104</v>
+        <v>497553</v>
       </c>
       <c r="J31">
-        <v>285609</v>
+        <v>453419</v>
       </c>
       <c r="K31">
-        <v>338765</v>
+        <v>535213</v>
       </c>
       <c r="L31">
-        <v>3539</v>
+        <v>2182</v>
       </c>
       <c r="M31">
-        <v>16803</v>
+        <v>17938</v>
       </c>
       <c r="N31">
-        <v>7726090</v>
+        <v>13236936</v>
       </c>
       <c r="O31">
-        <v>7753047</v>
+        <v>13310098</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2251,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>27153103</v>
+        <v>45949573</v>
       </c>
       <c r="S31">
-        <v>290749118</v>
+        <v>286937400</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/counters_means.xlsx
+++ b/code/results/signal_reconstruction/counters_means.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,58 +468,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50647676.1875</v>
+        <v>44747688.49206349</v>
       </c>
       <c r="C2" t="n">
-        <v>21073.61</v>
+        <v>67756.93650793651</v>
       </c>
       <c r="D2" t="n">
-        <v>118190713.8975</v>
+        <v>117947834.8095238</v>
       </c>
       <c r="E2" t="n">
-        <v>317237286.6725</v>
+        <v>277951613.031746</v>
       </c>
       <c r="F2" t="n">
-        <v>505359.41</v>
+        <v>424378.9682539682</v>
       </c>
       <c r="G2" t="n">
-        <v>4786953.32</v>
+        <v>3818500.650793651</v>
       </c>
       <c r="H2" t="n">
-        <v>2746.755</v>
+        <v>2840.761904761905</v>
       </c>
       <c r="I2" t="n">
-        <v>9097032.470000001</v>
+        <v>8131389.873015873</v>
       </c>
       <c r="J2" t="n">
-        <v>4085747.88</v>
+        <v>4155251.841269841</v>
       </c>
       <c r="K2" t="n">
-        <v>7776547.6525</v>
+        <v>6995802.365079365</v>
       </c>
       <c r="L2" t="n">
-        <v>102101.9275</v>
+        <v>12532.55555555555</v>
       </c>
       <c r="M2" t="n">
-        <v>14439.2625</v>
+        <v>16533.30158730159</v>
       </c>
       <c r="N2" t="n">
-        <v>36450855.98</v>
+        <v>31858055.96825397</v>
       </c>
       <c r="O2" t="n">
-        <v>37041067.325</v>
+        <v>32289839.98412699</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.3075</v>
+        <v>16</v>
       </c>
       <c r="R2" t="n">
-        <v>23570083.5725</v>
+        <v>13575657.3015873</v>
       </c>
       <c r="S2" t="n">
-        <v>370810775.595</v>
+        <v>324929284.4285714</v>
       </c>
     </row>
     <row r="3">
@@ -527,58 +527,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>50411058.465</v>
+        <v>42164649.3030303</v>
       </c>
       <c r="C3" t="n">
-        <v>20886.5375</v>
+        <v>68243.77272727272</v>
       </c>
       <c r="D3" t="n">
-        <v>118166917.225</v>
+        <v>117250381.1212121</v>
       </c>
       <c r="E3" t="n">
-        <v>315752529.27</v>
+        <v>262599270.5757576</v>
       </c>
       <c r="F3" t="n">
-        <v>501212.2125</v>
+        <v>451906.196969697</v>
       </c>
       <c r="G3" t="n">
-        <v>4736912.6775</v>
+        <v>3731936.363636364</v>
       </c>
       <c r="H3" t="n">
-        <v>2742.955</v>
+        <v>2815.848484848485</v>
       </c>
       <c r="I3" t="n">
-        <v>9060592.0875</v>
+        <v>7675967.984848484</v>
       </c>
       <c r="J3" t="n">
-        <v>4102362.87</v>
+        <v>3826273.045454545</v>
       </c>
       <c r="K3" t="n">
-        <v>7747209.5675</v>
+        <v>6607011.287878788</v>
       </c>
       <c r="L3" t="n">
-        <v>102036.965</v>
+        <v>12455</v>
       </c>
       <c r="M3" t="n">
-        <v>14257.1125</v>
+        <v>21061.40909090909</v>
       </c>
       <c r="N3" t="n">
-        <v>36298758.55</v>
+        <v>30204442.07575757</v>
       </c>
       <c r="O3" t="n">
-        <v>36887447.0325</v>
+        <v>28118658.81818182</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>5.803030303030303</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.4325</v>
+        <v>10.40909090909091</v>
       </c>
       <c r="R3" t="n">
-        <v>24023126.545</v>
+        <v>17263594.5</v>
       </c>
       <c r="S3" t="n">
-        <v>369265439.51</v>
+        <v>314991381.6515151</v>
       </c>
     </row>
     <row r="4">
@@ -586,58 +586,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11438135.9375</v>
+        <v>11038592.17456359</v>
       </c>
       <c r="C4" t="n">
-        <v>9374.575000000001</v>
+        <v>27359.85536159601</v>
       </c>
       <c r="D4" t="n">
-        <v>118177391.055</v>
+        <v>117726874.3890274</v>
       </c>
       <c r="E4" t="n">
-        <v>275376119.23</v>
+        <v>271878804.1870324</v>
       </c>
       <c r="F4" t="n">
-        <v>286291.1775</v>
+        <v>123879.9027431421</v>
       </c>
       <c r="G4" t="n">
-        <v>1229014.1</v>
+        <v>1197118.87032419</v>
       </c>
       <c r="H4" t="n">
-        <v>1387999.71</v>
+        <v>2878362.246882793</v>
       </c>
       <c r="I4" t="n">
-        <v>5755909.98</v>
+        <v>5371672.269326683</v>
       </c>
       <c r="J4" t="n">
-        <v>4311247.135</v>
+        <v>3907301.897755611</v>
       </c>
       <c r="K4" t="n">
-        <v>5081482.91</v>
+        <v>4820504.481296758</v>
       </c>
       <c r="L4" t="n">
-        <v>349165.445</v>
+        <v>148117.5311720698</v>
       </c>
       <c r="M4" t="n">
-        <v>16306.575</v>
+        <v>19394.5710723192</v>
       </c>
       <c r="N4" t="n">
-        <v>14432701.25</v>
+        <v>13803176.18204489</v>
       </c>
       <c r="O4" t="n">
-        <v>15517981.585</v>
+        <v>13439136.21197007</v>
       </c>
       <c r="P4" t="n">
-        <v>3.0825</v>
+        <v>1.955112219451371</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.734999999999999</v>
+        <v>1.615960099750623</v>
       </c>
       <c r="R4" t="n">
-        <v>30320139.0175</v>
+        <v>33699477.81546135</v>
       </c>
       <c r="S4" t="n">
-        <v>344221622.1825</v>
+        <v>342777959.9376559</v>
       </c>
     </row>
     <row r="5">
@@ -645,58 +645,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11252073.7475</v>
+        <v>11058711.90773067</v>
       </c>
       <c r="C5" t="n">
-        <v>9282</v>
+        <v>27525.79800498753</v>
       </c>
       <c r="D5" t="n">
-        <v>118124054.65</v>
+        <v>118006092.7456359</v>
       </c>
       <c r="E5" t="n">
-        <v>275487033.185</v>
+        <v>274329250.7805486</v>
       </c>
       <c r="F5" t="n">
-        <v>286545.88</v>
+        <v>117428.3416458853</v>
       </c>
       <c r="G5" t="n">
-        <v>1229643.2075</v>
+        <v>1235407.25436409</v>
       </c>
       <c r="H5" t="n">
-        <v>1394997.81</v>
+        <v>2858091.740648379</v>
       </c>
       <c r="I5" t="n">
-        <v>5799962.22</v>
+        <v>5415874.720698254</v>
       </c>
       <c r="J5" t="n">
-        <v>4344951.4725</v>
+        <v>3905560.394014962</v>
       </c>
       <c r="K5" t="n">
-        <v>5100368.5025</v>
+        <v>4850365.992518703</v>
       </c>
       <c r="L5" t="n">
-        <v>350996.1025</v>
+        <v>153895.0872817955</v>
       </c>
       <c r="M5" t="n">
-        <v>16487.975</v>
+        <v>18487.72319201995</v>
       </c>
       <c r="N5" t="n">
-        <v>14450738.2375</v>
+        <v>13898018.68578554</v>
       </c>
       <c r="O5" t="n">
-        <v>15539980.4875</v>
+        <v>13978401.95261845</v>
       </c>
       <c r="P5" t="n">
-        <v>3.825</v>
+        <v>0.1571072319201995</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.0275</v>
+        <v>7.14713216957606</v>
       </c>
       <c r="R5" t="n">
-        <v>30149656.3625</v>
+        <v>33970952.53865337</v>
       </c>
       <c r="S5" t="n">
-        <v>344425615.5375</v>
+        <v>341876011.8354115</v>
       </c>
     </row>
     <row r="6">
@@ -704,58 +704,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8538473.654999999</v>
+        <v>4574238.391304348</v>
       </c>
       <c r="C6" t="n">
-        <v>3762.1225</v>
+        <v>45430.22826086957</v>
       </c>
       <c r="D6" t="n">
-        <v>118026570.47</v>
+        <v>117715316.1630435</v>
       </c>
       <c r="E6" t="n">
-        <v>218740684.4425</v>
+        <v>281756591.2391304</v>
       </c>
       <c r="F6" t="n">
-        <v>102862.4675</v>
+        <v>178723.3152173913</v>
       </c>
       <c r="G6" t="n">
-        <v>1691032.3725</v>
+        <v>1618501.27173913</v>
       </c>
       <c r="H6" t="n">
-        <v>1198613.685</v>
+        <v>25340670.7826087</v>
       </c>
       <c r="I6" t="n">
-        <v>7088844.4775</v>
+        <v>6169713.586956521</v>
       </c>
       <c r="J6" t="n">
-        <v>2541440.0925</v>
+        <v>4498783.163043479</v>
       </c>
       <c r="K6" t="n">
-        <v>3203860.6175</v>
+        <v>5878201.282608695</v>
       </c>
       <c r="L6" t="n">
-        <v>949940.47</v>
+        <v>8339.260869565218</v>
       </c>
       <c r="M6" t="n">
-        <v>29972.115</v>
+        <v>17329.55434782609</v>
       </c>
       <c r="N6" t="n">
-        <v>36321410.89</v>
+        <v>21927164.01086957</v>
       </c>
       <c r="O6" t="n">
-        <v>36904685.035</v>
+        <v>22191066.4673913</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3725</v>
+        <v>2.934782608695652</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.6925</v>
+        <v>1.858695652173913</v>
       </c>
       <c r="R6" t="n">
-        <v>34809497.8425</v>
+        <v>36965476.06521739</v>
       </c>
       <c r="S6" t="n">
-        <v>295332930.26</v>
+        <v>321446360.8478261</v>
       </c>
     </row>
     <row r="7">
@@ -763,58 +763,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8624443.627499999</v>
+        <v>4422777.547368421</v>
       </c>
       <c r="C7" t="n">
-        <v>3799.7425</v>
+        <v>44352.47368421053</v>
       </c>
       <c r="D7" t="n">
-        <v>118070166.9175</v>
+        <v>119590051.9052632</v>
       </c>
       <c r="E7" t="n">
-        <v>220920028.6525</v>
+        <v>275720149.1263158</v>
       </c>
       <c r="F7" t="n">
-        <v>101510.955</v>
+        <v>196402.9263157895</v>
       </c>
       <c r="G7" t="n">
-        <v>1656996.245</v>
+        <v>1638495.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1208177.0075</v>
+        <v>24758321.4631579</v>
       </c>
       <c r="I7" t="n">
-        <v>7157311.9975</v>
+        <v>5949328.27368421</v>
       </c>
       <c r="J7" t="n">
-        <v>2559234.195</v>
+        <v>4292962.663157894</v>
       </c>
       <c r="K7" t="n">
-        <v>3231711.5</v>
+        <v>5674356.884210526</v>
       </c>
       <c r="L7" t="n">
-        <v>901645.0024999999</v>
+        <v>9093.347368421053</v>
       </c>
       <c r="M7" t="n">
-        <v>29873.095</v>
+        <v>20497.52631578947</v>
       </c>
       <c r="N7" t="n">
-        <v>36664063.5275</v>
+        <v>21151703.89473684</v>
       </c>
       <c r="O7" t="n">
-        <v>37259572.065</v>
+        <v>22900498.21052632</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4075</v>
+        <v>6.536842105263158</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.0925</v>
+        <v>8.957894736842105</v>
       </c>
       <c r="R7" t="n">
-        <v>34063206.775</v>
+        <v>36597702.70526316</v>
       </c>
       <c r="S7" t="n">
-        <v>298226115.5525</v>
+        <v>317325892.7578948</v>
       </c>
     </row>
     <row r="8">
@@ -822,58 +822,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7532469.375</v>
+        <v>13385403.73815461</v>
       </c>
       <c r="C8" t="n">
-        <v>3152.1725</v>
+        <v>41521.63341645886</v>
       </c>
       <c r="D8" t="n">
-        <v>118162419.485</v>
+        <v>117906962.6683292</v>
       </c>
       <c r="E8" t="n">
-        <v>193471205.2525</v>
+        <v>252830551.5785536</v>
       </c>
       <c r="F8" t="n">
-        <v>138870.5</v>
+        <v>84364.22194513716</v>
       </c>
       <c r="G8" t="n">
-        <v>4136315.2475</v>
+        <v>1356009.164588529</v>
       </c>
       <c r="H8" t="n">
-        <v>2743.0075</v>
+        <v>5481535.910224439</v>
       </c>
       <c r="I8" t="n">
-        <v>8151975.8675</v>
+        <v>5017803.586034913</v>
       </c>
       <c r="J8" t="n">
-        <v>1798096.295</v>
+        <v>2909047.067331671</v>
       </c>
       <c r="K8" t="n">
-        <v>4744809.47</v>
+        <v>3830975.847880299</v>
       </c>
       <c r="L8" t="n">
-        <v>1128614.4125</v>
+        <v>177106.2344139651</v>
       </c>
       <c r="M8" t="n">
-        <v>28519.55</v>
+        <v>21518.07980049875</v>
       </c>
       <c r="N8" t="n">
-        <v>31812191.5125</v>
+        <v>34286098.45885286</v>
       </c>
       <c r="O8" t="n">
-        <v>32393303.9375</v>
+        <v>34931298.42394015</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9675</v>
+        <v>4.219451371571072</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.7275</v>
+        <v>4.748129675810474</v>
       </c>
       <c r="R8" t="n">
-        <v>44891511.785</v>
+        <v>36777458.41147132</v>
       </c>
       <c r="S8" t="n">
-        <v>268346924.92</v>
+        <v>328528845.0448878</v>
       </c>
     </row>
     <row r="9">
@@ -881,58 +881,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7313670.1</v>
+        <v>13536650.66583541</v>
       </c>
       <c r="C9" t="n">
-        <v>3153.055</v>
+        <v>41636.04738154614</v>
       </c>
       <c r="D9" t="n">
-        <v>118132599.77</v>
+        <v>118002393.319202</v>
       </c>
       <c r="E9" t="n">
-        <v>187872404.555</v>
+        <v>255362067.4339152</v>
       </c>
       <c r="F9" t="n">
-        <v>136549.94</v>
+        <v>83485.41396508728</v>
       </c>
       <c r="G9" t="n">
-        <v>4130843.84</v>
+        <v>1334196.416458853</v>
       </c>
       <c r="H9" t="n">
-        <v>2746.115</v>
+        <v>5536941.543640898</v>
       </c>
       <c r="I9" t="n">
-        <v>7912201.0925</v>
+        <v>5072296.174563591</v>
       </c>
       <c r="J9" t="n">
-        <v>1671018.345</v>
+        <v>2963607.443890275</v>
       </c>
       <c r="K9" t="n">
-        <v>4601288.83</v>
+        <v>3873511.3840399</v>
       </c>
       <c r="L9" t="n">
-        <v>1125785.575</v>
+        <v>174076.4912718204</v>
       </c>
       <c r="M9" t="n">
-        <v>28924.47</v>
+        <v>19933.04488778055</v>
       </c>
       <c r="N9" t="n">
-        <v>30888183.4225</v>
+        <v>34595077.29675811</v>
       </c>
       <c r="O9" t="n">
-        <v>31467019.33</v>
+        <v>34726019.52119701</v>
       </c>
       <c r="P9" t="n">
-        <v>1.17</v>
+        <v>5.7356608478803</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.70074812967581</v>
       </c>
       <c r="R9" t="n">
-        <v>46836659.5725</v>
+        <v>35927493.80798005</v>
       </c>
       <c r="S9" t="n">
-        <v>260967938.655</v>
+        <v>327194225.4588529</v>
       </c>
     </row>
     <row r="10">
@@ -940,58 +940,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7156007.7825</v>
+        <v>11841422.03241895</v>
       </c>
       <c r="C10" t="n">
-        <v>3253.555</v>
+        <v>37675.42144638404</v>
       </c>
       <c r="D10" t="n">
-        <v>118088508.7375</v>
+        <v>118050381.8029925</v>
       </c>
       <c r="E10" t="n">
-        <v>182230371.03</v>
+        <v>223533248.084788</v>
       </c>
       <c r="F10" t="n">
-        <v>157872.675</v>
+        <v>87340.15710723192</v>
       </c>
       <c r="G10" t="n">
-        <v>3531938.64</v>
+        <v>1272237.08478803</v>
       </c>
       <c r="H10" t="n">
-        <v>991494.9775</v>
+        <v>5425265.788029925</v>
       </c>
       <c r="I10" t="n">
-        <v>7472287.82</v>
+        <v>6052287.902743142</v>
       </c>
       <c r="J10" t="n">
-        <v>1761358.94</v>
+        <v>4152098.306733167</v>
       </c>
       <c r="K10" t="n">
-        <v>4229996.575</v>
+        <v>4943488.982543641</v>
       </c>
       <c r="L10" t="n">
-        <v>988688.92</v>
+        <v>379398.0698254364</v>
       </c>
       <c r="M10" t="n">
-        <v>39451.13</v>
+        <v>22424.20947630923</v>
       </c>
       <c r="N10" t="n">
-        <v>30384060.5775</v>
+        <v>31216203.34663342</v>
       </c>
       <c r="O10" t="n">
-        <v>30959262.7175</v>
+        <v>27167985.86533666</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5125</v>
+        <v>2.670822942643392</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.8325</v>
+        <v>2.922693266832918</v>
       </c>
       <c r="R10" t="n">
-        <v>49355872.9675</v>
+        <v>43684843.10723192</v>
       </c>
       <c r="S10" t="n">
-        <v>252737243.11</v>
+        <v>291847609.1845387</v>
       </c>
     </row>
     <row r="11">
@@ -999,58 +999,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7134246.0425</v>
+        <v>11887213.9127182</v>
       </c>
       <c r="C11" t="n">
-        <v>3132.3125</v>
+        <v>37814.33416458853</v>
       </c>
       <c r="D11" t="n">
-        <v>118124350.705</v>
+        <v>118031935.7032419</v>
       </c>
       <c r="E11" t="n">
-        <v>181587921.2425</v>
+        <v>224107812.9301746</v>
       </c>
       <c r="F11" t="n">
-        <v>156402.2425</v>
+        <v>82264.61097256858</v>
       </c>
       <c r="G11" t="n">
-        <v>3553800.945</v>
+        <v>1285306.019950125</v>
       </c>
       <c r="H11" t="n">
-        <v>987798.3525</v>
+        <v>5439373.630922693</v>
       </c>
       <c r="I11" t="n">
-        <v>7444612.125</v>
+        <v>6052735.72319202</v>
       </c>
       <c r="J11" t="n">
-        <v>1736053.2125</v>
+        <v>4141178.391521197</v>
       </c>
       <c r="K11" t="n">
-        <v>4210484.695</v>
+        <v>4894761.403990025</v>
       </c>
       <c r="L11" t="n">
-        <v>1000081.1075</v>
+        <v>377152.1346633416</v>
       </c>
       <c r="M11" t="n">
-        <v>39748.79</v>
+        <v>22581.91271820449</v>
       </c>
       <c r="N11" t="n">
-        <v>30267188.6125</v>
+        <v>30693883.3915212</v>
       </c>
       <c r="O11" t="n">
-        <v>30842816.4275</v>
+        <v>30830907.26433915</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5625</v>
+        <v>3.187032418952618</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.8375</v>
+        <v>2.109725685785536</v>
       </c>
       <c r="R11" t="n">
-        <v>49598956.835</v>
+        <v>43931477.29426434</v>
       </c>
       <c r="S11" t="n">
-        <v>251917361.96</v>
+        <v>290960096.9950125</v>
       </c>
     </row>
     <row r="12">
@@ -1058,58 +1058,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11564410.275</v>
+        <v>10913317.52985075</v>
       </c>
       <c r="C12" t="n">
-        <v>11161.96428571429</v>
+        <v>35260.1815920398</v>
       </c>
       <c r="D12" t="n">
-        <v>118161852.3</v>
+        <v>117954870.4378109</v>
       </c>
       <c r="E12" t="n">
-        <v>264559417.2892857</v>
+        <v>221899630.5447761</v>
       </c>
       <c r="F12" t="n">
-        <v>375426.5857142857</v>
+        <v>65023.18905472637</v>
       </c>
       <c r="G12" t="n">
-        <v>1272524.025</v>
+        <v>1274726.390547264</v>
       </c>
       <c r="H12" t="n">
-        <v>996439.1821428571</v>
+        <v>6353535.609452737</v>
       </c>
       <c r="I12" t="n">
-        <v>5869867.417857143</v>
+        <v>5998846.014925373</v>
       </c>
       <c r="J12" t="n">
-        <v>4449559.082142857</v>
+        <v>4171391.084577114</v>
       </c>
       <c r="K12" t="n">
-        <v>5270333.189285714</v>
+        <v>4970978.997512437</v>
       </c>
       <c r="L12" t="n">
-        <v>349814.9285714286</v>
+        <v>351540.3731343283</v>
       </c>
       <c r="M12" t="n">
-        <v>17497.47857142857</v>
+        <v>20686.80597014925</v>
       </c>
       <c r="N12" t="n">
-        <v>14392131.775</v>
+        <v>27371204.80348259</v>
       </c>
       <c r="O12" t="n">
-        <v>15945117.99642857</v>
+        <v>24137737.74378109</v>
       </c>
       <c r="P12" t="n">
-        <v>5.464285714285714</v>
+        <v>0.3009950248756219</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.475</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="R12" t="n">
-        <v>31553417.075</v>
+        <v>43841812.89054726</v>
       </c>
       <c r="S12" t="n">
-        <v>334075217.0464286</v>
+        <v>286047130.358209</v>
       </c>
     </row>
     <row r="13">
@@ -1117,58 +1117,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11709662.625</v>
+        <v>10789673.58104738</v>
       </c>
       <c r="C13" t="n">
-        <v>11247.56428571429</v>
+        <v>34887.51371571072</v>
       </c>
       <c r="D13" t="n">
-        <v>118115597.8321429</v>
+        <v>117979570.7281795</v>
       </c>
       <c r="E13" t="n">
-        <v>264084015.2785714</v>
+        <v>219581959.1720698</v>
       </c>
       <c r="F13" t="n">
-        <v>376480.6892857143</v>
+        <v>75576.20199501247</v>
       </c>
       <c r="G13" t="n">
-        <v>1252952.735714286</v>
+        <v>1291709.366583541</v>
       </c>
       <c r="H13" t="n">
-        <v>986921.3035714285</v>
+        <v>6280201.371571072</v>
       </c>
       <c r="I13" t="n">
-        <v>5857126.575</v>
+        <v>5930828.177057357</v>
       </c>
       <c r="J13" t="n">
-        <v>4465550.582142857</v>
+        <v>4085854.952618454</v>
       </c>
       <c r="K13" t="n">
-        <v>5274209.457142857</v>
+        <v>4913367.281795511</v>
       </c>
       <c r="L13" t="n">
-        <v>350731.0571428572</v>
+        <v>354436.3316708229</v>
       </c>
       <c r="M13" t="n">
-        <v>17948.075</v>
+        <v>23559.94264339152</v>
       </c>
       <c r="N13" t="n">
-        <v>14483563.17142857</v>
+        <v>27068741.37157107</v>
       </c>
       <c r="O13" t="n">
-        <v>16061435.64285714</v>
+        <v>27201276</v>
       </c>
       <c r="P13" t="n">
-        <v>5.464285714285714</v>
+        <v>0.08977556109725686</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.59642857142857</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31209788.23928571</v>
+        <v>45010928.63591023</v>
       </c>
       <c r="S13" t="n">
-        <v>334847948.3571429</v>
+        <v>282005763.0897756</v>
       </c>
     </row>
     <row r="14">
@@ -1176,58 +1176,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5595521.301745635</v>
+        <v>9257446.25</v>
       </c>
       <c r="C14" t="n">
-        <v>2194.840399002494</v>
+        <v>36092.5</v>
       </c>
       <c r="D14" t="n">
-        <v>118028924.0224439</v>
+        <v>117312836.25</v>
       </c>
       <c r="E14" t="n">
-        <v>246671569.7082294</v>
+        <v>241703839.25</v>
       </c>
       <c r="F14" t="n">
-        <v>82337.7506234414</v>
+        <v>573930.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1463044.319201995</v>
+        <v>1579627.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3325275.344139651</v>
+        <v>2268379.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5365227.294264339</v>
+        <v>5253111.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2182762.917705736</v>
+        <v>3535784.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2955548.793017456</v>
+        <v>4360480</v>
       </c>
       <c r="L14" t="n">
-        <v>580055.0748129676</v>
+        <v>436253.25</v>
       </c>
       <c r="M14" t="n">
-        <v>39567.0897755611</v>
+        <v>25027.5</v>
       </c>
       <c r="N14" t="n">
-        <v>41242030.28678304</v>
+        <v>11819150</v>
       </c>
       <c r="O14" t="n">
-        <v>41779212.14214464</v>
+        <v>14140700.75</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5835411471321695</v>
+        <v>2.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.486284289276808</v>
+        <v>1905</v>
       </c>
       <c r="R14" t="n">
-        <v>37682997.61346634</v>
+        <v>37959817</v>
       </c>
       <c r="S14" t="n">
-        <v>326206290.2044888</v>
+        <v>341933750.5</v>
       </c>
     </row>
     <row r="15">
@@ -1235,58 +1235,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5113056.6925</v>
+        <v>8130678.5</v>
       </c>
       <c r="C15" t="n">
-        <v>2316.52</v>
+        <v>31248.75</v>
       </c>
       <c r="D15" t="n">
-        <v>118090012.07</v>
+        <v>126854893.25</v>
       </c>
       <c r="E15" t="n">
-        <v>228189470.1075</v>
+        <v>252866481.5</v>
       </c>
       <c r="F15" t="n">
-        <v>106232.745</v>
+        <v>498240.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3007173.3425</v>
+        <v>1419189</v>
       </c>
       <c r="H15" t="n">
-        <v>2385583.895</v>
+        <v>2913194</v>
       </c>
       <c r="I15" t="n">
-        <v>6265645.3775</v>
+        <v>4991300</v>
       </c>
       <c r="J15" t="n">
-        <v>1877930.72</v>
+        <v>3331992</v>
       </c>
       <c r="K15" t="n">
-        <v>4088609.28</v>
+        <v>3960683.75</v>
       </c>
       <c r="L15" t="n">
-        <v>712610.1850000001</v>
+        <v>557196.5</v>
       </c>
       <c r="M15" t="n">
-        <v>38133.525</v>
+        <v>21568.25</v>
       </c>
       <c r="N15" t="n">
-        <v>37773395.685</v>
+        <v>11631021.5</v>
       </c>
       <c r="O15" t="n">
-        <v>38258286.85</v>
+        <v>15341778.75</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4725</v>
+        <v>9.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.695</v>
+        <v>152.25</v>
       </c>
       <c r="R15" t="n">
-        <v>45012840.63</v>
+        <v>38240545.5</v>
       </c>
       <c r="S15" t="n">
-        <v>302936817.1</v>
+        <v>346484691</v>
       </c>
     </row>
     <row r="16">
@@ -1294,58 +1294,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4854878.015</v>
+        <v>14057643.29925187</v>
       </c>
       <c r="C16" t="n">
-        <v>2314.06</v>
+        <v>39737.1970074813</v>
       </c>
       <c r="D16" t="n">
-        <v>117969593.715</v>
+        <v>118103168.2967581</v>
       </c>
       <c r="E16" t="n">
-        <v>212628761.8</v>
+        <v>258483514.1246883</v>
       </c>
       <c r="F16" t="n">
-        <v>115489.3925</v>
+        <v>40529.77556109726</v>
       </c>
       <c r="G16" t="n">
-        <v>2629860.3575</v>
+        <v>1276025.566084788</v>
       </c>
       <c r="H16" t="n">
-        <v>2789856.9375</v>
+        <v>6388205.875311721</v>
       </c>
       <c r="I16" t="n">
-        <v>5709109.5125</v>
+        <v>5159010.33915212</v>
       </c>
       <c r="J16" t="n">
-        <v>1769320.395</v>
+        <v>3053326.882793018</v>
       </c>
       <c r="K16" t="n">
-        <v>3646714.665</v>
+        <v>3920658.017456359</v>
       </c>
       <c r="L16" t="n">
-        <v>649236.9825</v>
+        <v>225279.2992518703</v>
       </c>
       <c r="M16" t="n">
-        <v>58172.065</v>
+        <v>19862.41147132169</v>
       </c>
       <c r="N16" t="n">
-        <v>35841952.585</v>
+        <v>34837750.64837905</v>
       </c>
       <c r="O16" t="n">
-        <v>36373408.7775</v>
+        <v>34978258.75810474</v>
       </c>
       <c r="P16" t="n">
-        <v>0.27</v>
+        <v>0.7880299251870324</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.49</v>
+        <v>0.2244389027431422</v>
       </c>
       <c r="R16" t="n">
-        <v>48711588.2175</v>
+        <v>34125776.3765586</v>
       </c>
       <c r="S16" t="n">
-        <v>283169137.425</v>
+        <v>327737612.5112219</v>
       </c>
     </row>
     <row r="17">
@@ -1353,58 +1353,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8513523.09</v>
+        <v>12142509.93017456</v>
       </c>
       <c r="C17" t="n">
-        <v>2593.595</v>
+        <v>35305.09226932668</v>
       </c>
       <c r="D17" t="n">
-        <v>117998143.585</v>
+        <v>118015083.1371571</v>
       </c>
       <c r="E17" t="n">
-        <v>218122221.1375</v>
+        <v>221787214.169576</v>
       </c>
       <c r="F17" t="n">
-        <v>103019.13</v>
+        <v>40943.40149625935</v>
       </c>
       <c r="G17" t="n">
-        <v>1692535.6425</v>
+        <v>1196655.845386534</v>
       </c>
       <c r="H17" t="n">
-        <v>1179259.91</v>
+        <v>5745080.062344139</v>
       </c>
       <c r="I17" t="n">
-        <v>7079748.6825</v>
+        <v>6158240.53117207</v>
       </c>
       <c r="J17" t="n">
-        <v>2533511.125</v>
+        <v>4286003.788029925</v>
       </c>
       <c r="K17" t="n">
-        <v>3202209.58</v>
+        <v>4988957.458852868</v>
       </c>
       <c r="L17" t="n">
-        <v>927203.075</v>
+        <v>398629.2543640897</v>
       </c>
       <c r="M17" t="n">
-        <v>40377.4125</v>
+        <v>22757.88029925187</v>
       </c>
       <c r="N17" t="n">
-        <v>36225482.1675</v>
+        <v>30386136.7605985</v>
       </c>
       <c r="O17" t="n">
-        <v>36823264.13</v>
+        <v>27073961.39650873</v>
       </c>
       <c r="P17" t="n">
-        <v>0.63</v>
+        <v>2.022443890274314</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.975</v>
+        <v>4.164588528678304</v>
       </c>
       <c r="R17" t="n">
-        <v>35585740.02</v>
+        <v>44100305.55610973</v>
       </c>
       <c r="S17" t="n">
-        <v>302961621.3025</v>
+        <v>291332372.9077307</v>
       </c>
     </row>
     <row r="18">
@@ -1412,58 +1412,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7336614.965</v>
+        <v>11666950.41895262</v>
       </c>
       <c r="C18" t="n">
-        <v>3139.785</v>
+        <v>34407.24688279302</v>
       </c>
       <c r="D18" t="n">
-        <v>118103343.615</v>
+        <v>118088479</v>
       </c>
       <c r="E18" t="n">
-        <v>188421641.5725</v>
+        <v>216468554.5361596</v>
       </c>
       <c r="F18" t="n">
-        <v>138763.63</v>
+        <v>56127.01496259352</v>
       </c>
       <c r="G18" t="n">
-        <v>3891628.3675</v>
+        <v>1180865.324189526</v>
       </c>
       <c r="H18" t="n">
-        <v>11072.415</v>
+        <v>5172102.798004988</v>
       </c>
       <c r="I18" t="n">
-        <v>7811413.44</v>
+        <v>5780603.825436409</v>
       </c>
       <c r="J18" t="n">
-        <v>1757580.71</v>
+        <v>3989568.246882793</v>
       </c>
       <c r="K18" t="n">
-        <v>4480924.6225</v>
+        <v>4673549.640897756</v>
       </c>
       <c r="L18" t="n">
-        <v>1076733.325</v>
+        <v>388335.1122194513</v>
       </c>
       <c r="M18" t="n">
-        <v>39513.6875</v>
+        <v>19176.83042394015</v>
       </c>
       <c r="N18" t="n">
-        <v>30991998.57</v>
+        <v>28247015.64588528</v>
       </c>
       <c r="O18" t="n">
-        <v>31565529.64</v>
+        <v>28456234.78553616</v>
       </c>
       <c r="P18" t="n">
-        <v>0.495</v>
+        <v>0.02244389027431421</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.8175</v>
+        <v>4.369077306733167</v>
       </c>
       <c r="R18" t="n">
-        <v>46464380.895</v>
+        <v>45666630.67331671</v>
       </c>
       <c r="S18" t="n">
-        <v>268271518.1225</v>
+        <v>282227868.648379</v>
       </c>
     </row>
     <row r="19">
@@ -1471,58 +1471,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6950533.835</v>
+        <v>9846816.75</v>
       </c>
       <c r="C19" t="n">
-        <v>3314.4625</v>
+        <v>36744.125</v>
       </c>
       <c r="D19" t="n">
-        <v>118053060.76</v>
+        <v>115666670.375</v>
       </c>
       <c r="E19" t="n">
-        <v>176638618</v>
+        <v>211897120.375</v>
       </c>
       <c r="F19" t="n">
-        <v>156640.725</v>
+        <v>249823.375</v>
       </c>
       <c r="G19" t="n">
-        <v>3488567.6325</v>
+        <v>365286.5</v>
       </c>
       <c r="H19" t="n">
-        <v>960357.0550000001</v>
+        <v>1242080.75</v>
       </c>
       <c r="I19" t="n">
-        <v>7247993.915</v>
+        <v>1024065.375</v>
       </c>
       <c r="J19" t="n">
-        <v>1669849.8225</v>
+        <v>569510.625</v>
       </c>
       <c r="K19" t="n">
-        <v>4093797.8575</v>
+        <v>831678.125</v>
       </c>
       <c r="L19" t="n">
-        <v>959552.9175</v>
+        <v>126977.125</v>
       </c>
       <c r="M19" t="n">
-        <v>55567.805</v>
+        <v>16339</v>
       </c>
       <c r="N19" t="n">
-        <v>29451340.24</v>
+        <v>12239071.75</v>
       </c>
       <c r="O19" t="n">
-        <v>30020599.21</v>
+        <v>13402186.125</v>
       </c>
       <c r="P19" t="n">
-        <v>0.675</v>
+        <v>5.625</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4225</v>
+        <v>76.75</v>
       </c>
       <c r="R19" t="n">
-        <v>50311971.185</v>
+        <v>39938589</v>
       </c>
       <c r="S19" t="n">
-        <v>252044596.0175</v>
+        <v>312684958.375</v>
       </c>
     </row>
     <row r="20">
@@ -1530,58 +1530,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8687646.785</v>
+        <v>8104147.384615385</v>
       </c>
       <c r="C20" t="n">
-        <v>2675.8775</v>
+        <v>10873.53846153846</v>
       </c>
       <c r="D20" t="n">
-        <v>118141074.035</v>
+        <v>116844590.6923077</v>
       </c>
       <c r="E20" t="n">
-        <v>222534216.815</v>
+        <v>205189964.0769231</v>
       </c>
       <c r="F20" t="n">
-        <v>101799.6625</v>
+        <v>101192.6153846154</v>
       </c>
       <c r="G20" t="n">
-        <v>1633198.14</v>
+        <v>196020.0769230769</v>
       </c>
       <c r="H20" t="n">
-        <v>1232695.5075</v>
+        <v>2782.230769230769</v>
       </c>
       <c r="I20" t="n">
-        <v>7210331.4675</v>
+        <v>319665.6923076923</v>
       </c>
       <c r="J20" t="n">
-        <v>2601083.2275</v>
+        <v>12739.84615384615</v>
       </c>
       <c r="K20" t="n">
-        <v>3258300.7825</v>
+        <v>19687.84615384615</v>
       </c>
       <c r="L20" t="n">
-        <v>896370.3675000001</v>
+        <v>91511.84615384616</v>
       </c>
       <c r="M20" t="n">
-        <v>31864.8125</v>
+        <v>5941.923076923077</v>
       </c>
       <c r="N20" t="n">
-        <v>36927125.79</v>
+        <v>12331339.15384615</v>
       </c>
       <c r="O20" t="n">
-        <v>37526740.445</v>
+        <v>14182709</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6525</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.835</v>
+        <v>125.6923076923077</v>
       </c>
       <c r="R20" t="n">
-        <v>34503533.625</v>
+        <v>45669513.23076923</v>
       </c>
       <c r="S20" t="n">
-        <v>308367926.72</v>
+        <v>302846226.3076923</v>
       </c>
     </row>
     <row r="21">
@@ -1589,707 +1589,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7497163.2625</v>
+        <v>10554336</v>
       </c>
       <c r="C21" t="n">
-        <v>3308.235</v>
+        <v>50485</v>
       </c>
       <c r="D21" t="n">
-        <v>118200470.085</v>
+        <v>116824655</v>
       </c>
       <c r="E21" t="n">
-        <v>192395456.8625</v>
+        <v>173506624</v>
       </c>
       <c r="F21" t="n">
-        <v>138431.385</v>
+        <v>25591</v>
       </c>
       <c r="G21" t="n">
-        <v>4026139.99</v>
+        <v>99223</v>
       </c>
       <c r="H21" t="n">
-        <v>2744.5125</v>
+        <v>2818</v>
       </c>
       <c r="I21" t="n">
-        <v>7971592.8925</v>
+        <v>481502</v>
       </c>
       <c r="J21" t="n">
-        <v>1726879.0575</v>
+        <v>414663</v>
       </c>
       <c r="K21" t="n">
-        <v>4564170.89</v>
+        <v>468218</v>
       </c>
       <c r="L21" t="n">
-        <v>1109980.5575</v>
+        <v>2295</v>
       </c>
       <c r="M21" t="n">
-        <v>30890.3875</v>
+        <v>25161</v>
       </c>
       <c r="N21" t="n">
-        <v>31663400.0425</v>
+        <v>10996997</v>
       </c>
       <c r="O21" t="n">
-        <v>32234678.52</v>
+        <v>10948789</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4275</v>
+        <v>9</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.715</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45621784.505</v>
+        <v>43827776</v>
       </c>
       <c r="S21" t="n">
-        <v>273161587.985</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6968516.085</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3243.1975</v>
-      </c>
-      <c r="D22" t="n">
-        <v>118052592.81</v>
-      </c>
-      <c r="E22" t="n">
-        <v>176668139.49</v>
-      </c>
-      <c r="F22" t="n">
-        <v>154943.0025</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3463597.185</v>
-      </c>
-      <c r="H22" t="n">
-        <v>951954.34</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7255798.3475</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1675833.025</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4093657.5575</v>
-      </c>
-      <c r="L22" t="n">
-        <v>956210.2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>43065.98</v>
-      </c>
-      <c r="N22" t="n">
-        <v>29499213.7975</v>
-      </c>
-      <c r="O22" t="n">
-        <v>30065371.2425</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>8.8325</v>
-      </c>
-      <c r="R22" t="n">
-        <v>51145403.3425</v>
-      </c>
-      <c r="S22" t="n">
-        <v>252126885.585</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6977862.1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2582.9325</v>
-      </c>
-      <c r="D23" t="n">
-        <v>118098643.4075</v>
-      </c>
-      <c r="E23" t="n">
-        <v>247569057.7875</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100248.69</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1536074.5325</v>
-      </c>
-      <c r="H23" t="n">
-        <v>967289.6375</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6921421.3825</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3235461.21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3962697.2975</v>
-      </c>
-      <c r="L23" t="n">
-        <v>703003.4075</v>
-      </c>
-      <c r="M23" t="n">
-        <v>45288.425</v>
-      </c>
-      <c r="N23" t="n">
-        <v>34472396.9725</v>
-      </c>
-      <c r="O23" t="n">
-        <v>35055119.985</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R23" t="n">
-        <v>34379414.025</v>
-      </c>
-      <c r="S23" t="n">
-        <v>321484717.725</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>6077691.26</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3855.4025</v>
-      </c>
-      <c r="D24" t="n">
-        <v>118164624.79</v>
-      </c>
-      <c r="E24" t="n">
-        <v>217470542.3075</v>
-      </c>
-      <c r="F24" t="n">
-        <v>113651.51</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3370825.615</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2738.245</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7434449.5125</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2413858.74</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4828630.71</v>
-      </c>
-      <c r="L24" t="n">
-        <v>839075.5575</v>
-      </c>
-      <c r="M24" t="n">
-        <v>38908.8675</v>
-      </c>
-      <c r="N24" t="n">
-        <v>30021318.3075</v>
-      </c>
-      <c r="O24" t="n">
-        <v>30547463.55</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.5175</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4.2075</v>
-      </c>
-      <c r="R24" t="n">
-        <v>44659220.785</v>
-      </c>
-      <c r="S24" t="n">
-        <v>286593986.19</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5959681.81</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3308.8275</v>
-      </c>
-      <c r="D25" t="n">
-        <v>118142730.435</v>
-      </c>
-      <c r="E25" t="n">
-        <v>210991480.9675</v>
-      </c>
-      <c r="F25" t="n">
-        <v>131208.59</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2894703.8275</v>
-      </c>
-      <c r="H25" t="n">
-        <v>764527.0550000001</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7003915.2475</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2461732.3525</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4477415.305</v>
-      </c>
-      <c r="L25" t="n">
-        <v>763425.365</v>
-      </c>
-      <c r="M25" t="n">
-        <v>56574.9275</v>
-      </c>
-      <c r="N25" t="n">
-        <v>29777758.4875</v>
-      </c>
-      <c r="O25" t="n">
-        <v>30338082.1775</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.6525</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>14.3975</v>
-      </c>
-      <c r="R25" t="n">
-        <v>46692244.7525</v>
-      </c>
-      <c r="S25" t="n">
-        <v>278488674.1825</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>8517626.055</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2967.505</v>
-      </c>
-      <c r="D26" t="n">
-        <v>118099195.2225</v>
-      </c>
-      <c r="E26" t="n">
-        <v>223631179.78</v>
-      </c>
-      <c r="F26" t="n">
-        <v>98682.6275</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1943938.3875</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1193268.84</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7534956.535</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2865264.81</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3915433.21</v>
-      </c>
-      <c r="L26" t="n">
-        <v>786034.6175000001</v>
-      </c>
-      <c r="M26" t="n">
-        <v>32235.875</v>
-      </c>
-      <c r="N26" t="n">
-        <v>34628379.4375</v>
-      </c>
-      <c r="O26" t="n">
-        <v>35214675.66</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="R26" t="n">
-        <v>37247439.4775</v>
-      </c>
-      <c r="S26" t="n">
-        <v>306207040.2475</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>7599034.095</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3123.9875</v>
-      </c>
-      <c r="D27" t="n">
-        <v>118183555.82</v>
-      </c>
-      <c r="E27" t="n">
-        <v>202419316.9625</v>
-      </c>
-      <c r="F27" t="n">
-        <v>140005.25</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4339556.6825</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2741.6675</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8626970.085000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2140870.1825</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5388318.425</v>
-      </c>
-      <c r="L27" t="n">
-        <v>975019.6575</v>
-      </c>
-      <c r="M27" t="n">
-        <v>32824.5525</v>
-      </c>
-      <c r="N27" t="n">
-        <v>30701315.085</v>
-      </c>
-      <c r="O27" t="n">
-        <v>31273176.2875</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5.3675</v>
-      </c>
-      <c r="R27" t="n">
-        <v>46037688.7475</v>
-      </c>
-      <c r="S27" t="n">
-        <v>279894060.2225</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7012644.975</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3000.45</v>
-      </c>
-      <c r="D28" t="n">
-        <v>118093086.7725</v>
-      </c>
-      <c r="E28" t="n">
-        <v>184205845.27</v>
-      </c>
-      <c r="F28" t="n">
-        <v>148186.06</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3749553.625</v>
-      </c>
-      <c r="H28" t="n">
-        <v>907912.8675000001</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7773883.52</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2040857.2975</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4806334.9375</v>
-      </c>
-      <c r="L28" t="n">
-        <v>872885.0699999999</v>
-      </c>
-      <c r="M28" t="n">
-        <v>47910.8475</v>
-      </c>
-      <c r="N28" t="n">
-        <v>28922893.86</v>
-      </c>
-      <c r="O28" t="n">
-        <v>29503892.83</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.8774999999999999</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>11.8575</v>
-      </c>
-      <c r="R28" t="n">
-        <v>51220467.1825</v>
-      </c>
-      <c r="S28" t="n">
-        <v>257584587.4775</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>12699552.2425</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6542.0425</v>
-      </c>
-      <c r="D29" t="n">
-        <v>118357944.3475</v>
-      </c>
-      <c r="E29" t="n">
-        <v>239815730.8125</v>
-      </c>
-      <c r="F29" t="n">
-        <v>263531.715</v>
-      </c>
-      <c r="G29" t="n">
-        <v>348253.645</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1451371.86</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3132579.295</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2456564.775</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2667393.3975</v>
-      </c>
-      <c r="L29" t="n">
-        <v>128991.2025</v>
-      </c>
-      <c r="M29" t="n">
-        <v>6676.1025</v>
-      </c>
-      <c r="N29" t="n">
-        <v>15062383.3075</v>
-      </c>
-      <c r="O29" t="n">
-        <v>15614726.0175</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5.9325</v>
-      </c>
-      <c r="R29" t="n">
-        <v>42865010.0025</v>
-      </c>
-      <c r="S29" t="n">
-        <v>312872517.87</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>9345728.2425</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2541.0425</v>
-      </c>
-      <c r="D30" t="n">
-        <v>118457614.54</v>
-      </c>
-      <c r="E30" t="n">
-        <v>214528927.0425</v>
-      </c>
-      <c r="F30" t="n">
-        <v>98355.35000000001</v>
-      </c>
-      <c r="G30" t="n">
-        <v>122084.345</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2734.1875</v>
-      </c>
-      <c r="I30" t="n">
-        <v>276679.645</v>
-      </c>
-      <c r="J30" t="n">
-        <v>16796.025</v>
-      </c>
-      <c r="K30" t="n">
-        <v>19646.24</v>
-      </c>
-      <c r="L30" t="n">
-        <v>116054.775</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2022.89</v>
-      </c>
-      <c r="N30" t="n">
-        <v>12255954.2475</v>
-      </c>
-      <c r="O30" t="n">
-        <v>12783838.0725</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.5075</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.945</v>
-      </c>
-      <c r="R30" t="n">
-        <v>45336148.755</v>
-      </c>
-      <c r="S30" t="n">
-        <v>292255759.28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>12618475.31578947</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3299.473684210526</v>
-      </c>
-      <c r="D31" t="n">
-        <v>117896944.4473684</v>
-      </c>
-      <c r="E31" t="n">
-        <v>212179265.7236842</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1277.868421052632</v>
-      </c>
-      <c r="G31" t="n">
-        <v>88233.69736842105</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2741.78947368421</v>
-      </c>
-      <c r="I31" t="n">
-        <v>576687.302631579</v>
-      </c>
-      <c r="J31" t="n">
-        <v>502154.4736842105</v>
-      </c>
-      <c r="K31" t="n">
-        <v>573473.8157894737</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1742.25</v>
-      </c>
-      <c r="M31" t="n">
-        <v>12686.34210526316</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13526483.30263158</v>
-      </c>
-      <c r="O31" t="n">
-        <v>13686074.61842105</v>
-      </c>
-      <c r="P31" t="n">
-        <v>29.89473684210526</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>45863495.60526316</v>
-      </c>
-      <c r="S31" t="n">
-        <v>291920447.3684211</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>48734122.11111111</v>
-      </c>
-      <c r="C32" t="n">
-        <v>22877.11111111111</v>
-      </c>
-      <c r="D32" t="n">
-        <v>118056501.3333333</v>
-      </c>
-      <c r="E32" t="n">
-        <v>331469847.1111111</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9849.555555555555</v>
-      </c>
-      <c r="G32" t="n">
-        <v>363509.6666666667</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2765.333333333333</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4249078.555555556</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3892732.666666667</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4084925</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9042</v>
-      </c>
-      <c r="M32" t="n">
-        <v>20509.88888888889</v>
-      </c>
-      <c r="N32" t="n">
-        <v>34429143.11111111</v>
-      </c>
-      <c r="O32" t="n">
-        <v>35953099.44444445</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5336328.777777778</v>
-      </c>
-      <c r="S32" t="n">
-        <v>375623264.6666667</v>
+        <v>282842502</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/counters_means.xlsx
+++ b/code/results/signal_reconstruction/counters_means.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,58 +468,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44747688.49206349</v>
+        <v>49179366.48628429</v>
       </c>
       <c r="C2" t="n">
-        <v>67756.93650793651</v>
+        <v>19859.52618453865</v>
       </c>
       <c r="D2" t="n">
-        <v>117947834.8095238</v>
+        <v>118079921.0399002</v>
       </c>
       <c r="E2" t="n">
-        <v>277951613.031746</v>
+        <v>308159016.4189526</v>
       </c>
       <c r="F2" t="n">
-        <v>424378.9682539682</v>
+        <v>472315.0872817955</v>
       </c>
       <c r="G2" t="n">
-        <v>3818500.650793651</v>
+        <v>4569388.324189526</v>
       </c>
       <c r="H2" t="n">
-        <v>2840.761904761905</v>
+        <v>2731.84289276808</v>
       </c>
       <c r="I2" t="n">
-        <v>8131389.873015873</v>
+        <v>8947340.793017456</v>
       </c>
       <c r="J2" t="n">
-        <v>4155251.841269841</v>
+        <v>4161379.885286783</v>
       </c>
       <c r="K2" t="n">
-        <v>6995802.365079365</v>
+        <v>7583018.713216958</v>
       </c>
       <c r="L2" t="n">
-        <v>12532.55555555555</v>
+        <v>106643.4513715711</v>
       </c>
       <c r="M2" t="n">
-        <v>16533.30158730159</v>
+        <v>18919.81795511222</v>
       </c>
       <c r="N2" t="n">
-        <v>31858055.96825397</v>
+        <v>35257241.39401496</v>
       </c>
       <c r="O2" t="n">
-        <v>32289839.98412699</v>
+        <v>35840292.83541147</v>
       </c>
       <c r="P2" t="n">
-        <v>3.285714285714286</v>
+        <v>2.860349127182045</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>10.4788029925187</v>
       </c>
       <c r="R2" t="n">
-        <v>13575657.3015873</v>
+        <v>14816675.09226933</v>
       </c>
       <c r="S2" t="n">
-        <v>324929284.4285714</v>
+        <v>357879965.2169576</v>
       </c>
     </row>
     <row r="3">
@@ -527,58 +527,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42164649.3030303</v>
+        <v>49006650.09975062</v>
       </c>
       <c r="C3" t="n">
-        <v>68243.77272727272</v>
+        <v>19787.20947630923</v>
       </c>
       <c r="D3" t="n">
-        <v>117250381.1212121</v>
+        <v>118088672.9301746</v>
       </c>
       <c r="E3" t="n">
-        <v>262599270.5757576</v>
+        <v>307002224.0573566</v>
       </c>
       <c r="F3" t="n">
-        <v>451906.196969697</v>
+        <v>472110.0997506235</v>
       </c>
       <c r="G3" t="n">
-        <v>3731936.363636364</v>
+        <v>4515416.605985037</v>
       </c>
       <c r="H3" t="n">
-        <v>2815.848484848485</v>
+        <v>2730.583541147132</v>
       </c>
       <c r="I3" t="n">
-        <v>7675967.984848484</v>
+        <v>8909749.531172071</v>
       </c>
       <c r="J3" t="n">
-        <v>3826273.045454545</v>
+        <v>4183984.650872818</v>
       </c>
       <c r="K3" t="n">
-        <v>6607011.287878788</v>
+        <v>7553648.768079801</v>
       </c>
       <c r="L3" t="n">
-        <v>12455</v>
+        <v>106755.7281795511</v>
       </c>
       <c r="M3" t="n">
-        <v>21061.40909090909</v>
+        <v>18673.74563591023</v>
       </c>
       <c r="N3" t="n">
-        <v>30204442.07575757</v>
+        <v>35101657.29426434</v>
       </c>
       <c r="O3" t="n">
-        <v>28118658.81818182</v>
+        <v>35689449.05735661</v>
       </c>
       <c r="P3" t="n">
-        <v>5.803030303030303</v>
+        <v>2.339152119700748</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.40909090909091</v>
+        <v>7.336658354114713</v>
       </c>
       <c r="R3" t="n">
-        <v>17263594.5</v>
+        <v>15136211.6882793</v>
       </c>
       <c r="S3" t="n">
-        <v>314991381.6515151</v>
+        <v>356556046.9850374</v>
       </c>
     </row>
     <row r="4">
@@ -586,58 +586,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11038592.17456359</v>
+        <v>10599158.93266833</v>
       </c>
       <c r="C4" t="n">
-        <v>27359.85536159601</v>
+        <v>6843.361596009975</v>
       </c>
       <c r="D4" t="n">
-        <v>117726874.3890274</v>
+        <v>118075748.8753117</v>
       </c>
       <c r="E4" t="n">
-        <v>271878804.1870324</v>
+        <v>281214273.7157107</v>
       </c>
       <c r="F4" t="n">
-        <v>123879.9027431421</v>
+        <v>307115.7082294264</v>
       </c>
       <c r="G4" t="n">
-        <v>1197118.87032419</v>
+        <v>1338919.912718205</v>
       </c>
       <c r="H4" t="n">
-        <v>2878362.246882793</v>
+        <v>3259005.780548628</v>
       </c>
       <c r="I4" t="n">
-        <v>5371672.269326683</v>
+        <v>6146375.910224439</v>
       </c>
       <c r="J4" t="n">
-        <v>3907301.897755611</v>
+        <v>4502666.349127182</v>
       </c>
       <c r="K4" t="n">
-        <v>4820504.481296758</v>
+        <v>5293671.007481297</v>
       </c>
       <c r="L4" t="n">
-        <v>148117.5311720698</v>
+        <v>439493.9376558603</v>
       </c>
       <c r="M4" t="n">
-        <v>19394.5710723192</v>
+        <v>18203.15211970075</v>
       </c>
       <c r="N4" t="n">
-        <v>13803176.18204489</v>
+        <v>13876926.76558604</v>
       </c>
       <c r="O4" t="n">
-        <v>13439136.21197007</v>
+        <v>15033018.2319202</v>
       </c>
       <c r="P4" t="n">
-        <v>1.955112219451371</v>
+        <v>2.009975062344139</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.615960099750623</v>
+        <v>18.24688279301746</v>
       </c>
       <c r="R4" t="n">
-        <v>33699477.81546135</v>
+        <v>32076227.54114713</v>
       </c>
       <c r="S4" t="n">
-        <v>342777959.9376559</v>
+        <v>349292228.0374065</v>
       </c>
     </row>
     <row r="5">
@@ -645,58 +645,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11058711.90773067</v>
+        <v>10576389.3915212</v>
       </c>
       <c r="C5" t="n">
-        <v>27525.79800498753</v>
+        <v>6940.940149625935</v>
       </c>
       <c r="D5" t="n">
-        <v>118006092.7456359</v>
+        <v>118071368.4389027</v>
       </c>
       <c r="E5" t="n">
-        <v>274329250.7805486</v>
+        <v>280551152.59601</v>
       </c>
       <c r="F5" t="n">
-        <v>117428.3416458853</v>
+        <v>308709.3391521197</v>
       </c>
       <c r="G5" t="n">
-        <v>1235407.25436409</v>
+        <v>1344038.321695761</v>
       </c>
       <c r="H5" t="n">
-        <v>2858091.740648379</v>
+        <v>3280404.251870324</v>
       </c>
       <c r="I5" t="n">
-        <v>5415874.720698254</v>
+        <v>6156724.95511222</v>
       </c>
       <c r="J5" t="n">
-        <v>3905560.394014962</v>
+        <v>4511573.720698254</v>
       </c>
       <c r="K5" t="n">
-        <v>4850365.992518703</v>
+        <v>5302928.96009975</v>
       </c>
       <c r="L5" t="n">
-        <v>153895.0872817955</v>
+        <v>441406.6109725686</v>
       </c>
       <c r="M5" t="n">
-        <v>18487.72319201995</v>
+        <v>20306.23690773067</v>
       </c>
       <c r="N5" t="n">
-        <v>13898018.68578554</v>
+        <v>13885757.22693267</v>
       </c>
       <c r="O5" t="n">
-        <v>13978401.95261845</v>
+        <v>15035909.42394015</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1571072319201995</v>
+        <v>3.882793017456359</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.14713216957606</v>
+        <v>16.65336658354115</v>
       </c>
       <c r="R5" t="n">
-        <v>33970952.53865337</v>
+        <v>32189625.96009975</v>
       </c>
       <c r="S5" t="n">
-        <v>341876011.8354115</v>
+        <v>349138127.5062344</v>
       </c>
     </row>
     <row r="6">
@@ -704,58 +704,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4574238.391304348</v>
+        <v>4245077.578553616</v>
       </c>
       <c r="C6" t="n">
-        <v>45430.22826086957</v>
+        <v>10760.43640897756</v>
       </c>
       <c r="D6" t="n">
-        <v>117715316.1630435</v>
+        <v>118081928.5935162</v>
       </c>
       <c r="E6" t="n">
-        <v>281756591.2391304</v>
+        <v>291079109.9276808</v>
       </c>
       <c r="F6" t="n">
-        <v>178723.3152173913</v>
+        <v>234240.9576059851</v>
       </c>
       <c r="G6" t="n">
-        <v>1618501.27173913</v>
+        <v>1271552.683291771</v>
       </c>
       <c r="H6" t="n">
-        <v>25340670.7826087</v>
+        <v>22774894.90773067</v>
       </c>
       <c r="I6" t="n">
-        <v>6169713.586956521</v>
+        <v>5827165.975062344</v>
       </c>
       <c r="J6" t="n">
-        <v>4498783.163043479</v>
+        <v>4523811.581047381</v>
       </c>
       <c r="K6" t="n">
-        <v>5878201.282608695</v>
+        <v>5555778.017456359</v>
       </c>
       <c r="L6" t="n">
-        <v>8339.260869565218</v>
+        <v>106976.5635910224</v>
       </c>
       <c r="M6" t="n">
-        <v>17329.55434782609</v>
+        <v>19183.37157107232</v>
       </c>
       <c r="N6" t="n">
-        <v>21927164.01086957</v>
+        <v>20711701.3117207</v>
       </c>
       <c r="O6" t="n">
-        <v>22191066.4673913</v>
+        <v>21245115.51371571</v>
       </c>
       <c r="P6" t="n">
-        <v>2.934782608695652</v>
+        <v>1.840399002493766</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.858695652173913</v>
+        <v>4.266832917705735</v>
       </c>
       <c r="R6" t="n">
-        <v>36965476.06521739</v>
+        <v>35214401.03241895</v>
       </c>
       <c r="S6" t="n">
-        <v>321446360.8478261</v>
+        <v>325379457.7406484</v>
       </c>
     </row>
     <row r="7">
@@ -763,58 +763,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4422777.547368421</v>
+        <v>4247198.087281795</v>
       </c>
       <c r="C7" t="n">
-        <v>44352.47368421053</v>
+        <v>10723.88528678304</v>
       </c>
       <c r="D7" t="n">
-        <v>119590051.9052632</v>
+        <v>118106819.8304239</v>
       </c>
       <c r="E7" t="n">
-        <v>275720149.1263158</v>
+        <v>291319309.2668329</v>
       </c>
       <c r="F7" t="n">
-        <v>196402.9263157895</v>
+        <v>234683.3990024938</v>
       </c>
       <c r="G7" t="n">
-        <v>1638495.4</v>
+        <v>1289582.952618454</v>
       </c>
       <c r="H7" t="n">
-        <v>24758321.4631579</v>
+        <v>22793125.81795511</v>
       </c>
       <c r="I7" t="n">
-        <v>5949328.27368421</v>
+        <v>5821460.783042394</v>
       </c>
       <c r="J7" t="n">
-        <v>4292962.663157894</v>
+        <v>4496518.768079801</v>
       </c>
       <c r="K7" t="n">
-        <v>5674356.884210526</v>
+        <v>5539182.720698254</v>
       </c>
       <c r="L7" t="n">
-        <v>9093.347368421053</v>
+        <v>106425.1895261845</v>
       </c>
       <c r="M7" t="n">
-        <v>20497.52631578947</v>
+        <v>17559.87032418953</v>
       </c>
       <c r="N7" t="n">
-        <v>21151703.89473684</v>
+        <v>20715996.48379052</v>
       </c>
       <c r="O7" t="n">
-        <v>22900498.21052632</v>
+        <v>21249041.16957606</v>
       </c>
       <c r="P7" t="n">
-        <v>6.536842105263158</v>
+        <v>0.1571072319201995</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.957894736842105</v>
+        <v>7.468827930174563</v>
       </c>
       <c r="R7" t="n">
-        <v>36597702.70526316</v>
+        <v>35182797.7605985</v>
       </c>
       <c r="S7" t="n">
-        <v>317325892.7578948</v>
+        <v>325456551.4538653</v>
       </c>
     </row>
     <row r="8">
@@ -822,58 +822,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13385403.73815461</v>
+        <v>13036338.38653367</v>
       </c>
       <c r="C8" t="n">
-        <v>41521.63341645886</v>
+        <v>9944.481296758106</v>
       </c>
       <c r="D8" t="n">
-        <v>117906962.6683292</v>
+        <v>118055107.1820449</v>
       </c>
       <c r="E8" t="n">
-        <v>252830551.5785536</v>
+        <v>246365522.5361596</v>
       </c>
       <c r="F8" t="n">
-        <v>84364.22194513716</v>
+        <v>336270.8703241895</v>
       </c>
       <c r="G8" t="n">
-        <v>1356009.164588529</v>
+        <v>1657322.867830424</v>
       </c>
       <c r="H8" t="n">
-        <v>5481535.910224439</v>
+        <v>5695584.613466335</v>
       </c>
       <c r="I8" t="n">
-        <v>5017803.586034913</v>
+        <v>4803462.054862843</v>
       </c>
       <c r="J8" t="n">
-        <v>2909047.067331671</v>
+        <v>2517559.27680798</v>
       </c>
       <c r="K8" t="n">
-        <v>3830975.847880299</v>
+        <v>3559496.566084788</v>
       </c>
       <c r="L8" t="n">
-        <v>177106.2344139651</v>
+        <v>369768.5236907731</v>
       </c>
       <c r="M8" t="n">
-        <v>21518.07980049875</v>
+        <v>17946.99251870324</v>
       </c>
       <c r="N8" t="n">
-        <v>34286098.45885286</v>
+        <v>33228311.61346633</v>
       </c>
       <c r="O8" t="n">
-        <v>34931298.42394015</v>
+        <v>33794856.45885286</v>
       </c>
       <c r="P8" t="n">
-        <v>4.219451371571072</v>
+        <v>0.6733167082294265</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.748129675810474</v>
+        <v>5.234413965087282</v>
       </c>
       <c r="R8" t="n">
-        <v>36777458.41147132</v>
+        <v>40224888.11221945</v>
       </c>
       <c r="S8" t="n">
-        <v>328528845.0448878</v>
+        <v>313225423.0798005</v>
       </c>
     </row>
     <row r="9">
@@ -881,58 +881,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13536650.66583541</v>
+        <v>12977273.31920199</v>
       </c>
       <c r="C9" t="n">
-        <v>41636.04738154614</v>
+        <v>9938.915211970076</v>
       </c>
       <c r="D9" t="n">
-        <v>118002393.319202</v>
+        <v>118035702.6683292</v>
       </c>
       <c r="E9" t="n">
-        <v>255362067.4339152</v>
+        <v>245966757.5286783</v>
       </c>
       <c r="F9" t="n">
-        <v>83485.41396508728</v>
+        <v>335769.1720698255</v>
       </c>
       <c r="G9" t="n">
-        <v>1334196.416458853</v>
+        <v>1675289.95511222</v>
       </c>
       <c r="H9" t="n">
-        <v>5536941.543640898</v>
+        <v>5685789.159600997</v>
       </c>
       <c r="I9" t="n">
-        <v>5072296.174563591</v>
+        <v>4799092.017456359</v>
       </c>
       <c r="J9" t="n">
-        <v>2963607.443890275</v>
+        <v>2503131.426433915</v>
       </c>
       <c r="K9" t="n">
-        <v>3873511.3840399</v>
+        <v>3551040.827930175</v>
       </c>
       <c r="L9" t="n">
-        <v>174076.4912718204</v>
+        <v>370143.0872817955</v>
       </c>
       <c r="M9" t="n">
-        <v>19933.04488778055</v>
+        <v>18439.18952618454</v>
       </c>
       <c r="N9" t="n">
-        <v>34595077.29675811</v>
+        <v>33168454.5361596</v>
       </c>
       <c r="O9" t="n">
-        <v>34726019.52119701</v>
+        <v>33766216.4563591</v>
       </c>
       <c r="P9" t="n">
-        <v>5.7356608478803</v>
+        <v>0.4488778054862843</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.70074812967581</v>
+        <v>5.571072319201995</v>
       </c>
       <c r="R9" t="n">
-        <v>35927493.80798005</v>
+        <v>40378074.7531172</v>
       </c>
       <c r="S9" t="n">
-        <v>327194225.4588529</v>
+        <v>312810463.4713217</v>
       </c>
     </row>
     <row r="10">
@@ -940,58 +940,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11841422.03241895</v>
+        <v>11730689.87281796</v>
       </c>
       <c r="C10" t="n">
-        <v>37675.42144638404</v>
+        <v>9545.241895261845</v>
       </c>
       <c r="D10" t="n">
-        <v>118050381.8029925</v>
+        <v>118032469.7456359</v>
       </c>
       <c r="E10" t="n">
-        <v>223533248.084788</v>
+        <v>224741200.5735661</v>
       </c>
       <c r="F10" t="n">
-        <v>87340.15710723192</v>
+        <v>468499.0748129676</v>
       </c>
       <c r="G10" t="n">
-        <v>1272237.08478803</v>
+        <v>1956318.872817955</v>
       </c>
       <c r="H10" t="n">
-        <v>5425265.788029925</v>
+        <v>4953050.610972568</v>
       </c>
       <c r="I10" t="n">
-        <v>6052287.902743142</v>
+        <v>9961678.82543641</v>
       </c>
       <c r="J10" t="n">
-        <v>4152098.306733167</v>
+        <v>7037784.755610973</v>
       </c>
       <c r="K10" t="n">
-        <v>4943488.982543641</v>
+        <v>8308110.234413965</v>
       </c>
       <c r="L10" t="n">
-        <v>379398.0698254364</v>
+        <v>527097.0498753117</v>
       </c>
       <c r="M10" t="n">
-        <v>22424.20947630923</v>
+        <v>19318.09975062344</v>
       </c>
       <c r="N10" t="n">
-        <v>31216203.34663342</v>
+        <v>31427913.88778055</v>
       </c>
       <c r="O10" t="n">
-        <v>27167985.86533666</v>
+        <v>31881129.50872818</v>
       </c>
       <c r="P10" t="n">
-        <v>2.670822942643392</v>
+        <v>1.997506234413965</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.922693266832918</v>
+        <v>11.66084788029925</v>
       </c>
       <c r="R10" t="n">
-        <v>43684843.10723192</v>
+        <v>46402475.7680798</v>
       </c>
       <c r="S10" t="n">
-        <v>291847609.1845387</v>
+        <v>294275490.5461347</v>
       </c>
     </row>
     <row r="11">
@@ -999,58 +999,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11887213.9127182</v>
+        <v>11527982.85785536</v>
       </c>
       <c r="C11" t="n">
-        <v>37814.33416458853</v>
+        <v>9524.306733167083</v>
       </c>
       <c r="D11" t="n">
-        <v>118031935.7032419</v>
+        <v>118041461.8802993</v>
       </c>
       <c r="E11" t="n">
-        <v>224107812.9301746</v>
+        <v>224391322.0024938</v>
       </c>
       <c r="F11" t="n">
-        <v>82264.61097256858</v>
+        <v>465555.5162094763</v>
       </c>
       <c r="G11" t="n">
-        <v>1285306.019950125</v>
+        <v>1942385.625935162</v>
       </c>
       <c r="H11" t="n">
-        <v>5439373.630922693</v>
+        <v>4944907.678304239</v>
       </c>
       <c r="I11" t="n">
-        <v>6052735.72319202</v>
+        <v>9925334.857855361</v>
       </c>
       <c r="J11" t="n">
-        <v>4141178.391521197</v>
+        <v>7027731.528678305</v>
       </c>
       <c r="K11" t="n">
-        <v>4894761.403990025</v>
+        <v>8265817.526184538</v>
       </c>
       <c r="L11" t="n">
-        <v>377152.1346633416</v>
+        <v>541203.1596009975</v>
       </c>
       <c r="M11" t="n">
-        <v>22581.91271820449</v>
+        <v>18471.76309226933</v>
       </c>
       <c r="N11" t="n">
-        <v>30693883.3915212</v>
+        <v>31208654.5361596</v>
       </c>
       <c r="O11" t="n">
-        <v>30830907.26433915</v>
+        <v>31846755.36159601</v>
       </c>
       <c r="P11" t="n">
-        <v>3.187032418952618</v>
+        <v>1.952618453865337</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.109725685785536</v>
+        <v>9.635910224438902</v>
       </c>
       <c r="R11" t="n">
-        <v>43931477.29426434</v>
+        <v>46751987.42643391</v>
       </c>
       <c r="S11" t="n">
-        <v>290960096.9950125</v>
+        <v>292467197.6134663</v>
       </c>
     </row>
     <row r="12">
@@ -1058,58 +1058,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10913317.52985075</v>
+        <v>10529984.71072319</v>
       </c>
       <c r="C12" t="n">
-        <v>35260.1815920398</v>
+        <v>10628.88029925187</v>
       </c>
       <c r="D12" t="n">
-        <v>117954870.4378109</v>
+        <v>118039409.563591</v>
       </c>
       <c r="E12" t="n">
-        <v>221899630.5447761</v>
+        <v>215893805.1920199</v>
       </c>
       <c r="F12" t="n">
-        <v>65023.18905472637</v>
+        <v>425717.9152119701</v>
       </c>
       <c r="G12" t="n">
-        <v>1274726.390547264</v>
+        <v>1732052.571072319</v>
       </c>
       <c r="H12" t="n">
-        <v>6353535.609452737</v>
+        <v>5680280.690773067</v>
       </c>
       <c r="I12" t="n">
-        <v>5998846.014925373</v>
+        <v>8935376.219451372</v>
       </c>
       <c r="J12" t="n">
-        <v>4171391.084577114</v>
+        <v>6350220.037406484</v>
       </c>
       <c r="K12" t="n">
-        <v>4970978.997512437</v>
+        <v>7444064.897755611</v>
       </c>
       <c r="L12" t="n">
-        <v>351540.3731343283</v>
+        <v>481521.8104738155</v>
       </c>
       <c r="M12" t="n">
-        <v>20686.80597014925</v>
+        <v>19448.32668329177</v>
       </c>
       <c r="N12" t="n">
-        <v>27371204.80348259</v>
+        <v>26884288.06733167</v>
       </c>
       <c r="O12" t="n">
-        <v>24137737.74378109</v>
+        <v>27466882.94014963</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3009950248756219</v>
+        <v>1.827930174563591</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1791044776119403</v>
+        <v>15.93765586034913</v>
       </c>
       <c r="R12" t="n">
-        <v>43841812.89054726</v>
+        <v>47723129.34663342</v>
       </c>
       <c r="S12" t="n">
-        <v>286047130.358209</v>
+        <v>279088410.9850374</v>
       </c>
     </row>
     <row r="13">
@@ -1117,58 +1117,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10789673.58104738</v>
+        <v>10545518.91022444</v>
       </c>
       <c r="C13" t="n">
-        <v>34887.51371571072</v>
+        <v>10464.86034912718</v>
       </c>
       <c r="D13" t="n">
-        <v>117979570.7281795</v>
+        <v>118087151.5187032</v>
       </c>
       <c r="E13" t="n">
-        <v>219581959.1720698</v>
+        <v>216329198.0972569</v>
       </c>
       <c r="F13" t="n">
-        <v>75576.20199501247</v>
+        <v>423024.7630922693</v>
       </c>
       <c r="G13" t="n">
-        <v>1291709.366583541</v>
+        <v>1707009.289276808</v>
       </c>
       <c r="H13" t="n">
-        <v>6280201.371571072</v>
+        <v>5686322.526184538</v>
       </c>
       <c r="I13" t="n">
-        <v>5930828.177057357</v>
+        <v>8948525.009975063</v>
       </c>
       <c r="J13" t="n">
-        <v>4085854.952618454</v>
+        <v>6383369.895261846</v>
       </c>
       <c r="K13" t="n">
-        <v>4913367.281795511</v>
+        <v>7459551.950124688</v>
       </c>
       <c r="L13" t="n">
-        <v>354436.3316708229</v>
+        <v>479968.5211970075</v>
       </c>
       <c r="M13" t="n">
-        <v>23559.94264339152</v>
+        <v>19550.25436408977</v>
       </c>
       <c r="N13" t="n">
-        <v>27068741.37157107</v>
+        <v>26954934.3915212</v>
       </c>
       <c r="O13" t="n">
-        <v>27201276</v>
+        <v>27517665.72319202</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08977556109725686</v>
+        <v>1.576059850374065</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>12.21945137157107</v>
       </c>
       <c r="R13" t="n">
-        <v>45010928.63591023</v>
+        <v>47621297.18204489</v>
       </c>
       <c r="S13" t="n">
-        <v>282005763.0897756</v>
+        <v>279444610.7805486</v>
       </c>
     </row>
     <row r="14">
@@ -1176,58 +1176,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9257446.25</v>
+        <v>10554631.18461538</v>
       </c>
       <c r="C14" t="n">
-        <v>36092.5</v>
+        <v>6824.926923076923</v>
       </c>
       <c r="D14" t="n">
-        <v>117312836.25</v>
+        <v>118078097.2615385</v>
       </c>
       <c r="E14" t="n">
-        <v>241703839.25</v>
+        <v>275268798.5576923</v>
       </c>
       <c r="F14" t="n">
-        <v>573930.5</v>
+        <v>432951.1884615385</v>
       </c>
       <c r="G14" t="n">
-        <v>1579627.75</v>
+        <v>1574352.980769231</v>
       </c>
       <c r="H14" t="n">
-        <v>2268379.5</v>
+        <v>2318127.538461538</v>
       </c>
       <c r="I14" t="n">
-        <v>5253111.75</v>
+        <v>6497664.915384616</v>
       </c>
       <c r="J14" t="n">
-        <v>3535784.5</v>
+        <v>4661414.853846154</v>
       </c>
       <c r="K14" t="n">
-        <v>4360480</v>
+        <v>5595447.534615384</v>
       </c>
       <c r="L14" t="n">
-        <v>436253.25</v>
+        <v>516561.2461538462</v>
       </c>
       <c r="M14" t="n">
-        <v>25027.5</v>
+        <v>20637.51153846154</v>
       </c>
       <c r="N14" t="n">
-        <v>11819150</v>
+        <v>13373689.36923077</v>
       </c>
       <c r="O14" t="n">
-        <v>14140700.75</v>
+        <v>15122932.28846154</v>
       </c>
       <c r="P14" t="n">
-        <v>2.25</v>
+        <v>4.557692307692307</v>
       </c>
       <c r="Q14" t="n">
-        <v>1905</v>
+        <v>34.06153846153846</v>
       </c>
       <c r="R14" t="n">
-        <v>37959817</v>
+        <v>32793234.63461538</v>
       </c>
       <c r="S14" t="n">
-        <v>341933750.5</v>
+        <v>343573723.1538461</v>
       </c>
     </row>
     <row r="15">
@@ -1235,58 +1235,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8130678.5</v>
+        <v>10526722.97307692</v>
       </c>
       <c r="C15" t="n">
-        <v>31248.75</v>
+        <v>6833</v>
       </c>
       <c r="D15" t="n">
-        <v>126854893.25</v>
+        <v>118012886.15</v>
       </c>
       <c r="E15" t="n">
-        <v>252866481.5</v>
+        <v>275303720.7538462</v>
       </c>
       <c r="F15" t="n">
-        <v>498240.5</v>
+        <v>432077.7192307692</v>
       </c>
       <c r="G15" t="n">
-        <v>1419189</v>
+        <v>1550473.188461538</v>
       </c>
       <c r="H15" t="n">
-        <v>2913194</v>
+        <v>2340028.815384615</v>
       </c>
       <c r="I15" t="n">
-        <v>4991300</v>
+        <v>6494166.242307693</v>
       </c>
       <c r="J15" t="n">
-        <v>3331992</v>
+        <v>4690495.796153846</v>
       </c>
       <c r="K15" t="n">
-        <v>3960683.75</v>
+        <v>5617281.596153846</v>
       </c>
       <c r="L15" t="n">
-        <v>557196.5</v>
+        <v>519225.8192307692</v>
       </c>
       <c r="M15" t="n">
-        <v>21568.25</v>
+        <v>20663.55384615385</v>
       </c>
       <c r="N15" t="n">
-        <v>11631021.5</v>
+        <v>13429115.74230769</v>
       </c>
       <c r="O15" t="n">
-        <v>15341778.75</v>
+        <v>15174667.49230769</v>
       </c>
       <c r="P15" t="n">
-        <v>9.75</v>
+        <v>3.861538461538462</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.25</v>
+        <v>39.42692307692307</v>
       </c>
       <c r="R15" t="n">
-        <v>38240545.5</v>
+        <v>32698023.63076923</v>
       </c>
       <c r="S15" t="n">
-        <v>346484691</v>
+        <v>343482668.8461539</v>
       </c>
     </row>
     <row r="16">
@@ -1294,58 +1294,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14057643.29925187</v>
+        <v>13214917.28428928</v>
       </c>
       <c r="C16" t="n">
-        <v>39737.1970074813</v>
+        <v>9519.15710723192</v>
       </c>
       <c r="D16" t="n">
-        <v>118103168.2967581</v>
+        <v>118066475.638404</v>
       </c>
       <c r="E16" t="n">
-        <v>258483514.1246883</v>
+        <v>245505952.6857855</v>
       </c>
       <c r="F16" t="n">
-        <v>40529.77556109726</v>
+        <v>327874.3316708229</v>
       </c>
       <c r="G16" t="n">
-        <v>1276025.566084788</v>
+        <v>1629358.703241895</v>
       </c>
       <c r="H16" t="n">
-        <v>6388205.875311721</v>
+        <v>5931600.957605985</v>
       </c>
       <c r="I16" t="n">
-        <v>5159010.33915212</v>
+        <v>4783524.980049876</v>
       </c>
       <c r="J16" t="n">
-        <v>3053326.882793018</v>
+        <v>2511640.620947631</v>
       </c>
       <c r="K16" t="n">
-        <v>3920658.017456359</v>
+        <v>3534488.029925187</v>
       </c>
       <c r="L16" t="n">
-        <v>225279.2992518703</v>
+        <v>392476.6284289277</v>
       </c>
       <c r="M16" t="n">
-        <v>19862.41147132169</v>
+        <v>18042.72069825436</v>
       </c>
       <c r="N16" t="n">
-        <v>34837750.64837905</v>
+        <v>32932126.67331671</v>
       </c>
       <c r="O16" t="n">
-        <v>34978258.75810474</v>
+        <v>33473503.72069826</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7880299251870324</v>
+        <v>0.5187032418952618</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2244389027431422</v>
+        <v>11.4139650872818</v>
       </c>
       <c r="R16" t="n">
-        <v>34125776.3765586</v>
+        <v>40142525.23441397</v>
       </c>
       <c r="S16" t="n">
-        <v>327737612.5112219</v>
+        <v>310792320.40399</v>
       </c>
     </row>
     <row r="17">
@@ -1353,58 +1353,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12142509.93017456</v>
+        <v>12228012.9925187</v>
       </c>
       <c r="C17" t="n">
-        <v>35305.09226932668</v>
+        <v>9996.638403990026</v>
       </c>
       <c r="D17" t="n">
-        <v>118015083.1371571</v>
+        <v>118100776.9376559</v>
       </c>
       <c r="E17" t="n">
-        <v>221787214.169576</v>
+        <v>221814599.042394</v>
       </c>
       <c r="F17" t="n">
-        <v>40943.40149625935</v>
+        <v>465259.1720698255</v>
       </c>
       <c r="G17" t="n">
-        <v>1196655.845386534</v>
+        <v>1940050.897755611</v>
       </c>
       <c r="H17" t="n">
-        <v>5745080.062344139</v>
+        <v>5362199.319201995</v>
       </c>
       <c r="I17" t="n">
-        <v>6158240.53117207</v>
+        <v>10258876.57107232</v>
       </c>
       <c r="J17" t="n">
-        <v>4286003.788029925</v>
+        <v>7282661.506234414</v>
       </c>
       <c r="K17" t="n">
-        <v>4988957.458852868</v>
+        <v>8509778.518703243</v>
       </c>
       <c r="L17" t="n">
-        <v>398629.2543640897</v>
+        <v>533958.8578553617</v>
       </c>
       <c r="M17" t="n">
-        <v>22757.88029925187</v>
+        <v>25349.96758104738</v>
       </c>
       <c r="N17" t="n">
-        <v>30386136.7605985</v>
+        <v>30609360.2244389</v>
       </c>
       <c r="O17" t="n">
-        <v>27073961.39650873</v>
+        <v>31011446.76558603</v>
       </c>
       <c r="P17" t="n">
-        <v>2.022443890274314</v>
+        <v>1.885286783042394</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.164588528678304</v>
+        <v>6.967581047381546</v>
       </c>
       <c r="R17" t="n">
-        <v>44100305.55610973</v>
+        <v>46384288.56608479</v>
       </c>
       <c r="S17" t="n">
-        <v>291332372.9077307</v>
+        <v>290605725.7531172</v>
       </c>
     </row>
     <row r="18">
@@ -1412,58 +1412,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11666950.41895262</v>
+        <v>11262135.95012469</v>
       </c>
       <c r="C18" t="n">
-        <v>34407.24688279302</v>
+        <v>8521.895261845386</v>
       </c>
       <c r="D18" t="n">
-        <v>118088479</v>
+        <v>118066665.9276808</v>
       </c>
       <c r="E18" t="n">
-        <v>216468554.5361596</v>
+        <v>210622632.553616</v>
       </c>
       <c r="F18" t="n">
-        <v>56127.01496259352</v>
+        <v>444793.72319202</v>
       </c>
       <c r="G18" t="n">
-        <v>1180865.324189526</v>
+        <v>1707486.718204489</v>
       </c>
       <c r="H18" t="n">
-        <v>5172102.798004988</v>
+        <v>4716071.793017456</v>
       </c>
       <c r="I18" t="n">
-        <v>5780603.825436409</v>
+        <v>9134428.471321696</v>
       </c>
       <c r="J18" t="n">
-        <v>3989568.246882793</v>
+        <v>6481209.53117207</v>
       </c>
       <c r="K18" t="n">
-        <v>4673549.640897756</v>
+        <v>7528255.890274314</v>
       </c>
       <c r="L18" t="n">
-        <v>388335.1122194513</v>
+        <v>518519.5411471322</v>
       </c>
       <c r="M18" t="n">
-        <v>19176.83042394015</v>
+        <v>17291.15960099751</v>
       </c>
       <c r="N18" t="n">
-        <v>28247015.64588528</v>
+        <v>27442843.80798005</v>
       </c>
       <c r="O18" t="n">
-        <v>28456234.78553616</v>
+        <v>28003672.71571072</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02244389027431421</v>
+        <v>0.4089775561097257</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.369077306733167</v>
+        <v>7.184538653366584</v>
       </c>
       <c r="R18" t="n">
-        <v>45666630.67331671</v>
+        <v>48041081.46882793</v>
       </c>
       <c r="S18" t="n">
-        <v>282227868.648379</v>
+        <v>273116815.40399</v>
       </c>
     </row>
     <row r="19">
@@ -1471,58 +1471,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9846816.75</v>
+        <v>10734282.97755611</v>
       </c>
       <c r="C19" t="n">
-        <v>36744.125</v>
+        <v>8716.501246882794</v>
       </c>
       <c r="D19" t="n">
-        <v>115666670.375</v>
+        <v>118276149.9351621</v>
       </c>
       <c r="E19" t="n">
-        <v>211897120.375</v>
+        <v>233827191.1920199</v>
       </c>
       <c r="F19" t="n">
-        <v>249823.375</v>
+        <v>232209.421446384</v>
       </c>
       <c r="G19" t="n">
-        <v>365286.5</v>
+        <v>320698.8204488778</v>
       </c>
       <c r="H19" t="n">
-        <v>1242080.75</v>
+        <v>1252937.319201995</v>
       </c>
       <c r="I19" t="n">
-        <v>1024065.375</v>
+        <v>2774996.044887781</v>
       </c>
       <c r="J19" t="n">
-        <v>569510.625</v>
+        <v>2094196.588528678</v>
       </c>
       <c r="K19" t="n">
-        <v>831678.125</v>
+        <v>2253820.635910225</v>
       </c>
       <c r="L19" t="n">
-        <v>126977.125</v>
+        <v>142523.5885286783</v>
       </c>
       <c r="M19" t="n">
-        <v>16339</v>
+        <v>9603.26433915212</v>
       </c>
       <c r="N19" t="n">
-        <v>12239071.75</v>
+        <v>13066946.83541147</v>
       </c>
       <c r="O19" t="n">
-        <v>13402186.125</v>
+        <v>13600704.23690773</v>
       </c>
       <c r="P19" t="n">
-        <v>5.625</v>
+        <v>0.6982543640897756</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.75</v>
+        <v>4.917705735660848</v>
       </c>
       <c r="R19" t="n">
-        <v>39938589</v>
+        <v>43286052.26683292</v>
       </c>
       <c r="S19" t="n">
-        <v>312684958.375</v>
+        <v>298111737.2244389</v>
       </c>
     </row>
     <row r="20">
@@ -1530,58 +1530,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8104147.384615385</v>
+        <v>8462033.83042394</v>
       </c>
       <c r="C20" t="n">
-        <v>10873.53846153846</v>
+        <v>1727.351620947631</v>
       </c>
       <c r="D20" t="n">
-        <v>116844590.6923077</v>
+        <v>118277921.9750623</v>
       </c>
       <c r="E20" t="n">
-        <v>205189964.0769231</v>
+        <v>219626100</v>
       </c>
       <c r="F20" t="n">
-        <v>101192.6153846154</v>
+        <v>100855.3216957606</v>
       </c>
       <c r="G20" t="n">
-        <v>196020.0769230769</v>
+        <v>217328.7630922693</v>
       </c>
       <c r="H20" t="n">
-        <v>2782.230769230769</v>
+        <v>2573.361596009975</v>
       </c>
       <c r="I20" t="n">
-        <v>319665.6923076923</v>
+        <v>340127.7381546135</v>
       </c>
       <c r="J20" t="n">
-        <v>12739.84615384615</v>
+        <v>17875.50374064838</v>
       </c>
       <c r="K20" t="n">
-        <v>19687.84615384615</v>
+        <v>23074.01246882793</v>
       </c>
       <c r="L20" t="n">
-        <v>91511.84615384616</v>
+        <v>199172.0748129676</v>
       </c>
       <c r="M20" t="n">
-        <v>5941.923076923077</v>
+        <v>8740.541147132169</v>
       </c>
       <c r="N20" t="n">
-        <v>12331339.15384615</v>
+        <v>13041472.90274314</v>
       </c>
       <c r="O20" t="n">
-        <v>14182709</v>
+        <v>13582051.54613466</v>
       </c>
       <c r="P20" t="n">
-        <v>13.84615384615385</v>
+        <v>49.8354114713217</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.6923076923077</v>
+        <v>4.211970074812967</v>
       </c>
       <c r="R20" t="n">
-        <v>45669513.23076923</v>
+        <v>44635274.42643391</v>
       </c>
       <c r="S20" t="n">
-        <v>302846226.3076923</v>
+        <v>302761883.6932668</v>
       </c>
     </row>
     <row r="21">
@@ -1589,58 +1589,117 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10554336</v>
+        <v>12558386.88157895</v>
       </c>
       <c r="C21" t="n">
-        <v>50485</v>
+        <v>3356.763157894737</v>
       </c>
       <c r="D21" t="n">
-        <v>116824655</v>
+        <v>117698656.7236842</v>
       </c>
       <c r="E21" t="n">
-        <v>173506624</v>
+        <v>211301303.5</v>
       </c>
       <c r="F21" t="n">
-        <v>25591</v>
+        <v>1049.342105263158</v>
       </c>
       <c r="G21" t="n">
-        <v>99223</v>
+        <v>90100.51315789473</v>
       </c>
       <c r="H21" t="n">
-        <v>2818</v>
+        <v>2620.473684210526</v>
       </c>
       <c r="I21" t="n">
-        <v>481502</v>
+        <v>577211.8421052631</v>
       </c>
       <c r="J21" t="n">
-        <v>414663</v>
+        <v>506086.6184210526</v>
       </c>
       <c r="K21" t="n">
-        <v>468218</v>
+        <v>572523.3947368421</v>
       </c>
       <c r="L21" t="n">
-        <v>2295</v>
+        <v>2277.644736842105</v>
       </c>
       <c r="M21" t="n">
-        <v>25161</v>
+        <v>18525.75</v>
       </c>
       <c r="N21" t="n">
-        <v>10996997</v>
+        <v>13501904.69736842</v>
       </c>
       <c r="O21" t="n">
-        <v>10948789</v>
+        <v>13666673.97368421</v>
       </c>
       <c r="P21" t="n">
-        <v>9</v>
+        <v>11.72368421052632</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>43827776</v>
+        <v>45319679.56578948</v>
       </c>
       <c r="S21" t="n">
-        <v>282842502</v>
+        <v>290882165.0131579</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50327962.66666666</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23551</v>
+      </c>
+      <c r="D22" t="n">
+        <v>117375230.4444444</v>
+      </c>
+      <c r="E22" t="n">
+        <v>341439657.2222222</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8866</v>
+      </c>
+      <c r="G22" t="n">
+        <v>395210.8888888889</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2679.666666666667</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4390625.111111111</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4020644.888888889</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4233343.111111111</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10071.33333333333</v>
+      </c>
+      <c r="M22" t="n">
+        <v>29671.44444444445</v>
+      </c>
+      <c r="N22" t="n">
+        <v>35919708.22222222</v>
+      </c>
+      <c r="O22" t="n">
+        <v>37535976.66666666</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>10083959.11111111</v>
+      </c>
+      <c r="S22" t="n">
+        <v>390445369</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/counters_means.xlsx
+++ b/code/results/signal_reconstruction/counters_means.xlsx
@@ -468,58 +468,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49179366.48628429</v>
+        <v>41084125.00244499</v>
       </c>
       <c r="C2" t="n">
-        <v>19859.52618453865</v>
+        <v>24526.85574572127</v>
       </c>
       <c r="D2" t="n">
-        <v>118079921.0399002</v>
+        <v>117942127.6308068</v>
       </c>
       <c r="E2" t="n">
-        <v>308159016.4189526</v>
+        <v>257622639.2591687</v>
       </c>
       <c r="F2" t="n">
-        <v>472315.0872817955</v>
+        <v>562565.053789731</v>
       </c>
       <c r="G2" t="n">
-        <v>4569388.324189526</v>
+        <v>4070361.383863081</v>
       </c>
       <c r="H2" t="n">
-        <v>2731.84289276808</v>
+        <v>2858.168704156479</v>
       </c>
       <c r="I2" t="n">
-        <v>8947340.793017456</v>
+        <v>7476180.789731052</v>
       </c>
       <c r="J2" t="n">
-        <v>4161379.885286783</v>
+        <v>3264179.733496333</v>
       </c>
       <c r="K2" t="n">
-        <v>7583018.713216958</v>
+        <v>6190623.787286064</v>
       </c>
       <c r="L2" t="n">
-        <v>106643.4513715711</v>
+        <v>103942.8875305624</v>
       </c>
       <c r="M2" t="n">
-        <v>18919.81795511222</v>
+        <v>26691.64547677262</v>
       </c>
       <c r="N2" t="n">
-        <v>35257241.39401496</v>
+        <v>29404225.41075795</v>
       </c>
       <c r="O2" t="n">
-        <v>35840292.83541147</v>
+        <v>29960700.48166259</v>
       </c>
       <c r="P2" t="n">
-        <v>2.860349127182045</v>
+        <v>6.577017114914425</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.4788029925187</v>
+        <v>209.4278728606357</v>
       </c>
       <c r="R2" t="n">
-        <v>14816675.09226933</v>
+        <v>28585163.22249389</v>
       </c>
       <c r="S2" t="n">
-        <v>357879965.2169576</v>
+        <v>304260028.8166259</v>
       </c>
     </row>
     <row r="3">
@@ -527,58 +527,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49006650.09975062</v>
+        <v>36191032.84068628</v>
       </c>
       <c r="C3" t="n">
-        <v>19787.20947630923</v>
+        <v>22930.54656862745</v>
       </c>
       <c r="D3" t="n">
-        <v>118088672.9301746</v>
+        <v>117886612.8578431</v>
       </c>
       <c r="E3" t="n">
-        <v>307002224.0573566</v>
+        <v>222352906.9852941</v>
       </c>
       <c r="F3" t="n">
-        <v>472110.0997506235</v>
+        <v>586646.8039215687</v>
       </c>
       <c r="G3" t="n">
-        <v>4515416.605985037</v>
+        <v>3692899.713235294</v>
       </c>
       <c r="H3" t="n">
-        <v>2730.583541147132</v>
+        <v>2852.948529411765</v>
       </c>
       <c r="I3" t="n">
-        <v>8909749.531172071</v>
+        <v>6489906.375</v>
       </c>
       <c r="J3" t="n">
-        <v>4183984.650872818</v>
+        <v>2675526.727941176</v>
       </c>
       <c r="K3" t="n">
-        <v>7553648.768079801</v>
+        <v>5317231.720588235</v>
       </c>
       <c r="L3" t="n">
-        <v>106755.7281795511</v>
+        <v>106850.056372549</v>
       </c>
       <c r="M3" t="n">
-        <v>18673.74563591023</v>
+        <v>21582.89950980392</v>
       </c>
       <c r="N3" t="n">
-        <v>35101657.29426434</v>
+        <v>25414378.44852941</v>
       </c>
       <c r="O3" t="n">
-        <v>35689449.05735661</v>
+        <v>19496251.95343137</v>
       </c>
       <c r="P3" t="n">
-        <v>2.339152119700748</v>
+        <v>1.816176470588235</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.336658354114713</v>
+        <v>419.1617647058824</v>
       </c>
       <c r="R3" t="n">
-        <v>15136211.6882793</v>
+        <v>41688990.43872549</v>
       </c>
       <c r="S3" t="n">
-        <v>356556046.9850374</v>
+        <v>269994826.9387255</v>
       </c>
     </row>
     <row r="4">
@@ -586,58 +586,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10599158.93266833</v>
+        <v>9893901.232273839</v>
       </c>
       <c r="C4" t="n">
-        <v>6843.361596009975</v>
+        <v>8889.718826405868</v>
       </c>
       <c r="D4" t="n">
-        <v>118075748.8753117</v>
+        <v>117962516.596577</v>
       </c>
       <c r="E4" t="n">
-        <v>281214273.7157107</v>
+        <v>255004500.2738386</v>
       </c>
       <c r="F4" t="n">
-        <v>307115.7082294264</v>
+        <v>360907.8239608802</v>
       </c>
       <c r="G4" t="n">
-        <v>1338919.912718205</v>
+        <v>1463001.564792176</v>
       </c>
       <c r="H4" t="n">
-        <v>3259005.780548628</v>
+        <v>3237760.95599022</v>
       </c>
       <c r="I4" t="n">
-        <v>6146375.910224439</v>
+        <v>5450131.721271394</v>
       </c>
       <c r="J4" t="n">
-        <v>4502666.349127182</v>
+        <v>3750556.378973105</v>
       </c>
       <c r="K4" t="n">
-        <v>5293671.007481297</v>
+        <v>4612594.430317848</v>
       </c>
       <c r="L4" t="n">
-        <v>439493.9376558603</v>
+        <v>455715.1344743276</v>
       </c>
       <c r="M4" t="n">
-        <v>18203.15211970075</v>
+        <v>22417.38141809291</v>
       </c>
       <c r="N4" t="n">
-        <v>13876926.76558604</v>
+        <v>13042684.799511</v>
       </c>
       <c r="O4" t="n">
-        <v>15033018.2319202</v>
+        <v>14163967.02444988</v>
       </c>
       <c r="P4" t="n">
-        <v>2.009975062344139</v>
+        <v>3.469437652811736</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.24688279301746</v>
+        <v>1017.403422982885</v>
       </c>
       <c r="R4" t="n">
-        <v>32076227.54114713</v>
+        <v>36448321.2787286</v>
       </c>
       <c r="S4" t="n">
-        <v>349292228.0374065</v>
+        <v>319542177.8997555</v>
       </c>
     </row>
     <row r="5">
@@ -645,58 +645,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10576389.3915212</v>
+        <v>9672986.55012225</v>
       </c>
       <c r="C5" t="n">
-        <v>6940.940149625935</v>
+        <v>8989.508557457213</v>
       </c>
       <c r="D5" t="n">
-        <v>118071368.4389027</v>
+        <v>117879769.5012225</v>
       </c>
       <c r="E5" t="n">
-        <v>280551152.59601</v>
+        <v>251670002.2396088</v>
       </c>
       <c r="F5" t="n">
-        <v>308709.3391521197</v>
+        <v>358729.5794621027</v>
       </c>
       <c r="G5" t="n">
-        <v>1344038.321695761</v>
+        <v>1443088.173594132</v>
       </c>
       <c r="H5" t="n">
-        <v>3280404.251870324</v>
+        <v>3283980.464547677</v>
       </c>
       <c r="I5" t="n">
-        <v>6156724.95511222</v>
+        <v>5347477.865525672</v>
       </c>
       <c r="J5" t="n">
-        <v>4511573.720698254</v>
+        <v>3657949.584352078</v>
       </c>
       <c r="K5" t="n">
-        <v>5302928.96009975</v>
+        <v>4518560.919315403</v>
       </c>
       <c r="L5" t="n">
-        <v>441406.6109725686</v>
+        <v>455052.9633251834</v>
       </c>
       <c r="M5" t="n">
-        <v>20306.23690773067</v>
+        <v>22719.8728606357</v>
       </c>
       <c r="N5" t="n">
-        <v>13885757.22693267</v>
+        <v>12992950.38875306</v>
       </c>
       <c r="O5" t="n">
-        <v>15035909.42394015</v>
+        <v>14061394.73105134</v>
       </c>
       <c r="P5" t="n">
-        <v>3.882793017456359</v>
+        <v>6.366748166259169</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.65336658354115</v>
+        <v>1007.550122249389</v>
       </c>
       <c r="R5" t="n">
-        <v>32189625.96009975</v>
+        <v>36282259.80929095</v>
       </c>
       <c r="S5" t="n">
-        <v>349138127.5062344</v>
+        <v>318281824.0097799</v>
       </c>
     </row>
     <row r="6">
@@ -704,58 +704,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4245077.578553616</v>
+        <v>3885758.997555012</v>
       </c>
       <c r="C6" t="n">
-        <v>10760.43640897756</v>
+        <v>10150.00488997555</v>
       </c>
       <c r="D6" t="n">
-        <v>118081928.5935162</v>
+        <v>117714639.0146699</v>
       </c>
       <c r="E6" t="n">
-        <v>291079109.9276808</v>
+        <v>266648140.0635697</v>
       </c>
       <c r="F6" t="n">
-        <v>234240.9576059851</v>
+        <v>267043.8973105134</v>
       </c>
       <c r="G6" t="n">
-        <v>1271552.683291771</v>
+        <v>1406987.376528117</v>
       </c>
       <c r="H6" t="n">
-        <v>22774894.90773067</v>
+        <v>20826250.33496333</v>
       </c>
       <c r="I6" t="n">
-        <v>5827165.975062344</v>
+        <v>5339677.249388753</v>
       </c>
       <c r="J6" t="n">
-        <v>4523811.581047381</v>
+        <v>3896686.562347188</v>
       </c>
       <c r="K6" t="n">
-        <v>5555778.017456359</v>
+        <v>5004292.584352078</v>
       </c>
       <c r="L6" t="n">
-        <v>106976.5635910224</v>
+        <v>104893.5819070905</v>
       </c>
       <c r="M6" t="n">
-        <v>19183.37157107232</v>
+        <v>22124.55990220049</v>
       </c>
       <c r="N6" t="n">
-        <v>20711701.3117207</v>
+        <v>18951969.24449878</v>
       </c>
       <c r="O6" t="n">
-        <v>21245115.51371571</v>
+        <v>19465605.93887531</v>
       </c>
       <c r="P6" t="n">
-        <v>1.840399002493766</v>
+        <v>0.3960880195599022</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.266832917705735</v>
+        <v>202.7041564792176</v>
       </c>
       <c r="R6" t="n">
-        <v>35214401.03241895</v>
+        <v>38837345.07334963</v>
       </c>
       <c r="S6" t="n">
-        <v>325379457.7406484</v>
+        <v>300930763.8630807</v>
       </c>
     </row>
     <row r="7">
@@ -763,58 +763,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4247198.087281795</v>
+        <v>4120313.009803921</v>
       </c>
       <c r="C7" t="n">
-        <v>10723.88528678304</v>
+        <v>10620.32598039216</v>
       </c>
       <c r="D7" t="n">
-        <v>118106819.8304239</v>
+        <v>118023195.4926471</v>
       </c>
       <c r="E7" t="n">
-        <v>291319309.2668329</v>
+        <v>281937652.8872549</v>
       </c>
       <c r="F7" t="n">
-        <v>234683.3990024938</v>
+        <v>246531.919117647</v>
       </c>
       <c r="G7" t="n">
-        <v>1289582.952618454</v>
+        <v>1284230.433823529</v>
       </c>
       <c r="H7" t="n">
-        <v>22793125.81795511</v>
+        <v>22048449.53186275</v>
       </c>
       <c r="I7" t="n">
-        <v>5821460.783042394</v>
+        <v>5642127.919117647</v>
       </c>
       <c r="J7" t="n">
-        <v>4496518.768079801</v>
+        <v>4324179.416666667</v>
       </c>
       <c r="K7" t="n">
-        <v>5539182.720698254</v>
+        <v>5362511.68627451</v>
       </c>
       <c r="L7" t="n">
-        <v>106425.1895261845</v>
+        <v>104355.9387254902</v>
       </c>
       <c r="M7" t="n">
-        <v>17559.87032418953</v>
+        <v>19202.99264705883</v>
       </c>
       <c r="N7" t="n">
-        <v>20715996.48379052</v>
+        <v>20054333.89705882</v>
       </c>
       <c r="O7" t="n">
-        <v>21249041.16957606</v>
+        <v>20614395.90196078</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1571072319201995</v>
+        <v>1.198529411764706</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.468827930174563</v>
+        <v>272.2892156862745</v>
       </c>
       <c r="R7" t="n">
-        <v>35182797.7605985</v>
+        <v>36347068.43627451</v>
       </c>
       <c r="S7" t="n">
-        <v>325456551.4538653</v>
+        <v>319247634.7892157</v>
       </c>
     </row>
     <row r="8">
@@ -822,58 +822,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13036338.38653367</v>
+        <v>12000336.27383863</v>
       </c>
       <c r="C8" t="n">
-        <v>9944.481296758106</v>
+        <v>10861.76528117359</v>
       </c>
       <c r="D8" t="n">
-        <v>118055107.1820449</v>
+        <v>117868605.5867971</v>
       </c>
       <c r="E8" t="n">
-        <v>246365522.5361596</v>
+        <v>216034020.4743276</v>
       </c>
       <c r="F8" t="n">
-        <v>336270.8703241895</v>
+        <v>414320.4205378973</v>
       </c>
       <c r="G8" t="n">
-        <v>1657322.867830424</v>
+        <v>1712226.281173594</v>
       </c>
       <c r="H8" t="n">
-        <v>5695584.613466335</v>
+        <v>5020867.767726162</v>
       </c>
       <c r="I8" t="n">
-        <v>4803462.054862843</v>
+        <v>4199207.486552567</v>
       </c>
       <c r="J8" t="n">
-        <v>2517559.27680798</v>
+        <v>1963069.936430318</v>
       </c>
       <c r="K8" t="n">
-        <v>3559496.566084788</v>
+        <v>3035865.870415648</v>
       </c>
       <c r="L8" t="n">
-        <v>369768.5236907731</v>
+        <v>366502.6112469438</v>
       </c>
       <c r="M8" t="n">
-        <v>17946.99251870324</v>
+        <v>23689.59657701711</v>
       </c>
       <c r="N8" t="n">
-        <v>33228311.61346633</v>
+        <v>29072493.80929095</v>
       </c>
       <c r="O8" t="n">
-        <v>33794856.45885286</v>
+        <v>28129100.56723716</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6733167082294265</v>
+        <v>2.124694376528117</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.234413965087282</v>
+        <v>208.7652811735941</v>
       </c>
       <c r="R8" t="n">
-        <v>40224888.11221945</v>
+        <v>43465310.05378973</v>
       </c>
       <c r="S8" t="n">
-        <v>313225423.0798005</v>
+        <v>287007217.0782396</v>
       </c>
     </row>
     <row r="9">
@@ -881,58 +881,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12977273.31920199</v>
+        <v>10459727.70415648</v>
       </c>
       <c r="C9" t="n">
-        <v>9938.915211970076</v>
+        <v>9460.398533007336</v>
       </c>
       <c r="D9" t="n">
-        <v>118035702.6683292</v>
+        <v>117853749.5525672</v>
       </c>
       <c r="E9" t="n">
-        <v>245966757.5286783</v>
+        <v>197070523.1418093</v>
       </c>
       <c r="F9" t="n">
-        <v>335769.1720698255</v>
+        <v>429544.3569682151</v>
       </c>
       <c r="G9" t="n">
-        <v>1675289.95511222</v>
+        <v>1750697.650366748</v>
       </c>
       <c r="H9" t="n">
-        <v>5685789.159600997</v>
+        <v>4521270.95599022</v>
       </c>
       <c r="I9" t="n">
-        <v>4799092.017456359</v>
+        <v>3869930.141809291</v>
       </c>
       <c r="J9" t="n">
-        <v>2503131.426433915</v>
+        <v>1692698.466992665</v>
       </c>
       <c r="K9" t="n">
-        <v>3551040.827930175</v>
+        <v>2786271.168704156</v>
       </c>
       <c r="L9" t="n">
-        <v>370143.0872817955</v>
+        <v>383918.0806845966</v>
       </c>
       <c r="M9" t="n">
-        <v>18439.18952618454</v>
+        <v>25657.79706601467</v>
       </c>
       <c r="N9" t="n">
-        <v>33168454.5361596</v>
+        <v>26530131.35207824</v>
       </c>
       <c r="O9" t="n">
-        <v>33766216.4563591</v>
+        <v>24927648.07334963</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4488778054862843</v>
+        <v>3.662591687041565</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.571072319201995</v>
+        <v>195.3276283618582</v>
       </c>
       <c r="R9" t="n">
-        <v>40378074.7531172</v>
+        <v>51389778.5794621</v>
       </c>
       <c r="S9" t="n">
-        <v>312810463.4713217</v>
+        <v>255718431.3374083</v>
       </c>
     </row>
     <row r="10">
@@ -940,58 +940,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11730689.87281796</v>
+        <v>9519738.225490196</v>
       </c>
       <c r="C10" t="n">
-        <v>9545.241895261845</v>
+        <v>9469.389705882353</v>
       </c>
       <c r="D10" t="n">
-        <v>118032469.7456359</v>
+        <v>117601884.879902</v>
       </c>
       <c r="E10" t="n">
-        <v>224741200.5735661</v>
+        <v>178887421.245098</v>
       </c>
       <c r="F10" t="n">
-        <v>468499.0748129676</v>
+        <v>590817.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1956318.872817955</v>
+        <v>1924707.708333333</v>
       </c>
       <c r="H10" t="n">
-        <v>4953050.610972568</v>
+        <v>4064783.458333333</v>
       </c>
       <c r="I10" t="n">
-        <v>9961678.82543641</v>
+        <v>7920866.107843137</v>
       </c>
       <c r="J10" t="n">
-        <v>7037784.755610973</v>
+        <v>5279405.367647059</v>
       </c>
       <c r="K10" t="n">
-        <v>8308110.234413965</v>
+        <v>6464949.080882353</v>
       </c>
       <c r="L10" t="n">
-        <v>527097.0498753117</v>
+        <v>490217.2745098039</v>
       </c>
       <c r="M10" t="n">
-        <v>19318.09975062344</v>
+        <v>25439.73039215686</v>
       </c>
       <c r="N10" t="n">
-        <v>31427913.88778055</v>
+        <v>24771493.8504902</v>
       </c>
       <c r="O10" t="n">
-        <v>31881129.50872818</v>
+        <v>20709504.72303922</v>
       </c>
       <c r="P10" t="n">
-        <v>1.997506234413965</v>
+        <v>5.198529411764706</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.66084788029925</v>
+        <v>125.1421568627451</v>
       </c>
       <c r="R10" t="n">
-        <v>46402475.7680798</v>
+        <v>56174057.25735294</v>
       </c>
       <c r="S10" t="n">
-        <v>294275490.5461347</v>
+        <v>241384609.3333333</v>
       </c>
     </row>
     <row r="11">
@@ -999,58 +999,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11527982.85785536</v>
+        <v>10120486.82396088</v>
       </c>
       <c r="C11" t="n">
-        <v>9524.306733167083</v>
+        <v>9824.946210268949</v>
       </c>
       <c r="D11" t="n">
-        <v>118041461.8802993</v>
+        <v>117822492.0244499</v>
       </c>
       <c r="E11" t="n">
-        <v>224391322.0024938</v>
+        <v>192622112.7066015</v>
       </c>
       <c r="F11" t="n">
-        <v>465555.5162094763</v>
+        <v>580169.7872860635</v>
       </c>
       <c r="G11" t="n">
-        <v>1942385.625935162</v>
+        <v>1992467.69193154</v>
       </c>
       <c r="H11" t="n">
-        <v>4944907.678304239</v>
+        <v>4349695.105134474</v>
       </c>
       <c r="I11" t="n">
-        <v>9925334.857855361</v>
+        <v>8507586.058679707</v>
       </c>
       <c r="J11" t="n">
-        <v>7027731.528678305</v>
+        <v>5747341.973105134</v>
       </c>
       <c r="K11" t="n">
-        <v>8265817.526184538</v>
+        <v>6994478.872860636</v>
       </c>
       <c r="L11" t="n">
-        <v>541203.1596009975</v>
+        <v>509671.804400978</v>
       </c>
       <c r="M11" t="n">
-        <v>18471.76309226933</v>
+        <v>23948.27628361858</v>
       </c>
       <c r="N11" t="n">
-        <v>31208654.5361596</v>
+        <v>26663915.65036675</v>
       </c>
       <c r="O11" t="n">
-        <v>31846755.36159601</v>
+        <v>27186595.75794621</v>
       </c>
       <c r="P11" t="n">
-        <v>1.952618453865337</v>
+        <v>1.320293398533007</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.635910224438902</v>
+        <v>159.4987775061125</v>
       </c>
       <c r="R11" t="n">
-        <v>46751987.42643391</v>
+        <v>52416025.19070905</v>
       </c>
       <c r="S11" t="n">
-        <v>292467197.6134663</v>
+        <v>257672078.5550122</v>
       </c>
     </row>
     <row r="12">
@@ -1058,58 +1058,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10529984.71072319</v>
+        <v>9312186.646341464</v>
       </c>
       <c r="C12" t="n">
-        <v>10628.88029925187</v>
+        <v>11010.06097560976</v>
       </c>
       <c r="D12" t="n">
-        <v>118039409.563591</v>
+        <v>117790726.6878049</v>
       </c>
       <c r="E12" t="n">
-        <v>215893805.1920199</v>
+        <v>192441832.4439024</v>
       </c>
       <c r="F12" t="n">
-        <v>425717.9152119701</v>
+        <v>529341.8219512195</v>
       </c>
       <c r="G12" t="n">
-        <v>1732052.571072319</v>
+        <v>1838830.065853659</v>
       </c>
       <c r="H12" t="n">
-        <v>5680280.690773067</v>
+        <v>5152764.946341463</v>
       </c>
       <c r="I12" t="n">
-        <v>8935376.219451372</v>
+        <v>7931588.419512196</v>
       </c>
       <c r="J12" t="n">
-        <v>6350220.037406484</v>
+        <v>5396890.934146342</v>
       </c>
       <c r="K12" t="n">
-        <v>7444064.897755611</v>
+        <v>6554872.636585366</v>
       </c>
       <c r="L12" t="n">
-        <v>481521.8104738155</v>
+        <v>475501.1024390244</v>
       </c>
       <c r="M12" t="n">
-        <v>19448.32668329177</v>
+        <v>25290.12926829268</v>
       </c>
       <c r="N12" t="n">
-        <v>26884288.06733167</v>
+        <v>23912822.72926829</v>
       </c>
       <c r="O12" t="n">
-        <v>27466882.94014963</v>
+        <v>21630112.2902439</v>
       </c>
       <c r="P12" t="n">
-        <v>1.827930174563591</v>
+        <v>7.88780487804878</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.93765586034913</v>
+        <v>179.8073170731707</v>
       </c>
       <c r="R12" t="n">
-        <v>47723129.34663342</v>
+        <v>51122507.65853658</v>
       </c>
       <c r="S12" t="n">
-        <v>279088410.9850374</v>
+        <v>254630609.3512195</v>
       </c>
     </row>
     <row r="13">
@@ -1117,58 +1117,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10545518.91022444</v>
+        <v>8566235.68215159</v>
       </c>
       <c r="C13" t="n">
-        <v>10464.86034912718</v>
+        <v>10106.03178484108</v>
       </c>
       <c r="D13" t="n">
-        <v>118087151.5187032</v>
+        <v>117776698.0440098</v>
       </c>
       <c r="E13" t="n">
-        <v>216329198.0972569</v>
+        <v>173138410.3129584</v>
       </c>
       <c r="F13" t="n">
-        <v>423024.7630922693</v>
+        <v>530866.7799511002</v>
       </c>
       <c r="G13" t="n">
-        <v>1707009.289276808</v>
+        <v>1774094.701711491</v>
       </c>
       <c r="H13" t="n">
-        <v>5686322.526184538</v>
+        <v>4386720.403422982</v>
       </c>
       <c r="I13" t="n">
-        <v>8948525.009975063</v>
+        <v>7193067.127139364</v>
       </c>
       <c r="J13" t="n">
-        <v>6383369.895261846</v>
+        <v>4790989.334963325</v>
       </c>
       <c r="K13" t="n">
-        <v>7459551.950124688</v>
+        <v>5911921.276283619</v>
       </c>
       <c r="L13" t="n">
-        <v>479968.5211970075</v>
+        <v>466803.8606356968</v>
       </c>
       <c r="M13" t="n">
-        <v>19550.25436408977</v>
+        <v>23035.76528117359</v>
       </c>
       <c r="N13" t="n">
-        <v>26954934.3915212</v>
+        <v>21750470.64792176</v>
       </c>
       <c r="O13" t="n">
-        <v>27517665.72319202</v>
+        <v>23921898.47677262</v>
       </c>
       <c r="P13" t="n">
-        <v>1.576059850374065</v>
+        <v>2.711491442542787</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.21945137157107</v>
+        <v>157.0195599022005</v>
       </c>
       <c r="R13" t="n">
-        <v>47621297.18204489</v>
+        <v>56717340.88997555</v>
       </c>
       <c r="S13" t="n">
-        <v>279444610.7805486</v>
+        <v>233380166.4498777</v>
       </c>
     </row>
     <row r="14">
@@ -1176,58 +1176,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10554631.18461538</v>
+        <v>9934086.846938776</v>
       </c>
       <c r="C14" t="n">
-        <v>6824.926923076923</v>
+        <v>9533.615646258504</v>
       </c>
       <c r="D14" t="n">
-        <v>118078097.2615385</v>
+        <v>121099980.1428571</v>
       </c>
       <c r="E14" t="n">
-        <v>275268798.5576923</v>
+        <v>249395045.2176871</v>
       </c>
       <c r="F14" t="n">
-        <v>432951.1884615385</v>
+        <v>466341.3163265306</v>
       </c>
       <c r="G14" t="n">
-        <v>1574352.980769231</v>
+        <v>1565117.81292517</v>
       </c>
       <c r="H14" t="n">
-        <v>2318127.538461538</v>
+        <v>2153786.857142857</v>
       </c>
       <c r="I14" t="n">
-        <v>6497664.915384616</v>
+        <v>5658979.244897959</v>
       </c>
       <c r="J14" t="n">
-        <v>4661414.853846154</v>
+        <v>3937174.744897959</v>
       </c>
       <c r="K14" t="n">
-        <v>5595447.534615384</v>
+        <v>4903503.846938776</v>
       </c>
       <c r="L14" t="n">
-        <v>516561.2461538462</v>
+        <v>479552.4591836735</v>
       </c>
       <c r="M14" t="n">
-        <v>20637.51153846154</v>
+        <v>27797.06462585034</v>
       </c>
       <c r="N14" t="n">
-        <v>13373689.36923077</v>
+        <v>12292988.53061225</v>
       </c>
       <c r="O14" t="n">
-        <v>15122932.28846154</v>
+        <v>13979403.18707483</v>
       </c>
       <c r="P14" t="n">
-        <v>4.557692307692307</v>
+        <v>7.608843537414966</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.06153846153846</v>
+        <v>1449.278911564626</v>
       </c>
       <c r="R14" t="n">
-        <v>32793234.63461538</v>
+        <v>37559552.28911564</v>
       </c>
       <c r="S14" t="n">
-        <v>343573723.1538461</v>
+        <v>312057603.4081632</v>
       </c>
     </row>
     <row r="15">
@@ -1235,58 +1235,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10526722.97307692</v>
+        <v>9406328.908474576</v>
       </c>
       <c r="C15" t="n">
-        <v>6833</v>
+        <v>9277.030508474576</v>
       </c>
       <c r="D15" t="n">
-        <v>118012886.15</v>
+        <v>117786782.4813559</v>
       </c>
       <c r="E15" t="n">
-        <v>275303720.7538462</v>
+        <v>243799573.5525424</v>
       </c>
       <c r="F15" t="n">
-        <v>432077.7192307692</v>
+        <v>456496.7423728813</v>
       </c>
       <c r="G15" t="n">
-        <v>1550473.188461538</v>
+        <v>1526464.420338983</v>
       </c>
       <c r="H15" t="n">
-        <v>2340028.815384615</v>
+        <v>1992758.972881356</v>
       </c>
       <c r="I15" t="n">
-        <v>6494166.242307693</v>
+        <v>5653975.393220339</v>
       </c>
       <c r="J15" t="n">
-        <v>4690495.796153846</v>
+        <v>4039065.244067797</v>
       </c>
       <c r="K15" t="n">
-        <v>5617281.596153846</v>
+        <v>5000160.786440678</v>
       </c>
       <c r="L15" t="n">
-        <v>519225.8192307692</v>
+        <v>524097.772881356</v>
       </c>
       <c r="M15" t="n">
-        <v>20663.55384615385</v>
+        <v>24255.01016949152</v>
       </c>
       <c r="N15" t="n">
-        <v>13429115.74230769</v>
+        <v>12401805.98983051</v>
       </c>
       <c r="O15" t="n">
-        <v>15174667.49230769</v>
+        <v>12930694.65762712</v>
       </c>
       <c r="P15" t="n">
-        <v>3.861538461538462</v>
+        <v>4.796610169491525</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.42692307692307</v>
+        <v>1432.522033898305</v>
       </c>
       <c r="R15" t="n">
-        <v>32698023.63076923</v>
+        <v>37611314.71525424</v>
       </c>
       <c r="S15" t="n">
-        <v>343482668.8461539</v>
+        <v>310749847.8305085</v>
       </c>
     </row>
     <row r="16">
@@ -1294,58 +1294,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13214917.28428928</v>
+        <v>10612741.29411765</v>
       </c>
       <c r="C16" t="n">
-        <v>9519.15710723192</v>
+        <v>9114.495098039215</v>
       </c>
       <c r="D16" t="n">
-        <v>118066475.638404</v>
+        <v>117826938.0808824</v>
       </c>
       <c r="E16" t="n">
-        <v>245505952.6857855</v>
+        <v>197533521.379902</v>
       </c>
       <c r="F16" t="n">
-        <v>327874.3316708229</v>
+        <v>419302.6225490196</v>
       </c>
       <c r="G16" t="n">
-        <v>1629358.703241895</v>
+        <v>1754335.397058824</v>
       </c>
       <c r="H16" t="n">
-        <v>5931600.957605985</v>
+        <v>4719849.174019608</v>
       </c>
       <c r="I16" t="n">
-        <v>4783524.980049876</v>
+        <v>3869050.821078431</v>
       </c>
       <c r="J16" t="n">
-        <v>2511640.620947631</v>
+        <v>1683358.823529412</v>
       </c>
       <c r="K16" t="n">
-        <v>3534488.029925187</v>
+        <v>2776615.700980392</v>
       </c>
       <c r="L16" t="n">
-        <v>392476.6284289277</v>
+        <v>409178.5245098039</v>
       </c>
       <c r="M16" t="n">
-        <v>18042.72069825436</v>
+        <v>23347.28431372549</v>
       </c>
       <c r="N16" t="n">
-        <v>32932126.67331671</v>
+        <v>26539864.1495098</v>
       </c>
       <c r="O16" t="n">
-        <v>33473503.72069826</v>
+        <v>27058096.03676471</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5187032418952618</v>
+        <v>0.9485294117647058</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.4139650872818</v>
+        <v>213.5294117647059</v>
       </c>
       <c r="R16" t="n">
-        <v>40142525.23441397</v>
+        <v>51209955.36764706</v>
       </c>
       <c r="S16" t="n">
-        <v>310792320.40399</v>
+        <v>253947458.4240196</v>
       </c>
     </row>
     <row r="17">
@@ -1353,58 +1353,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12228012.9925187</v>
+        <v>10684067.87560976</v>
       </c>
       <c r="C17" t="n">
-        <v>9996.638403990026</v>
+        <v>9732.441463414634</v>
       </c>
       <c r="D17" t="n">
-        <v>118100776.9376559</v>
+        <v>117601998.8365854</v>
       </c>
       <c r="E17" t="n">
-        <v>221814599.042394</v>
+        <v>196307258.7121951</v>
       </c>
       <c r="F17" t="n">
-        <v>465259.1720698255</v>
+        <v>576068.7024390243</v>
       </c>
       <c r="G17" t="n">
-        <v>1940050.897755611</v>
+        <v>2020248.119512195</v>
       </c>
       <c r="H17" t="n">
-        <v>5362199.319201995</v>
+        <v>4719063.043902439</v>
       </c>
       <c r="I17" t="n">
-        <v>10258876.57107232</v>
+        <v>9042278.792682927</v>
       </c>
       <c r="J17" t="n">
-        <v>7282661.506234414</v>
+        <v>6183302.226829268</v>
       </c>
       <c r="K17" t="n">
-        <v>8509778.518703243</v>
+        <v>7461862.3</v>
       </c>
       <c r="L17" t="n">
-        <v>533958.8578553617</v>
+        <v>542672.0268292683</v>
       </c>
       <c r="M17" t="n">
-        <v>25349.96758104738</v>
+        <v>22613.34146341464</v>
       </c>
       <c r="N17" t="n">
-        <v>30609360.2244389</v>
+        <v>26861268.55121951</v>
       </c>
       <c r="O17" t="n">
-        <v>31011446.76558603</v>
+        <v>27415425.06341463</v>
       </c>
       <c r="P17" t="n">
-        <v>1.885286783042394</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.967581047381546</v>
+        <v>120.5487804878049</v>
       </c>
       <c r="R17" t="n">
-        <v>46384288.56608479</v>
+        <v>50996660.85609756</v>
       </c>
       <c r="S17" t="n">
-        <v>290605725.7531172</v>
+        <v>260820055.2731707</v>
       </c>
     </row>
     <row r="18">
@@ -1412,58 +1412,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11262135.95012469</v>
+        <v>9074594.814180929</v>
       </c>
       <c r="C18" t="n">
-        <v>8521.895261845386</v>
+        <v>8352.711491442542</v>
       </c>
       <c r="D18" t="n">
-        <v>118066665.9276808</v>
+        <v>117994946.7188264</v>
       </c>
       <c r="E18" t="n">
-        <v>210622632.553616</v>
+        <v>169019563.2224939</v>
       </c>
       <c r="F18" t="n">
-        <v>444793.72319202</v>
+        <v>559530.9828850856</v>
       </c>
       <c r="G18" t="n">
-        <v>1707486.718204489</v>
+        <v>1787661.645476773</v>
       </c>
       <c r="H18" t="n">
-        <v>4716071.793017456</v>
+        <v>3783462.195599022</v>
       </c>
       <c r="I18" t="n">
-        <v>9134428.471321696</v>
+        <v>7353959.432762836</v>
       </c>
       <c r="J18" t="n">
-        <v>6481209.53117207</v>
+        <v>4885592.290953545</v>
       </c>
       <c r="K18" t="n">
-        <v>7528255.890274314</v>
+        <v>5980304.91198044</v>
       </c>
       <c r="L18" t="n">
-        <v>518519.5411471322</v>
+        <v>498069.7799511002</v>
       </c>
       <c r="M18" t="n">
-        <v>17291.15960099751</v>
+        <v>24476.16870415648</v>
       </c>
       <c r="N18" t="n">
-        <v>27442843.80798005</v>
+        <v>21979282.01711491</v>
       </c>
       <c r="O18" t="n">
-        <v>28003672.71571072</v>
+        <v>22570093.10268949</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4089775561097257</v>
+        <v>0.3740831295843521</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.184538653366584</v>
+        <v>222.0562347188264</v>
       </c>
       <c r="R18" t="n">
-        <v>48041081.46882793</v>
+        <v>57649126.89731051</v>
       </c>
       <c r="S18" t="n">
-        <v>273116815.40399</v>
+        <v>224216640.9266504</v>
       </c>
     </row>
     <row r="19">
@@ -1471,58 +1471,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10734282.97755611</v>
+        <v>10142938.25672372</v>
       </c>
       <c r="C19" t="n">
-        <v>8716.501246882794</v>
+        <v>11348.00244498777</v>
       </c>
       <c r="D19" t="n">
-        <v>118276149.9351621</v>
+        <v>117975124.7799511</v>
       </c>
       <c r="E19" t="n">
-        <v>233827191.1920199</v>
+        <v>219453149.8190709</v>
       </c>
       <c r="F19" t="n">
-        <v>232209.421446384</v>
+        <v>228788.4034229829</v>
       </c>
       <c r="G19" t="n">
-        <v>320698.8204488778</v>
+        <v>326250.2298288508</v>
       </c>
       <c r="H19" t="n">
-        <v>1252937.319201995</v>
+        <v>1181797.2200489</v>
       </c>
       <c r="I19" t="n">
-        <v>2774996.044887781</v>
+        <v>2559102.819070905</v>
       </c>
       <c r="J19" t="n">
-        <v>2094196.588528678</v>
+        <v>1910808.161369193</v>
       </c>
       <c r="K19" t="n">
-        <v>2253820.635910225</v>
+        <v>2072017.068459658</v>
       </c>
       <c r="L19" t="n">
-        <v>142523.5885286783</v>
+        <v>139361.4083129584</v>
       </c>
       <c r="M19" t="n">
-        <v>9603.26433915212</v>
+        <v>17768.89486552567</v>
       </c>
       <c r="N19" t="n">
-        <v>13066946.83541147</v>
+        <v>12318213.799511</v>
       </c>
       <c r="O19" t="n">
-        <v>13600704.23690773</v>
+        <v>12824372.41075795</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6982543640897756</v>
+        <v>0.980440097799511</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.917705735660848</v>
+        <v>134.7530562347188</v>
       </c>
       <c r="R19" t="n">
-        <v>43286052.26683292</v>
+        <v>43729840.64303178</v>
       </c>
       <c r="S19" t="n">
-        <v>298111737.2244389</v>
+        <v>286156285.2322738</v>
       </c>
     </row>
     <row r="20">
@@ -1530,58 +1530,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8462033.83042394</v>
+        <v>7942885.202439024</v>
       </c>
       <c r="C20" t="n">
-        <v>1727.351620947631</v>
+        <v>11927.96585365854</v>
       </c>
       <c r="D20" t="n">
-        <v>118277921.9750623</v>
+        <v>117662679.3097561</v>
       </c>
       <c r="E20" t="n">
-        <v>219626100</v>
+        <v>206176067.6951219</v>
       </c>
       <c r="F20" t="n">
-        <v>100855.3216957606</v>
+        <v>115007.2731707317</v>
       </c>
       <c r="G20" t="n">
-        <v>217328.7630922693</v>
+        <v>224288.6487804878</v>
       </c>
       <c r="H20" t="n">
-        <v>2573.361596009975</v>
+        <v>2850.165853658536</v>
       </c>
       <c r="I20" t="n">
-        <v>340127.7381546135</v>
+        <v>330910.3024390244</v>
       </c>
       <c r="J20" t="n">
-        <v>17875.50374064838</v>
+        <v>11240.23414634146</v>
       </c>
       <c r="K20" t="n">
-        <v>23074.01246882793</v>
+        <v>22306.98048780488</v>
       </c>
       <c r="L20" t="n">
-        <v>199172.0748129676</v>
+        <v>192682.2926829268</v>
       </c>
       <c r="M20" t="n">
-        <v>8740.541147132169</v>
+        <v>14416.75365853659</v>
       </c>
       <c r="N20" t="n">
-        <v>13041472.90274314</v>
+        <v>12246874.01463415</v>
       </c>
       <c r="O20" t="n">
-        <v>13582051.54613466</v>
+        <v>12756755.1</v>
       </c>
       <c r="P20" t="n">
-        <v>49.8354114713217</v>
+        <v>4.431707317073171</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.211970074812967</v>
+        <v>281.6390243902439</v>
       </c>
       <c r="R20" t="n">
-        <v>44635274.42643391</v>
+        <v>44350513.75853658</v>
       </c>
       <c r="S20" t="n">
-        <v>302761883.6932668</v>
+        <v>289860801.8</v>
       </c>
     </row>
     <row r="21">
@@ -1589,58 +1589,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12558386.88157895</v>
+        <v>11790900.51851852</v>
       </c>
       <c r="C21" t="n">
-        <v>3356.763157894737</v>
+        <v>12637.1975308642</v>
       </c>
       <c r="D21" t="n">
-        <v>117698656.7236842</v>
+        <v>117535337.9382716</v>
       </c>
       <c r="E21" t="n">
-        <v>211301303.5</v>
+        <v>198604315.0740741</v>
       </c>
       <c r="F21" t="n">
-        <v>1049.342105263158</v>
+        <v>12206.04938271605</v>
       </c>
       <c r="G21" t="n">
-        <v>90100.51315789473</v>
+        <v>95759.58024691358</v>
       </c>
       <c r="H21" t="n">
-        <v>2620.473684210526</v>
+        <v>2837.567901234568</v>
       </c>
       <c r="I21" t="n">
-        <v>577211.8421052631</v>
+        <v>544776.7160493827</v>
       </c>
       <c r="J21" t="n">
-        <v>506086.6184210526</v>
+        <v>471280.0617283951</v>
       </c>
       <c r="K21" t="n">
-        <v>572523.3947368421</v>
+        <v>540883.0493827161</v>
       </c>
       <c r="L21" t="n">
-        <v>2277.644736842105</v>
+        <v>1846</v>
       </c>
       <c r="M21" t="n">
-        <v>18525.75</v>
+        <v>23615.55555555555</v>
       </c>
       <c r="N21" t="n">
-        <v>13501904.69736842</v>
+        <v>12673546.2962963</v>
       </c>
       <c r="O21" t="n">
-        <v>13666673.97368421</v>
+        <v>11496778.19753086</v>
       </c>
       <c r="P21" t="n">
-        <v>11.72368421052632</v>
+        <v>3.802469135802469</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>20.82716049382716</v>
       </c>
       <c r="R21" t="n">
-        <v>45319679.56578948</v>
+        <v>45381354.88888889</v>
       </c>
       <c r="S21" t="n">
-        <v>290882165.0131579</v>
+        <v>277565675.6296296</v>
       </c>
     </row>
     <row r="22">
@@ -1648,58 +1648,58 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>50327962.66666666</v>
+        <v>45206974</v>
       </c>
       <c r="C22" t="n">
-        <v>23551</v>
+        <v>34581.5</v>
       </c>
       <c r="D22" t="n">
-        <v>117375230.4444444</v>
+        <v>116560425.4</v>
       </c>
       <c r="E22" t="n">
-        <v>341439657.2222222</v>
+        <v>309888236.8</v>
       </c>
       <c r="F22" t="n">
-        <v>8866</v>
+        <v>62434.2</v>
       </c>
       <c r="G22" t="n">
-        <v>395210.8888888889</v>
+        <v>487692.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2679.666666666667</v>
+        <v>2831.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4390625.111111111</v>
+        <v>3957694.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4020644.888888889</v>
+        <v>3492612.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4233343.111111111</v>
+        <v>3772313.6</v>
       </c>
       <c r="L22" t="n">
-        <v>10071.33333333333</v>
+        <v>10041.9</v>
       </c>
       <c r="M22" t="n">
-        <v>29671.44444444445</v>
+        <v>37685.6</v>
       </c>
       <c r="N22" t="n">
-        <v>35919708.22222222</v>
+        <v>31796880</v>
       </c>
       <c r="O22" t="n">
-        <v>37535976.66666666</v>
+        <v>32834424.8</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>166.9</v>
       </c>
       <c r="R22" t="n">
-        <v>10083959.11111111</v>
+        <v>12388723.5</v>
       </c>
       <c r="S22" t="n">
-        <v>390445369</v>
+        <v>356402458.2</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/counters_means.xlsx
+++ b/code/results/signal_reconstruction/counters_means.xlsx
@@ -468,58 +468,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41084125.00244499</v>
+        <v>41411169.69512195</v>
       </c>
       <c r="C2" t="n">
-        <v>24526.85574572127</v>
+        <v>23669.44146341463</v>
       </c>
       <c r="D2" t="n">
-        <v>117942127.6308068</v>
+        <v>117912822.8780488</v>
       </c>
       <c r="E2" t="n">
-        <v>257622639.2591687</v>
+        <v>259347902.495122</v>
       </c>
       <c r="F2" t="n">
-        <v>562565.053789731</v>
+        <v>561962.9975609756</v>
       </c>
       <c r="G2" t="n">
-        <v>4070361.383863081</v>
+        <v>4048687.504878049</v>
       </c>
       <c r="H2" t="n">
-        <v>2858.168704156479</v>
+        <v>2856.392682926829</v>
       </c>
       <c r="I2" t="n">
-        <v>7476180.789731052</v>
+        <v>7552841.163414634</v>
       </c>
       <c r="J2" t="n">
-        <v>3264179.733496333</v>
+        <v>3339568.443902439</v>
       </c>
       <c r="K2" t="n">
-        <v>6190623.787286064</v>
+        <v>6250427.812195122</v>
       </c>
       <c r="L2" t="n">
-        <v>103942.8875305624</v>
+        <v>104209.0975609756</v>
       </c>
       <c r="M2" t="n">
-        <v>26691.64547677262</v>
+        <v>21043.62926829268</v>
       </c>
       <c r="N2" t="n">
-        <v>29404225.41075795</v>
+        <v>29699495.32439024</v>
       </c>
       <c r="O2" t="n">
-        <v>29960700.48166259</v>
+        <v>30267214.02682927</v>
       </c>
       <c r="P2" t="n">
-        <v>6.577017114914425</v>
+        <v>1.207317073170732</v>
       </c>
       <c r="Q2" t="n">
-        <v>209.4278728606357</v>
+        <v>242.1658536585366</v>
       </c>
       <c r="R2" t="n">
-        <v>28585163.22249389</v>
+        <v>28367684.63658537</v>
       </c>
       <c r="S2" t="n">
-        <v>304260028.8166259</v>
+        <v>305240445.8243902</v>
       </c>
     </row>
     <row r="3">
@@ -527,58 +527,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36191032.84068628</v>
+        <v>36270721.58088236</v>
       </c>
       <c r="C3" t="n">
-        <v>22930.54656862745</v>
+        <v>23006.45588235294</v>
       </c>
       <c r="D3" t="n">
-        <v>117886612.8578431</v>
+        <v>117818266.7941176</v>
       </c>
       <c r="E3" t="n">
-        <v>222352906.9852941</v>
+        <v>226977597.6593137</v>
       </c>
       <c r="F3" t="n">
-        <v>586646.8039215687</v>
+        <v>589494.818627451</v>
       </c>
       <c r="G3" t="n">
-        <v>3692899.713235294</v>
+        <v>3750244.977941176</v>
       </c>
       <c r="H3" t="n">
-        <v>2852.948529411765</v>
+        <v>2845.345588235294</v>
       </c>
       <c r="I3" t="n">
-        <v>6489906.375</v>
+        <v>6613530.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2675526.727941176</v>
+        <v>2740732.137254902</v>
       </c>
       <c r="K3" t="n">
-        <v>5317231.720588235</v>
+        <v>5431927.227941177</v>
       </c>
       <c r="L3" t="n">
-        <v>106850.056372549</v>
+        <v>104436.2205882353</v>
       </c>
       <c r="M3" t="n">
-        <v>21582.89950980392</v>
+        <v>23705.09803921569</v>
       </c>
       <c r="N3" t="n">
-        <v>25414378.44852941</v>
+        <v>26011972.24509804</v>
       </c>
       <c r="O3" t="n">
-        <v>19496251.95343137</v>
+        <v>26533113.20098039</v>
       </c>
       <c r="P3" t="n">
-        <v>1.816176470588235</v>
+        <v>2.053921568627451</v>
       </c>
       <c r="Q3" t="n">
-        <v>419.1617647058824</v>
+        <v>331.1960784313725</v>
       </c>
       <c r="R3" t="n">
-        <v>41688990.43872549</v>
+        <v>39914161.1127451</v>
       </c>
       <c r="S3" t="n">
-        <v>269994826.9387255</v>
+        <v>268875014.622549</v>
       </c>
     </row>
     <row r="4">
@@ -586,58 +586,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9893901.232273839</v>
+        <v>9857728.975369459</v>
       </c>
       <c r="C4" t="n">
-        <v>8889.718826405868</v>
+        <v>8993.647783251232</v>
       </c>
       <c r="D4" t="n">
-        <v>117962516.596577</v>
+        <v>119370527.6576355</v>
       </c>
       <c r="E4" t="n">
-        <v>255004500.2738386</v>
+        <v>258164641.8546798</v>
       </c>
       <c r="F4" t="n">
-        <v>360907.8239608802</v>
+        <v>368515.9236453202</v>
       </c>
       <c r="G4" t="n">
-        <v>1463001.564792176</v>
+        <v>1455312.591133005</v>
       </c>
       <c r="H4" t="n">
-        <v>3237760.95599022</v>
+        <v>3250278.162561576</v>
       </c>
       <c r="I4" t="n">
-        <v>5450131.721271394</v>
+        <v>5550694.911330049</v>
       </c>
       <c r="J4" t="n">
-        <v>3750556.378973105</v>
+        <v>3838061.02955665</v>
       </c>
       <c r="K4" t="n">
-        <v>4612594.430317848</v>
+        <v>4687108.600985222</v>
       </c>
       <c r="L4" t="n">
-        <v>455715.1344743276</v>
+        <v>463258.8497536946</v>
       </c>
       <c r="M4" t="n">
-        <v>22417.38141809291</v>
+        <v>24458.29310344828</v>
       </c>
       <c r="N4" t="n">
-        <v>13042684.799511</v>
+        <v>13128410.82512315</v>
       </c>
       <c r="O4" t="n">
-        <v>14163967.02444988</v>
+        <v>12516300.63793103</v>
       </c>
       <c r="P4" t="n">
-        <v>3.469437652811736</v>
+        <v>3.881773399014778</v>
       </c>
       <c r="Q4" t="n">
-        <v>1017.403422982885</v>
+        <v>963.756157635468</v>
       </c>
       <c r="R4" t="n">
-        <v>36448321.2787286</v>
+        <v>36863333.56650246</v>
       </c>
       <c r="S4" t="n">
-        <v>319542177.8997555</v>
+        <v>324574935.2536946</v>
       </c>
     </row>
     <row r="5">
@@ -645,58 +645,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9672986.55012225</v>
+        <v>10019622.28501228</v>
       </c>
       <c r="C5" t="n">
-        <v>8989.508557457213</v>
+        <v>9022.243243243243</v>
       </c>
       <c r="D5" t="n">
-        <v>117879769.5012225</v>
+        <v>119327277.7420147</v>
       </c>
       <c r="E5" t="n">
-        <v>251670002.2396088</v>
+        <v>253869071.04914</v>
       </c>
       <c r="F5" t="n">
-        <v>358729.5794621027</v>
+        <v>361588.687960688</v>
       </c>
       <c r="G5" t="n">
-        <v>1443088.173594132</v>
+        <v>1442321.678132678</v>
       </c>
       <c r="H5" t="n">
-        <v>3283980.464547677</v>
+        <v>2974610.356265356</v>
       </c>
       <c r="I5" t="n">
-        <v>5347477.865525672</v>
+        <v>5329995.058968059</v>
       </c>
       <c r="J5" t="n">
-        <v>3657949.584352078</v>
+        <v>3681226.587223587</v>
       </c>
       <c r="K5" t="n">
-        <v>4518560.919315403</v>
+        <v>4564980.142506142</v>
       </c>
       <c r="L5" t="n">
-        <v>455052.9633251834</v>
+        <v>455077.0761670762</v>
       </c>
       <c r="M5" t="n">
-        <v>22719.8728606357</v>
+        <v>22045.20393120393</v>
       </c>
       <c r="N5" t="n">
-        <v>12992950.38875306</v>
+        <v>13488202.30466831</v>
       </c>
       <c r="O5" t="n">
-        <v>14061394.73105134</v>
+        <v>19584277.85257985</v>
       </c>
       <c r="P5" t="n">
-        <v>6.366748166259169</v>
+        <v>3.562653562653562</v>
       </c>
       <c r="Q5" t="n">
-        <v>1007.550122249389</v>
+        <v>1012.879606879607</v>
       </c>
       <c r="R5" t="n">
-        <v>36282259.80929095</v>
+        <v>36629355.76167076</v>
       </c>
       <c r="S5" t="n">
-        <v>318281824.0097799</v>
+        <v>325356969.5233415</v>
       </c>
     </row>
     <row r="6">
@@ -704,58 +704,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3885758.997555012</v>
+        <v>3873027.385365854</v>
       </c>
       <c r="C6" t="n">
-        <v>10150.00488997555</v>
+        <v>10249.55853658537</v>
       </c>
       <c r="D6" t="n">
-        <v>117714639.0146699</v>
+        <v>117827352.1951219</v>
       </c>
       <c r="E6" t="n">
-        <v>266648140.0635697</v>
+        <v>265328192.5243903</v>
       </c>
       <c r="F6" t="n">
-        <v>267043.8973105134</v>
+        <v>267320.7731707317</v>
       </c>
       <c r="G6" t="n">
-        <v>1406987.376528117</v>
+        <v>1380264.351219512</v>
       </c>
       <c r="H6" t="n">
-        <v>20826250.33496333</v>
+        <v>20714721.40731707</v>
       </c>
       <c r="I6" t="n">
-        <v>5339677.249388753</v>
+        <v>5304150.209756098</v>
       </c>
       <c r="J6" t="n">
-        <v>3896686.562347188</v>
+        <v>3889855.670731707</v>
       </c>
       <c r="K6" t="n">
-        <v>5004292.584352078</v>
+        <v>4979480.607317073</v>
       </c>
       <c r="L6" t="n">
-        <v>104893.5819070905</v>
+        <v>102229.6195121951</v>
       </c>
       <c r="M6" t="n">
-        <v>22124.55990220049</v>
+        <v>23521.88292682927</v>
       </c>
       <c r="N6" t="n">
-        <v>18951969.24449878</v>
+        <v>18874109.79756097</v>
       </c>
       <c r="O6" t="n">
-        <v>19465605.93887531</v>
+        <v>19385062.6195122</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3960880195599022</v>
+        <v>3.95609756097561</v>
       </c>
       <c r="Q6" t="n">
-        <v>202.7041564792176</v>
+        <v>222.0243902439024</v>
       </c>
       <c r="R6" t="n">
-        <v>38837345.07334963</v>
+        <v>38733133.37804878</v>
       </c>
       <c r="S6" t="n">
-        <v>300930763.8630807</v>
+        <v>301412418.3780488</v>
       </c>
     </row>
     <row r="7">
@@ -763,58 +763,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4120313.009803921</v>
+        <v>4134618.578431373</v>
       </c>
       <c r="C7" t="n">
-        <v>10620.32598039216</v>
+        <v>10535.07352941176</v>
       </c>
       <c r="D7" t="n">
-        <v>118023195.4926471</v>
+        <v>117983270.4509804</v>
       </c>
       <c r="E7" t="n">
-        <v>281937652.8872549</v>
+        <v>283773543.7916667</v>
       </c>
       <c r="F7" t="n">
-        <v>246531.919117647</v>
+        <v>247085.7598039216</v>
       </c>
       <c r="G7" t="n">
-        <v>1284230.433823529</v>
+        <v>1327021.004901961</v>
       </c>
       <c r="H7" t="n">
-        <v>22048449.53186275</v>
+        <v>22206693.11519608</v>
       </c>
       <c r="I7" t="n">
-        <v>5642127.919117647</v>
+        <v>5672799.49509804</v>
       </c>
       <c r="J7" t="n">
-        <v>4324179.416666667</v>
+        <v>4307536.286764706</v>
       </c>
       <c r="K7" t="n">
-        <v>5362511.68627451</v>
+        <v>5372694.446078432</v>
       </c>
       <c r="L7" t="n">
-        <v>104355.9387254902</v>
+        <v>105791.9068627451</v>
       </c>
       <c r="M7" t="n">
-        <v>19202.99264705883</v>
+        <v>18951.60784313726</v>
       </c>
       <c r="N7" t="n">
-        <v>20054333.89705882</v>
+        <v>20179944.69852941</v>
       </c>
       <c r="O7" t="n">
-        <v>20614395.90196078</v>
+        <v>20696278.10294118</v>
       </c>
       <c r="P7" t="n">
-        <v>1.198529411764706</v>
+        <v>0.2892156862745098</v>
       </c>
       <c r="Q7" t="n">
-        <v>272.2892156862745</v>
+        <v>215.4191176470588</v>
       </c>
       <c r="R7" t="n">
-        <v>36347068.43627451</v>
+        <v>36376153.09313726</v>
       </c>
       <c r="S7" t="n">
-        <v>319247634.7892157</v>
+        <v>317450430.2647059</v>
       </c>
     </row>
     <row r="8">
@@ -822,58 +822,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12000336.27383863</v>
+        <v>11326784.0958231</v>
       </c>
       <c r="C8" t="n">
-        <v>10861.76528117359</v>
+        <v>11029.26535626536</v>
       </c>
       <c r="D8" t="n">
-        <v>117868605.5867971</v>
+        <v>114411558.4127764</v>
       </c>
       <c r="E8" t="n">
-        <v>216034020.4743276</v>
+        <v>209250099.9066339</v>
       </c>
       <c r="F8" t="n">
-        <v>414320.4205378973</v>
+        <v>402731.2997542997</v>
       </c>
       <c r="G8" t="n">
-        <v>1712226.281173594</v>
+        <v>1645535.574938575</v>
       </c>
       <c r="H8" t="n">
-        <v>5020867.767726162</v>
+        <v>4725027.523341523</v>
       </c>
       <c r="I8" t="n">
-        <v>4199207.486552567</v>
+        <v>4025916.891891892</v>
       </c>
       <c r="J8" t="n">
-        <v>1963069.936430318</v>
+        <v>1914090.380835381</v>
       </c>
       <c r="K8" t="n">
-        <v>3035865.870415648</v>
+        <v>2910456.15970516</v>
       </c>
       <c r="L8" t="n">
-        <v>366502.6112469438</v>
+        <v>372064.7665847666</v>
       </c>
       <c r="M8" t="n">
-        <v>23689.59657701711</v>
+        <v>25561.52334152334</v>
       </c>
       <c r="N8" t="n">
-        <v>29072493.80929095</v>
+        <v>28475660.78624079</v>
       </c>
       <c r="O8" t="n">
-        <v>28129100.56723716</v>
+        <v>25183452.32186732</v>
       </c>
       <c r="P8" t="n">
-        <v>2.124694376528117</v>
+        <v>7.533169533169533</v>
       </c>
       <c r="Q8" t="n">
-        <v>208.7652811735941</v>
+        <v>183.987714987715</v>
       </c>
       <c r="R8" t="n">
-        <v>43465310.05378973</v>
+        <v>42965526.61916462</v>
       </c>
       <c r="S8" t="n">
-        <v>287007217.0782396</v>
+        <v>274104001.8329238</v>
       </c>
     </row>
     <row r="9">
@@ -881,58 +881,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10459727.70415648</v>
+        <v>10414208.39608802</v>
       </c>
       <c r="C9" t="n">
-        <v>9460.398533007336</v>
+        <v>9458.542787286064</v>
       </c>
       <c r="D9" t="n">
-        <v>117853749.5525672</v>
+        <v>117787547.8801956</v>
       </c>
       <c r="E9" t="n">
-        <v>197070523.1418093</v>
+        <v>198580495.4987775</v>
       </c>
       <c r="F9" t="n">
-        <v>429544.3569682151</v>
+        <v>424878.02200489</v>
       </c>
       <c r="G9" t="n">
-        <v>1750697.650366748</v>
+        <v>1757850.603911981</v>
       </c>
       <c r="H9" t="n">
-        <v>4521270.95599022</v>
+        <v>4535954.765281173</v>
       </c>
       <c r="I9" t="n">
-        <v>3869930.141809291</v>
+        <v>3908316.921760391</v>
       </c>
       <c r="J9" t="n">
-        <v>1692698.466992665</v>
+        <v>1731827.894865526</v>
       </c>
       <c r="K9" t="n">
-        <v>2786271.168704156</v>
+        <v>2816862.743276284</v>
       </c>
       <c r="L9" t="n">
-        <v>383918.0806845966</v>
+        <v>384669.4498777506</v>
       </c>
       <c r="M9" t="n">
-        <v>25657.79706601467</v>
+        <v>23330.69682151589</v>
       </c>
       <c r="N9" t="n">
-        <v>26530131.35207824</v>
+        <v>26907958.63569682</v>
       </c>
       <c r="O9" t="n">
-        <v>24927648.07334963</v>
+        <v>27485411.8606357</v>
       </c>
       <c r="P9" t="n">
-        <v>3.662591687041565</v>
+        <v>1.144254278728606</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.3276283618582</v>
+        <v>238.1760391198044</v>
       </c>
       <c r="R9" t="n">
-        <v>51389778.5794621</v>
+        <v>51079423.04400978</v>
       </c>
       <c r="S9" t="n">
-        <v>255718431.3374083</v>
+        <v>256962245.2102689</v>
       </c>
     </row>
     <row r="10">
@@ -940,58 +940,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9519738.225490196</v>
+        <v>9452831.757352941</v>
       </c>
       <c r="C10" t="n">
-        <v>9469.389705882353</v>
+        <v>9393.441176470587</v>
       </c>
       <c r="D10" t="n">
-        <v>117601884.879902</v>
+        <v>117794031.8995098</v>
       </c>
       <c r="E10" t="n">
-        <v>178887421.245098</v>
+        <v>179251233.0637255</v>
       </c>
       <c r="F10" t="n">
-        <v>590817.25</v>
+        <v>592546.6715686275</v>
       </c>
       <c r="G10" t="n">
-        <v>1924707.708333333</v>
+        <v>1943145.115196078</v>
       </c>
       <c r="H10" t="n">
-        <v>4064783.458333333</v>
+        <v>4038852.93627451</v>
       </c>
       <c r="I10" t="n">
-        <v>7920866.107843137</v>
+        <v>7920114.62745098</v>
       </c>
       <c r="J10" t="n">
-        <v>5279405.367647059</v>
+        <v>5293905.730392157</v>
       </c>
       <c r="K10" t="n">
-        <v>6464949.080882353</v>
+        <v>6455283.06372549</v>
       </c>
       <c r="L10" t="n">
-        <v>490217.2745098039</v>
+        <v>490866.2671568628</v>
       </c>
       <c r="M10" t="n">
-        <v>25439.73039215686</v>
+        <v>25251.89460784314</v>
       </c>
       <c r="N10" t="n">
-        <v>24771493.8504902</v>
+        <v>24857396.66911765</v>
       </c>
       <c r="O10" t="n">
-        <v>20709504.72303922</v>
+        <v>25662345.52696078</v>
       </c>
       <c r="P10" t="n">
-        <v>5.198529411764706</v>
+        <v>2.156862745098039</v>
       </c>
       <c r="Q10" t="n">
-        <v>125.1421568627451</v>
+        <v>100.703431372549</v>
       </c>
       <c r="R10" t="n">
-        <v>56174057.25735294</v>
+        <v>55554347.2254902</v>
       </c>
       <c r="S10" t="n">
-        <v>241384609.3333333</v>
+        <v>244555760.9019608</v>
       </c>
     </row>
     <row r="11">
@@ -999,58 +999,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10120486.82396088</v>
+        <v>10132629.65281174</v>
       </c>
       <c r="C11" t="n">
-        <v>9824.946210268949</v>
+        <v>10125.79462102689</v>
       </c>
       <c r="D11" t="n">
-        <v>117822492.0244499</v>
+        <v>117884199.2298288</v>
       </c>
       <c r="E11" t="n">
-        <v>192622112.7066015</v>
+        <v>192277230.9657702</v>
       </c>
       <c r="F11" t="n">
-        <v>580169.7872860635</v>
+        <v>581299.0488997555</v>
       </c>
       <c r="G11" t="n">
-        <v>1992467.69193154</v>
+        <v>2007308.075794621</v>
       </c>
       <c r="H11" t="n">
-        <v>4349695.105134474</v>
+        <v>4338282.315403423</v>
       </c>
       <c r="I11" t="n">
-        <v>8507586.058679707</v>
+        <v>8505722.391198045</v>
       </c>
       <c r="J11" t="n">
-        <v>5747341.973105134</v>
+        <v>5720108.075794621</v>
       </c>
       <c r="K11" t="n">
-        <v>6994478.872860636</v>
+        <v>6983944.547677262</v>
       </c>
       <c r="L11" t="n">
-        <v>509671.804400978</v>
+        <v>507679.6650366748</v>
       </c>
       <c r="M11" t="n">
-        <v>23948.27628361858</v>
+        <v>23955.26894865526</v>
       </c>
       <c r="N11" t="n">
-        <v>26663915.65036675</v>
+        <v>26590470.200489</v>
       </c>
       <c r="O11" t="n">
-        <v>27186595.75794621</v>
+        <v>27127225.12713936</v>
       </c>
       <c r="P11" t="n">
-        <v>1.320293398533007</v>
+        <v>3.190709046454768</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.4987775061125</v>
+        <v>175.7897310513447</v>
       </c>
       <c r="R11" t="n">
-        <v>52416025.19070905</v>
+        <v>52706799.19804401</v>
       </c>
       <c r="S11" t="n">
-        <v>257672078.5550122</v>
+        <v>256493506.007335</v>
       </c>
     </row>
     <row r="12">
@@ -1058,58 +1058,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9312186.646341464</v>
+        <v>9461582.224390244</v>
       </c>
       <c r="C12" t="n">
-        <v>11010.06097560976</v>
+        <v>10837.0487804878</v>
       </c>
       <c r="D12" t="n">
-        <v>117790726.6878049</v>
+        <v>117830475.4317073</v>
       </c>
       <c r="E12" t="n">
-        <v>192441832.4439024</v>
+        <v>195046956.8707317</v>
       </c>
       <c r="F12" t="n">
-        <v>529341.8219512195</v>
+        <v>527926.5317073171</v>
       </c>
       <c r="G12" t="n">
-        <v>1838830.065853659</v>
+        <v>1833926.504878049</v>
       </c>
       <c r="H12" t="n">
-        <v>5152764.946341463</v>
+        <v>5209673.565853658</v>
       </c>
       <c r="I12" t="n">
-        <v>7931588.419512196</v>
+        <v>8042557.046341463</v>
       </c>
       <c r="J12" t="n">
-        <v>5396890.934146342</v>
+        <v>5487549.314634146</v>
       </c>
       <c r="K12" t="n">
-        <v>6554872.636585366</v>
+        <v>6643615.826829269</v>
       </c>
       <c r="L12" t="n">
-        <v>475501.1024390244</v>
+        <v>474176.4902439024</v>
       </c>
       <c r="M12" t="n">
-        <v>25290.12926829268</v>
+        <v>22809.82195121951</v>
       </c>
       <c r="N12" t="n">
-        <v>23912822.72926829</v>
+        <v>24212138.1804878</v>
       </c>
       <c r="O12" t="n">
-        <v>21630112.2902439</v>
+        <v>24750423.65365854</v>
       </c>
       <c r="P12" t="n">
-        <v>7.88780487804878</v>
+        <v>1.082926829268293</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.8073170731707</v>
+        <v>181.6585365853659</v>
       </c>
       <c r="R12" t="n">
-        <v>51122507.65853658</v>
+        <v>51588568.74634147</v>
       </c>
       <c r="S12" t="n">
-        <v>254630609.3512195</v>
+        <v>254609304.5243903</v>
       </c>
     </row>
     <row r="13">
@@ -1117,58 +1117,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8566235.68215159</v>
+        <v>8645860.662591686</v>
       </c>
       <c r="C13" t="n">
-        <v>10106.03178484108</v>
+        <v>9967.435207823961</v>
       </c>
       <c r="D13" t="n">
-        <v>117776698.0440098</v>
+        <v>117716727.8386308</v>
       </c>
       <c r="E13" t="n">
-        <v>173138410.3129584</v>
+        <v>177017183.3520782</v>
       </c>
       <c r="F13" t="n">
-        <v>530866.7799511002</v>
+        <v>534446.2322738386</v>
       </c>
       <c r="G13" t="n">
-        <v>1774094.701711491</v>
+        <v>1798441.968215159</v>
       </c>
       <c r="H13" t="n">
-        <v>4386720.403422982</v>
+        <v>4722360.518337408</v>
       </c>
       <c r="I13" t="n">
-        <v>7193067.127139364</v>
+        <v>7307652.254278729</v>
       </c>
       <c r="J13" t="n">
-        <v>4790989.334963325</v>
+        <v>4870864.039119804</v>
       </c>
       <c r="K13" t="n">
-        <v>5911921.276283619</v>
+        <v>6019376.694376528</v>
       </c>
       <c r="L13" t="n">
-        <v>466803.8606356968</v>
+        <v>448065.7188264059</v>
       </c>
       <c r="M13" t="n">
-        <v>23035.76528117359</v>
+        <v>22704.19804400978</v>
       </c>
       <c r="N13" t="n">
-        <v>21750470.64792176</v>
+        <v>21917685.67726161</v>
       </c>
       <c r="O13" t="n">
-        <v>23921898.47677262</v>
+        <v>22476877.52811736</v>
       </c>
       <c r="P13" t="n">
-        <v>2.711491442542787</v>
+        <v>1.298288508557457</v>
       </c>
       <c r="Q13" t="n">
-        <v>157.0195599022005</v>
+        <v>153.3105134474328</v>
       </c>
       <c r="R13" t="n">
-        <v>56717340.88997555</v>
+        <v>56843719.08801956</v>
       </c>
       <c r="S13" t="n">
-        <v>233380166.4498777</v>
+        <v>233302671.6259169</v>
       </c>
     </row>
     <row r="14">
@@ -1176,58 +1176,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9934086.846938776</v>
+        <v>9369753.303754266</v>
       </c>
       <c r="C14" t="n">
-        <v>9533.615646258504</v>
+        <v>8949.846416382252</v>
       </c>
       <c r="D14" t="n">
-        <v>121099980.1428571</v>
+        <v>117864718.4129693</v>
       </c>
       <c r="E14" t="n">
-        <v>249395045.2176871</v>
+        <v>245772631.5017065</v>
       </c>
       <c r="F14" t="n">
-        <v>466341.3163265306</v>
+        <v>454558.7747440273</v>
       </c>
       <c r="G14" t="n">
-        <v>1565117.81292517</v>
+        <v>1531431.723549488</v>
       </c>
       <c r="H14" t="n">
-        <v>2153786.857142857</v>
+        <v>2040585.447098976</v>
       </c>
       <c r="I14" t="n">
-        <v>5658979.244897959</v>
+        <v>5776095.863481228</v>
       </c>
       <c r="J14" t="n">
-        <v>3937174.744897959</v>
+        <v>4062662.873720136</v>
       </c>
       <c r="K14" t="n">
-        <v>4903503.846938776</v>
+        <v>4964330.409556314</v>
       </c>
       <c r="L14" t="n">
-        <v>479552.4591836735</v>
+        <v>487191.7303754266</v>
       </c>
       <c r="M14" t="n">
-        <v>27797.06462585034</v>
+        <v>23098.40955631399</v>
       </c>
       <c r="N14" t="n">
-        <v>12292988.53061225</v>
+        <v>12183719.45733788</v>
       </c>
       <c r="O14" t="n">
-        <v>13979403.18707483</v>
+        <v>13438195.11604096</v>
       </c>
       <c r="P14" t="n">
-        <v>7.608843537414966</v>
+        <v>6.262798634812286</v>
       </c>
       <c r="Q14" t="n">
-        <v>1449.278911564626</v>
+        <v>1296.740614334471</v>
       </c>
       <c r="R14" t="n">
-        <v>37559552.28911564</v>
+        <v>37203206.54948805</v>
       </c>
       <c r="S14" t="n">
-        <v>312057603.4081632</v>
+        <v>313265208.5187714</v>
       </c>
     </row>
     <row r="15">
@@ -1235,58 +1235,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9406328.908474576</v>
+        <v>9430895.339041095</v>
       </c>
       <c r="C15" t="n">
-        <v>9277.030508474576</v>
+        <v>9098.79109589041</v>
       </c>
       <c r="D15" t="n">
-        <v>117786782.4813559</v>
+        <v>119753474.359589</v>
       </c>
       <c r="E15" t="n">
-        <v>243799573.5525424</v>
+        <v>247405508.2671233</v>
       </c>
       <c r="F15" t="n">
-        <v>456496.7423728813</v>
+        <v>458746.0308219178</v>
       </c>
       <c r="G15" t="n">
-        <v>1526464.420338983</v>
+        <v>1556661.886986301</v>
       </c>
       <c r="H15" t="n">
-        <v>1992758.972881356</v>
+        <v>2183679.133561644</v>
       </c>
       <c r="I15" t="n">
-        <v>5653975.393220339</v>
+        <v>5797028.184931506</v>
       </c>
       <c r="J15" t="n">
-        <v>4039065.244067797</v>
+        <v>4129687.489726027</v>
       </c>
       <c r="K15" t="n">
-        <v>5000160.786440678</v>
+        <v>5070170.113013699</v>
       </c>
       <c r="L15" t="n">
-        <v>524097.772881356</v>
+        <v>483554.0958904109</v>
       </c>
       <c r="M15" t="n">
-        <v>24255.01016949152</v>
+        <v>24825.7397260274</v>
       </c>
       <c r="N15" t="n">
-        <v>12401805.98983051</v>
+        <v>12442597.67465753</v>
       </c>
       <c r="O15" t="n">
-        <v>12930694.65762712</v>
+        <v>14717566.67123288</v>
       </c>
       <c r="P15" t="n">
-        <v>4.796610169491525</v>
+        <v>4.476027397260274</v>
       </c>
       <c r="Q15" t="n">
-        <v>1432.522033898305</v>
+        <v>1533.582191780822</v>
       </c>
       <c r="R15" t="n">
-        <v>37611314.71525424</v>
+        <v>40698229.46232877</v>
       </c>
       <c r="S15" t="n">
-        <v>310749847.8305085</v>
+        <v>327468821.6438356</v>
       </c>
     </row>
     <row r="16">
@@ -1294,58 +1294,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10612741.29411765</v>
+        <v>10508353.6992665</v>
       </c>
       <c r="C16" t="n">
-        <v>9114.495098039215</v>
+        <v>9214.638141809291</v>
       </c>
       <c r="D16" t="n">
-        <v>117826938.0808824</v>
+        <v>116962833.3325183</v>
       </c>
       <c r="E16" t="n">
-        <v>197533521.379902</v>
+        <v>194713616.4449878</v>
       </c>
       <c r="F16" t="n">
-        <v>419302.6225490196</v>
+        <v>417140.7775061125</v>
       </c>
       <c r="G16" t="n">
-        <v>1754335.397058824</v>
+        <v>1727343.432762836</v>
       </c>
       <c r="H16" t="n">
-        <v>4719849.174019608</v>
+        <v>4688731.750611247</v>
       </c>
       <c r="I16" t="n">
-        <v>3869050.821078431</v>
+        <v>3857641.836185819</v>
       </c>
       <c r="J16" t="n">
-        <v>1683358.823529412</v>
+        <v>1692588.738386308</v>
       </c>
       <c r="K16" t="n">
-        <v>2776615.700980392</v>
+        <v>2770039.163814181</v>
       </c>
       <c r="L16" t="n">
-        <v>409178.5245098039</v>
+        <v>404594.8899755501</v>
       </c>
       <c r="M16" t="n">
-        <v>23347.28431372549</v>
+        <v>24445.0782396088</v>
       </c>
       <c r="N16" t="n">
-        <v>26539864.1495098</v>
+        <v>26157301.87530562</v>
       </c>
       <c r="O16" t="n">
-        <v>27058096.03676471</v>
+        <v>23616928.1002445</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9485294117647058</v>
+        <v>5.430317848410758</v>
       </c>
       <c r="Q16" t="n">
-        <v>213.5294117647059</v>
+        <v>223.3300733496332</v>
       </c>
       <c r="R16" t="n">
-        <v>51209955.36764706</v>
+        <v>49964451.02444988</v>
       </c>
       <c r="S16" t="n">
-        <v>253947458.4240196</v>
+        <v>258435282.202934</v>
       </c>
     </row>
     <row r="17">
@@ -1353,58 +1353,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10684067.87560976</v>
+        <v>10643243.63658537</v>
       </c>
       <c r="C17" t="n">
-        <v>9732.441463414634</v>
+        <v>9701.175609756097</v>
       </c>
       <c r="D17" t="n">
-        <v>117601998.8365854</v>
+        <v>117840207.3609756</v>
       </c>
       <c r="E17" t="n">
-        <v>196307258.7121951</v>
+        <v>196155375.4853659</v>
       </c>
       <c r="F17" t="n">
-        <v>576068.7024390243</v>
+        <v>575380.5146341464</v>
       </c>
       <c r="G17" t="n">
-        <v>2020248.119512195</v>
+        <v>2024049.887804878</v>
       </c>
       <c r="H17" t="n">
-        <v>4719063.043902439</v>
+        <v>4729138.224390244</v>
       </c>
       <c r="I17" t="n">
-        <v>9042278.792682927</v>
+        <v>9033663.692682927</v>
       </c>
       <c r="J17" t="n">
-        <v>6183302.226829268</v>
+        <v>6176830.456097561</v>
       </c>
       <c r="K17" t="n">
-        <v>7461862.3</v>
+        <v>7449625.363414634</v>
       </c>
       <c r="L17" t="n">
-        <v>542672.0268292683</v>
+        <v>541468.5926829268</v>
       </c>
       <c r="M17" t="n">
-        <v>22613.34146341464</v>
+        <v>27348.98048780488</v>
       </c>
       <c r="N17" t="n">
-        <v>26861268.55121951</v>
+        <v>26832972.41219512</v>
       </c>
       <c r="O17" t="n">
-        <v>27415425.06341463</v>
+        <v>27351072.28780488</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.175609756097561</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.5487804878049</v>
+        <v>149.7390243902439</v>
       </c>
       <c r="R17" t="n">
-        <v>50996660.85609756</v>
+        <v>51196627.59024391</v>
       </c>
       <c r="S17" t="n">
-        <v>260820055.2731707</v>
+        <v>260258272.7926829</v>
       </c>
     </row>
     <row r="18">
@@ -1412,58 +1412,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9074594.814180929</v>
+        <v>9049222.919315403</v>
       </c>
       <c r="C18" t="n">
-        <v>8352.711491442542</v>
+        <v>8255.501222493887</v>
       </c>
       <c r="D18" t="n">
-        <v>117994946.7188264</v>
+        <v>118333141.7188264</v>
       </c>
       <c r="E18" t="n">
-        <v>169019563.2224939</v>
+        <v>170797753.7041565</v>
       </c>
       <c r="F18" t="n">
-        <v>559530.9828850856</v>
+        <v>553842.4841075795</v>
       </c>
       <c r="G18" t="n">
-        <v>1787661.645476773</v>
+        <v>1788150.574572127</v>
       </c>
       <c r="H18" t="n">
-        <v>3783462.195599022</v>
+        <v>3832451.349633252</v>
       </c>
       <c r="I18" t="n">
-        <v>7353959.432762836</v>
+        <v>7413212.728606357</v>
       </c>
       <c r="J18" t="n">
-        <v>4885592.290953545</v>
+        <v>4911273.677261613</v>
       </c>
       <c r="K18" t="n">
-        <v>5980304.91198044</v>
+        <v>6010157.129584352</v>
       </c>
       <c r="L18" t="n">
-        <v>498069.7799511002</v>
+        <v>503303.8606356968</v>
       </c>
       <c r="M18" t="n">
-        <v>24476.16870415648</v>
+        <v>23934.00733496332</v>
       </c>
       <c r="N18" t="n">
-        <v>21979282.01711491</v>
+        <v>22089183.22738386</v>
       </c>
       <c r="O18" t="n">
-        <v>22570093.10268949</v>
+        <v>22699082.56968215</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3740831295843521</v>
+        <v>0.1980440097799511</v>
       </c>
       <c r="Q18" t="n">
-        <v>222.0562347188264</v>
+        <v>205.9462102689486</v>
       </c>
       <c r="R18" t="n">
-        <v>57649126.89731051</v>
+        <v>57602082.14914425</v>
       </c>
       <c r="S18" t="n">
-        <v>224216640.9266504</v>
+        <v>224973626.3398533</v>
       </c>
     </row>
     <row r="19">
@@ -1471,58 +1471,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10142938.25672372</v>
+        <v>10141680.0215311</v>
       </c>
       <c r="C19" t="n">
-        <v>11348.00244498777</v>
+        <v>11119.09330143541</v>
       </c>
       <c r="D19" t="n">
-        <v>117975124.7799511</v>
+        <v>119283735.9449761</v>
       </c>
       <c r="E19" t="n">
-        <v>219453149.8190709</v>
+        <v>220211830.2057416</v>
       </c>
       <c r="F19" t="n">
-        <v>228788.4034229829</v>
+        <v>230854.7488038277</v>
       </c>
       <c r="G19" t="n">
-        <v>326250.2298288508</v>
+        <v>326028.8708133971</v>
       </c>
       <c r="H19" t="n">
-        <v>1181797.2200489</v>
+        <v>1381339.203349282</v>
       </c>
       <c r="I19" t="n">
-        <v>2559102.819070905</v>
+        <v>2612190.229665072</v>
       </c>
       <c r="J19" t="n">
-        <v>1910808.161369193</v>
+        <v>1994311.722488038</v>
       </c>
       <c r="K19" t="n">
-        <v>2072017.068459658</v>
+        <v>2154465.459330143</v>
       </c>
       <c r="L19" t="n">
-        <v>139361.4083129584</v>
+        <v>138743.3014354067</v>
       </c>
       <c r="M19" t="n">
-        <v>17768.89486552567</v>
+        <v>17434.36363636364</v>
       </c>
       <c r="N19" t="n">
-        <v>12318213.799511</v>
+        <v>12359930.10526316</v>
       </c>
       <c r="O19" t="n">
-        <v>12824372.41075795</v>
+        <v>12858749.96411483</v>
       </c>
       <c r="P19" t="n">
-        <v>0.980440097799511</v>
+        <v>3.528708133971292</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.7530562347188</v>
+        <v>123.9760765550239</v>
       </c>
       <c r="R19" t="n">
-        <v>43729840.64303178</v>
+        <v>45506924.06698564</v>
       </c>
       <c r="S19" t="n">
-        <v>286156285.2322738</v>
+        <v>284155590.1483254</v>
       </c>
     </row>
     <row r="20">
@@ -1530,58 +1530,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7942885.202439024</v>
+        <v>7927930.651219512</v>
       </c>
       <c r="C20" t="n">
-        <v>11927.96585365854</v>
+        <v>10966.70975609756</v>
       </c>
       <c r="D20" t="n">
-        <v>117662679.3097561</v>
+        <v>117938674.397561</v>
       </c>
       <c r="E20" t="n">
-        <v>206176067.6951219</v>
+        <v>205834856.0097561</v>
       </c>
       <c r="F20" t="n">
-        <v>115007.2731707317</v>
+        <v>113167.5487804878</v>
       </c>
       <c r="G20" t="n">
-        <v>224288.6487804878</v>
+        <v>218052.7682926829</v>
       </c>
       <c r="H20" t="n">
-        <v>2850.165853658536</v>
+        <v>2846.721951219512</v>
       </c>
       <c r="I20" t="n">
-        <v>330910.3024390244</v>
+        <v>326144.7853658536</v>
       </c>
       <c r="J20" t="n">
-        <v>11240.23414634146</v>
+        <v>10886.43658536585</v>
       </c>
       <c r="K20" t="n">
-        <v>22306.98048780488</v>
+        <v>20814.15365853659</v>
       </c>
       <c r="L20" t="n">
-        <v>192682.2926829268</v>
+        <v>188615.2609756098</v>
       </c>
       <c r="M20" t="n">
-        <v>14416.75365853659</v>
+        <v>12202.57317073171</v>
       </c>
       <c r="N20" t="n">
-        <v>12246874.01463415</v>
+        <v>12230146.07560976</v>
       </c>
       <c r="O20" t="n">
-        <v>12756755.1</v>
+        <v>12745190.69756098</v>
       </c>
       <c r="P20" t="n">
-        <v>4.431707317073171</v>
+        <v>2.397560975609756</v>
       </c>
       <c r="Q20" t="n">
-        <v>281.6390243902439</v>
+        <v>280.4</v>
       </c>
       <c r="R20" t="n">
-        <v>44350513.75853658</v>
+        <v>45306875.63170732</v>
       </c>
       <c r="S20" t="n">
-        <v>289860801.8</v>
+        <v>287583181.4804878</v>
       </c>
     </row>
     <row r="21">
@@ -1589,58 +1589,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11790900.51851852</v>
+        <v>11848034.54320988</v>
       </c>
       <c r="C21" t="n">
-        <v>12637.1975308642</v>
+        <v>12397.64197530864</v>
       </c>
       <c r="D21" t="n">
-        <v>117535337.9382716</v>
+        <v>117643787.1728395</v>
       </c>
       <c r="E21" t="n">
-        <v>198604315.0740741</v>
+        <v>199491336.0246913</v>
       </c>
       <c r="F21" t="n">
-        <v>12206.04938271605</v>
+        <v>11861.17283950617</v>
       </c>
       <c r="G21" t="n">
-        <v>95759.58024691358</v>
+        <v>93570.12345679013</v>
       </c>
       <c r="H21" t="n">
-        <v>2837.567901234568</v>
+        <v>2839.259259259259</v>
       </c>
       <c r="I21" t="n">
-        <v>544776.7160493827</v>
+        <v>546717.8518518518</v>
       </c>
       <c r="J21" t="n">
-        <v>471280.0617283951</v>
+        <v>475807.975308642</v>
       </c>
       <c r="K21" t="n">
-        <v>540883.0493827161</v>
+        <v>540893.086419753</v>
       </c>
       <c r="L21" t="n">
-        <v>1846</v>
+        <v>1887.703703703704</v>
       </c>
       <c r="M21" t="n">
-        <v>23615.55555555555</v>
+        <v>23790.91358024691</v>
       </c>
       <c r="N21" t="n">
-        <v>12673546.2962963</v>
+        <v>12690108.09876543</v>
       </c>
       <c r="O21" t="n">
-        <v>11496778.19753086</v>
+        <v>11258812.16049383</v>
       </c>
       <c r="P21" t="n">
-        <v>3.802469135802469</v>
+        <v>1.987654320987654</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.82716049382716</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R21" t="n">
-        <v>45381354.88888889</v>
+        <v>45429462.24691358</v>
       </c>
       <c r="S21" t="n">
-        <v>277565675.6296296</v>
+        <v>278189478</v>
       </c>
     </row>
     <row r="22">
@@ -1648,58 +1648,58 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>45206974</v>
+        <v>45837020.7</v>
       </c>
       <c r="C22" t="n">
-        <v>34581.5</v>
+        <v>34168.8</v>
       </c>
       <c r="D22" t="n">
-        <v>116560425.4</v>
+        <v>117131591.7</v>
       </c>
       <c r="E22" t="n">
-        <v>309888236.8</v>
+        <v>306451637.7</v>
       </c>
       <c r="F22" t="n">
-        <v>62434.2</v>
+        <v>62760</v>
       </c>
       <c r="G22" t="n">
-        <v>487692.9</v>
+        <v>525770.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2831.3</v>
+        <v>2800.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3957694.4</v>
+        <v>3940014</v>
       </c>
       <c r="J22" t="n">
-        <v>3492612.1</v>
+        <v>3444896.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3772313.6</v>
+        <v>3752968.6</v>
       </c>
       <c r="L22" t="n">
-        <v>10041.9</v>
+        <v>9777.799999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>37685.6</v>
+        <v>37529.3</v>
       </c>
       <c r="N22" t="n">
-        <v>31796880</v>
+        <v>32075587.7</v>
       </c>
       <c r="O22" t="n">
-        <v>32834424.8</v>
+        <v>33374491</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>166.9</v>
+        <v>63.3</v>
       </c>
       <c r="R22" t="n">
-        <v>12388723.5</v>
+        <v>13388457.3</v>
       </c>
       <c r="S22" t="n">
-        <v>356402458.2</v>
+        <v>361098374.7</v>
       </c>
     </row>
   </sheetData>
